--- a/data_clean/Aker BP 14.01.2021.xlsx
+++ b/data_clean/Aker BP 14.01.2021.xlsx
@@ -1512,7 +1512,7 @@
         <v>0.9095178349369222</v>
       </c>
       <c r="K2">
-        <v>45.80361950135111</v>
+        <v>-0.04196380498648965</v>
       </c>
       <c r="L2">
         <v>-0.004617903291552536</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.07916637839584645</v>
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1654,7 +1654,7 @@
         <v>0.8771929824561281</v>
       </c>
       <c r="K4">
-        <v>46.72897196261647</v>
+        <v>-0.03271028037383528</v>
       </c>
       <c r="L4">
         <v>-0.03390439056194509</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000554861978083</v>
+        <v>0.0005548619780828545</v>
       </c>
       <c r="V4">
-        <v>1.000554861978083</v>
+        <v>0.0005548619780828545</v>
       </c>
       <c r="W4">
-        <v>1.004171881518565</v>
+        <v>0.004171881518564957</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1725,7 +1725,7 @@
         <v>0.8030431107354121</v>
       </c>
       <c r="K5">
-        <v>44.53820909517093</v>
+        <v>-0.05461790904829072</v>
       </c>
       <c r="L5">
         <v>-0.01753213524472226</v>
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000173298211563</v>
+        <v>0.0001732982115625337</v>
       </c>
       <c r="V5">
-        <v>1.000173298211563</v>
+        <v>0.0001732982115625337</v>
       </c>
       <c r="W5">
-        <v>0.9995845450768592</v>
+        <v>-0.0004154549231407678</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1796,7 +1796,7 @@
         <v>1.069982648930019</v>
       </c>
       <c r="K6">
-        <v>51.69041631740713</v>
+        <v>0.0169041631740714</v>
       </c>
       <c r="L6">
         <v>-0.007242770110939431</v>
@@ -1826,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000353467096372</v>
+        <v>0.0003534670963718511</v>
       </c>
       <c r="V6">
-        <v>1.000353467096372</v>
+        <v>0.0003534670963718511</v>
       </c>
       <c r="W6">
-        <v>1.001246882793017</v>
+        <v>0.001246882793017434</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1867,7 +1867,7 @@
         <v>0.778366206011961</v>
       </c>
       <c r="K7">
-        <v>43.76861207666953</v>
+        <v>-0.06231387923330467</v>
       </c>
       <c r="L7">
         <v>-0.003485092834920021</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9999584303292317</v>
+        <v>-4.156967076829332E-05</v>
       </c>
       <c r="V7">
-        <v>0.9999584303292317</v>
+        <v>-4.156967076829332E-05</v>
       </c>
       <c r="W7">
-        <v>0.9983395599833956</v>
+        <v>-0.00166044001660437</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1938,7 +1938,7 @@
         <v>0.680721020696173</v>
       </c>
       <c r="K8">
-        <v>40.50172588513297</v>
+        <v>-0.09498274114867028</v>
       </c>
       <c r="L8">
         <v>-0.002889218983636252</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9998515307182945</v>
+        <v>-0.0001484692817055322</v>
       </c>
       <c r="V8">
-        <v>0.9998515307182945</v>
+        <v>-0.0001484692817055322</v>
       </c>
       <c r="W8">
-        <v>0.9991683991683992</v>
+        <v>-0.0008316008316008316</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2009,7 +2009,7 @@
         <v>0.7467467581971577</v>
       </c>
       <c r="K9">
-        <v>42.75071670766321</v>
+        <v>-0.07249283292336789</v>
       </c>
       <c r="L9">
         <v>-0.002835866443613097</v>
@@ -2039,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9999406034687575</v>
+        <v>-5.93965312425393E-05</v>
       </c>
       <c r="V9">
-        <v>0.9999406034687575</v>
+        <v>-5.93965312425393E-05</v>
       </c>
       <c r="W9">
-        <v>1.000416146483562</v>
+        <v>0.0004161464835621409</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2080,7 +2080,7 @@
         <v>0.9552490871476357</v>
       </c>
       <c r="K10">
-        <v>48.85562118027509</v>
+        <v>-0.01144378819724912</v>
       </c>
       <c r="L10">
         <v>-0.001968507454300783</v>
@@ -2110,13 +2110,13 @@
         <v>-0.04722222222221717</v>
       </c>
       <c r="U10">
-        <v>1.0000924000924</v>
+        <v>9.240009240008007E-05</v>
       </c>
       <c r="V10">
-        <v>1.0000924000924</v>
+        <v>9.240009240008007E-05</v>
       </c>
       <c r="W10">
-        <v>1.001247920133111</v>
+        <v>0.00124792013311148</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2151,7 +2151,7 @@
         <v>0.6317321265717272</v>
       </c>
       <c r="K11">
-        <v>38.71543106153078</v>
+        <v>-0.1128456893846922</v>
       </c>
       <c r="L11">
         <v>-0.002894413198796943</v>
@@ -2181,13 +2181,13 @@
         <v>0.04250000000004661</v>
       </c>
       <c r="U11">
-        <v>0.9997828798447821</v>
+        <v>-0.0002171201552179092</v>
       </c>
       <c r="V11">
-        <v>0.9997828798447821</v>
+        <v>-0.0002171201552179092</v>
       </c>
       <c r="W11">
-        <v>0.9970918155380142</v>
+        <v>-0.002908184461985819</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2222,7 +2222,7 @@
         <v>0.4657081940763095</v>
       </c>
       <c r="K12">
-        <v>31.7735955873399</v>
+        <v>-0.182264044126601</v>
       </c>
       <c r="L12">
         <v>-0.006185914509813052</v>
@@ -2252,13 +2252,13 @@
         <v>-0.02613636363636829</v>
       </c>
       <c r="U12">
-        <v>0.9995576843832346</v>
+        <v>-0.000442315616765443</v>
       </c>
       <c r="V12">
-        <v>0.9995576843832346</v>
+        <v>-0.000442315616765443</v>
       </c>
       <c r="W12">
-        <v>0.9970833333333334</v>
+        <v>-0.002916666666666567</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2293,7 +2293,7 @@
         <v>0.6237878853657998</v>
       </c>
       <c r="K13">
-        <v>38.41560163046023</v>
+        <v>-0.1158439836953977</v>
       </c>
       <c r="L13">
         <v>-0.009157575345020605</v>
@@ -2323,13 +2323,13 @@
         <v>-0.08333333333331439</v>
       </c>
       <c r="U13">
-        <v>0.9997699193141703</v>
+        <v>-0.0002300806858297477</v>
       </c>
       <c r="V13">
-        <v>0.9997699193141703</v>
+        <v>-0.0002300806858297477</v>
       </c>
       <c r="W13">
-        <v>1.001671541997493</v>
+        <v>0.001671541997492643</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2364,7 +2364,7 @@
         <v>0.7485876416469881</v>
       </c>
       <c r="K14">
-        <v>42.81098778336877</v>
+        <v>-0.07189012216631235</v>
       </c>
       <c r="L14">
         <v>-0.0109667250212425</v>
@@ -2394,13 +2394,13 @@
         <v>-0.1721153846153527</v>
       </c>
       <c r="U14">
-        <v>0.9999013020131722</v>
+        <v>-9.86979868278226E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999013020131722</v>
+        <v>-9.86979868278226E-05</v>
       </c>
       <c r="W14">
-        <v>1.00125156445557</v>
+        <v>0.001251564455569509</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2435,7 +2435,7 @@
         <v>0.792377029815822</v>
       </c>
       <c r="K15">
-        <v>44.20816695565685</v>
+        <v>-0.05791833044343148</v>
       </c>
       <c r="L15">
         <v>-0.01177352465035085</v>
@@ -2465,13 +2465,13 @@
         <v>-0.2089285714285722</v>
       </c>
       <c r="U15">
-        <v>0.9999451200270743</v>
+        <v>-5.487997292574764E-05</v>
       </c>
       <c r="V15">
-        <v>0.9999451200270743</v>
+        <v>-5.487997292574764E-05</v>
       </c>
       <c r="W15">
-        <v>1.000416666666667</v>
+        <v>0.0004166666666667318</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2506,7 +2506,7 @@
         <v>0.8845652154344328</v>
       </c>
       <c r="K16">
-        <v>46.93736296255057</v>
+        <v>-0.03062637037449434</v>
       </c>
       <c r="L16">
         <v>-0.01155103284844307</v>
@@ -2536,13 +2536,13 @@
         <v>-0.2108333333333405</v>
       </c>
       <c r="U16">
-        <v>1.000007927542264</v>
+        <v>7.927542263752585E-06</v>
       </c>
       <c r="V16">
-        <v>1.000007927542264</v>
+        <v>7.927542263752585E-06</v>
       </c>
       <c r="W16">
-        <v>1.000832986255727</v>
+        <v>0.0008329862557268086</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2577,7 +2577,7 @@
         <v>0.9816054108224305</v>
       </c>
       <c r="K17">
-        <v>49.53586649801447</v>
+        <v>-0.004641335019855308</v>
       </c>
       <c r="L17">
         <v>-0.01037987321741245</v>
@@ -2607,13 +2607,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U17">
-        <v>1.000058960628173</v>
+        <v>5.896062817334347E-05</v>
       </c>
       <c r="V17">
-        <v>0.9998890152881439</v>
+        <v>-0.0001109847118561103</v>
       </c>
       <c r="W17">
-        <v>1.000832292967124</v>
+        <v>0.0008322929671242818</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2648,7 +2648,7 @@
         <v>1.032679197868745</v>
       </c>
       <c r="K18">
-        <v>50.80384543471023</v>
+        <v>0.008038454347102375</v>
       </c>
       <c r="L18">
         <v>-0.008566950502102558</v>
@@ -2678,13 +2678,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U18">
-        <v>1.000076501494839</v>
+        <v>7.650149483917623E-05</v>
       </c>
       <c r="V18">
-        <v>1.000249743319366</v>
+        <v>0.0002497433193662246</v>
       </c>
       <c r="W18">
-        <v>1.0004158004158</v>
+        <v>0.0004158004158003603</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2719,7 +2719,7 @@
         <v>1.193964841172911</v>
       </c>
       <c r="K19">
-        <v>54.42041817473282</v>
+        <v>0.04420418174732821</v>
       </c>
       <c r="L19">
         <v>-0.005977495507998949</v>
@@ -2749,13 +2749,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U19">
-        <v>1.00013735217642</v>
+        <v>0.0001373521764200802</v>
       </c>
       <c r="V19">
-        <v>1.000055484658492</v>
+        <v>5.548465849192219E-05</v>
       </c>
       <c r="W19">
-        <v>1.001246882793017</v>
+        <v>0.001246882793017434</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2790,7 +2790,7 @@
         <v>1.307147748754771</v>
       </c>
       <c r="K20">
-        <v>56.6564386463881</v>
+        <v>0.06656438646388108</v>
       </c>
       <c r="L20">
         <v>-0.002781941134006983</v>
@@ -2820,13 +2820,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U20">
-        <v>1.000166674980139</v>
+        <v>0.0001666749801387812</v>
       </c>
       <c r="V20">
-        <v>1.000138703950288</v>
+        <v>0.0001387039502884768</v>
       </c>
       <c r="W20">
-        <v>1.000830220008302</v>
+        <v>0.0008302200083021294</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2861,7 +2861,7 @@
         <v>1.545427554190284</v>
       </c>
       <c r="K21">
-        <v>60.7138691355093</v>
+        <v>0.107138691355093</v>
       </c>
       <c r="L21">
         <v>0.001207143603462547</v>
@@ -2891,13 +2891,13 @@
         <v>0.2000000000000171</v>
       </c>
       <c r="U21">
-        <v>1.000233184445612</v>
+        <v>0.0002331844456122667</v>
       </c>
       <c r="V21">
-        <v>1.000166421657005</v>
+        <v>0.0001664216570049781</v>
       </c>
       <c r="W21">
-        <v>1.001659062629614</v>
+        <v>0.001659062629614239</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2932,7 +2932,7 @@
         <v>1.608132766146993</v>
       </c>
       <c r="K22">
-        <v>61.65839358410789</v>
+        <v>0.116583935841079</v>
       </c>
       <c r="L22">
         <v>0.005522562642466861</v>
@@ -2962,13 +2962,13 @@
         <v>0.3562499999999886</v>
       </c>
       <c r="U22">
-        <v>1.00023073259083</v>
+        <v>0.0002307325908299518</v>
       </c>
       <c r="V22">
-        <v>1.000305055603317</v>
+        <v>0.0003050556033168395</v>
       </c>
       <c r="W22">
-        <v>1.000414078674948</v>
+        <v>0.0004140786749482483</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3003,7 +3003,7 @@
         <v>2.070171170038573</v>
       </c>
       <c r="K23">
-        <v>67.42852614346464</v>
+        <v>0.1742852614346464</v>
       </c>
       <c r="L23">
         <v>0.0108442460185299</v>
@@ -3033,13 +3033,13 @@
         <v>0.5187500000000114</v>
       </c>
       <c r="U23">
-        <v>1.000342013885764</v>
+        <v>0.0003420138857639365</v>
       </c>
       <c r="V23">
-        <v>1.000554477405046</v>
+        <v>0.0005544774050456613</v>
       </c>
       <c r="W23">
-        <v>1.002897350993378</v>
+        <v>0.002897350993377623</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3074,7 +3074,7 @@
         <v>1.461080621276358</v>
       </c>
       <c r="K24">
-        <v>59.36744244154897</v>
+        <v>0.09367442441548979</v>
       </c>
       <c r="L24">
         <v>0.01536613048541728</v>
@@ -3104,13 +3104,13 @@
         <v>0.6062499999999886</v>
       </c>
       <c r="U24">
-        <v>1.000203729900156</v>
+        <v>0.0002037299001558246</v>
       </c>
       <c r="V24">
-        <v>1.000360210584649</v>
+        <v>0.0003602105846494119</v>
       </c>
       <c r="W24">
-        <v>0.9975237309120923</v>
+        <v>-0.002476269087907657</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3145,7 +3145,7 @@
         <v>1.161348484001737</v>
       </c>
       <c r="K25">
-        <v>53.7325883631454</v>
+        <v>0.03732588363145406</v>
       </c>
       <c r="L25">
         <v>0.01825051641572574</v>
@@ -3175,13 +3175,13 @@
         <v>0.6437500000000114</v>
       </c>
       <c r="U25">
-        <v>1.000100133109276</v>
+        <v>0.0001001331092760349</v>
       </c>
       <c r="V25">
-        <v>1.00013849264604</v>
+        <v>0.0001384926460403779</v>
       </c>
       <c r="W25">
-        <v>0.9979313198179561</v>
+        <v>-0.002068680182043869</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3216,7 +3216,7 @@
         <v>1.204536725406938</v>
       </c>
       <c r="K26">
-        <v>54.63899564588071</v>
+        <v>0.04638995645880717</v>
       </c>
       <c r="L26">
         <v>0.02006579724638312</v>
@@ -3246,13 +3246,13 @@
         <v>0.6937499999999659</v>
       </c>
       <c r="U26">
-        <v>1.000108735174444</v>
+        <v>0.0001087351744437637</v>
       </c>
       <c r="V26">
-        <v>1.000360031018057</v>
+        <v>0.0003600310180571498</v>
       </c>
       <c r="W26">
-        <v>1.000414593698176</v>
+        <v>0.0004145936981758691</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3287,7 +3287,7 @@
         <v>1.249998032149243</v>
       </c>
       <c r="K27">
-        <v>55.55551668439549</v>
+        <v>0.0555551668439549</v>
       </c>
       <c r="L27">
         <v>0.02120870330216997</v>
@@ -3317,13 +3317,13 @@
         <v>0.6687500000000171</v>
       </c>
       <c r="U27">
-        <v>1.000116340912113</v>
+        <v>0.0001163409121127668</v>
       </c>
       <c r="V27">
-        <v>1.000581379253066</v>
+        <v>0.0005813792530660056</v>
       </c>
       <c r="W27">
-        <v>1.000414421881475</v>
+        <v>0.0004144218814752243</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3358,7 +3358,7 @@
         <v>1.441414060537906</v>
       </c>
       <c r="K28">
-        <v>59.04013103866231</v>
+        <v>0.09040131038662313</v>
       </c>
       <c r="L28">
         <v>0.02242202423006527</v>
@@ -3388,13 +3388,13 @@
         <v>0.5999999999999943</v>
       </c>
       <c r="U28">
-        <v>1.000169259413132</v>
+        <v>0.0001692594131315062</v>
       </c>
       <c r="V28">
-        <v>1.000581041447623</v>
+        <v>0.0005810414476232761</v>
       </c>
       <c r="W28">
-        <v>1.0016570008285</v>
+        <v>0.001657000828500399</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3429,7 +3429,7 @@
         <v>1.199688214860722</v>
       </c>
       <c r="K29">
-        <v>54.53901179066339</v>
+        <v>0.04539011790663383</v>
       </c>
       <c r="L29">
         <v>0.0228890106771005</v>
@@ -3459,13 +3459,13 @@
         <v>0.4812499999999886</v>
       </c>
       <c r="U29">
-        <v>1.000097802197802</v>
+        <v>9.780219780219923E-05</v>
       </c>
       <c r="V29">
-        <v>1.000387136023007</v>
+        <v>0.0003871360230069953</v>
       </c>
       <c r="W29">
-        <v>0.9983457402812241</v>
+        <v>-0.001654259718775863</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3500,7 +3500,7 @@
         <v>1.019686233746392</v>
       </c>
       <c r="K30">
-        <v>50.48735871487016</v>
+        <v>0.004873587148701564</v>
       </c>
       <c r="L30">
         <v>0.0221744341658347</v>
@@ -3530,13 +3530,13 @@
         <v>0.34375</v>
       </c>
       <c r="U30">
-        <v>1.000033759487183</v>
+        <v>3.375948718309374E-05</v>
       </c>
       <c r="V30">
-        <v>1.000248776847168</v>
+        <v>0.000248776847167953</v>
       </c>
       <c r="W30">
-        <v>0.9983429991714996</v>
+        <v>-0.001657000828500399</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3571,7 +3571,7 @@
         <v>0.7310397420662519</v>
       </c>
       <c r="K31">
-        <v>42.23125121284899</v>
+        <v>-0.07768748787151014</v>
       </c>
       <c r="L31">
         <v>0.01917453674450589</v>
@@ -3601,13 +3601,13 @@
         <v>0.06250000000002842</v>
       </c>
       <c r="U31">
-        <v>0.99989306446685</v>
+        <v>-0.0001069355331499988</v>
       </c>
       <c r="V31">
-        <v>0.9999170950091196</v>
+        <v>-8.290499088037251E-05</v>
       </c>
       <c r="W31">
-        <v>0.995850622406639</v>
+        <v>-0.004149377593360981</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3642,7 +3642,7 @@
         <v>0.8204314791240057</v>
       </c>
       <c r="K32">
-        <v>45.06796814559582</v>
+        <v>-0.04932031854404179</v>
       </c>
       <c r="L32">
         <v>0.0153925073364669</v>
@@ -3672,13 +3672,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U32">
-        <v>0.9999169251218433</v>
+        <v>-8.307487815673031E-05</v>
       </c>
       <c r="V32">
-        <v>0.9999447254235414</v>
+        <v>-5.527457645859712E-05</v>
       </c>
       <c r="W32">
-        <v>1.00125</v>
+        <v>0.001249999999999973</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3713,7 +3713,7 @@
         <v>0.8517970008986532</v>
       </c>
       <c r="K33">
-        <v>45.99840049882827</v>
+        <v>-0.04001599501171726</v>
       </c>
       <c r="L33">
         <v>0.01148343177528921</v>
@@ -3743,13 +3743,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U33">
-        <v>1.000096928743527</v>
+        <v>9.692874352662528E-05</v>
       </c>
       <c r="V33">
-        <v>0.9999447223680938</v>
+        <v>-5.527763190615875E-05</v>
       </c>
       <c r="W33">
-        <v>1.000416146483562</v>
+        <v>0.0004161464835621409</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3784,7 +3784,7 @@
         <v>0.8245726316025396</v>
       </c>
       <c r="K34">
-        <v>45.19264496904733</v>
+        <v>-0.0480735503095267</v>
       </c>
       <c r="L34">
         <v>0.007555621507224352</v>
@@ -3814,13 +3814,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U34">
-        <v>0.9999446175147109</v>
+        <v>-5.538248528913492E-05</v>
       </c>
       <c r="V34">
-        <v>0.9998341579369248</v>
+        <v>-0.0001658420630752389</v>
       </c>
       <c r="W34">
-        <v>0.9995840266222962</v>
+        <v>-0.0004159733777038266</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3855,7 +3855,7 @@
         <v>0.9255024217090344</v>
       </c>
       <c r="K35">
-        <v>48.06550286691296</v>
+        <v>-0.01934497133087043</v>
       </c>
       <c r="L35">
         <v>0.004300470636831913</v>
@@ -3885,13 +3885,13 @@
         <v>-0.3937500000000114</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V35">
-        <v>0.9998617753573107</v>
+        <v>-0.0001382246426893108</v>
       </c>
       <c r="W35">
-        <v>1.001248439450687</v>
+        <v>0.001248439450686645</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3926,7 +3926,7 @@
         <v>0.8366184962122799</v>
       </c>
       <c r="K36">
-        <v>45.55211100931774</v>
+        <v>-0.04447888990682258</v>
       </c>
       <c r="L36">
         <v>0.001186726473613984</v>
@@ -3956,13 +3956,13 @@
         <v>-0.5312500000000284</v>
       </c>
       <c r="U36">
-        <v>0.9999169216709821</v>
+        <v>-8.30783290178827E-05</v>
       </c>
       <c r="V36">
-        <v>0.9996682149966822</v>
+        <v>-0.0003317850033177638</v>
       </c>
       <c r="W36">
-        <v>0.9987531172069826</v>
+        <v>-0.001246882793017434</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3997,7 +3997,7 @@
         <v>0.9040139811899904</v>
       </c>
       <c r="K37">
-        <v>47.47937725882614</v>
+        <v>-0.02520622741173861</v>
       </c>
       <c r="L37">
         <v>-0.001341408714166659</v>
@@ -4027,13 +4027,13 @@
         <v>-0.5812500000000398</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>0.99969576280562</v>
+        <v>-0.0003042371943799971</v>
       </c>
       <c r="W37">
-        <v>1.000832292967124</v>
+        <v>0.0008322929671242818</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4068,7 +4068,7 @@
         <v>0.8730459012314148</v>
       </c>
       <c r="K38">
-        <v>46.61102542428029</v>
+        <v>-0.03388974575719705</v>
       </c>
       <c r="L38">
         <v>-0.003501199813526998</v>
@@ -4098,13 +4098,13 @@
         <v>-0.5812499999999829</v>
       </c>
       <c r="U38">
-        <v>1.0000138475386</v>
+        <v>1.384753859978716E-05</v>
       </c>
       <c r="V38">
-        <v>0.9994743394660397</v>
+        <v>-0.0005256605339603038</v>
       </c>
       <c r="W38">
-        <v>0.9995841995841996</v>
+        <v>-0.0004158004158003603</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4139,7 +4139,7 @@
         <v>0.7396840057488197</v>
       </c>
       <c r="K39">
-        <v>42.51829661619693</v>
+        <v>-0.07481703383803068</v>
       </c>
       <c r="L39">
         <v>-0.006047243241539058</v>
@@ -4169,13 +4169,13 @@
         <v>-0.4437499999999943</v>
       </c>
       <c r="U39">
-        <v>0.9999307632657585</v>
+        <v>-6.923673424152899E-05</v>
       </c>
       <c r="V39">
-        <v>0.9995017438963625</v>
+        <v>-0.0004982561036375177</v>
       </c>
       <c r="W39">
-        <v>0.9979201331114809</v>
+        <v>-0.002079866888519133</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4210,7 +4210,7 @@
         <v>0.6949841648685484</v>
       </c>
       <c r="K40">
-        <v>41.00239868155032</v>
+        <v>-0.08997601318449683</v>
       </c>
       <c r="L40">
         <v>-0.008945297580139556</v>
@@ -4240,13 +4240,13 @@
         <v>-0.3937500000000114</v>
       </c>
       <c r="U40">
-        <v>0.999861516943402</v>
+        <v>-0.0001384830565980266</v>
       </c>
       <c r="V40">
-        <v>0.9995845795945498</v>
+        <v>-0.0004154204054501731</v>
       </c>
       <c r="W40">
-        <v>0.9991663192997081</v>
+        <v>-0.0008336807002918833</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4281,7 +4281,7 @@
         <v>0.6949841648685483</v>
       </c>
       <c r="K41">
-        <v>41.00239868155032</v>
+        <v>-0.08997601318449683</v>
       </c>
       <c r="L41">
         <v>-0.01183824917283697</v>
@@ -4311,13 +4311,13 @@
         <v>-0.3875000000000171</v>
       </c>
       <c r="U41">
-        <v>0.9999584493289566</v>
+        <v>-4.155067104338883E-05</v>
       </c>
       <c r="V41">
-        <v>0.9995567007452968</v>
+        <v>-0.0004432992547032111</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4352,7 +4352,7 @@
         <v>0.7619437167551498</v>
       </c>
       <c r="K42">
-        <v>43.24449807956233</v>
+        <v>-0.06755501920437673</v>
       </c>
       <c r="L42">
         <v>-0.01419686857624324</v>
@@ -4382,13 +4382,13 @@
         <v>-0.3499999999999943</v>
       </c>
       <c r="U42">
-        <v>1.000083104795147</v>
+        <v>8.310479514661573E-05</v>
       </c>
       <c r="V42">
-        <v>0.9995842226349199</v>
+        <v>-0.0004157773650801388</v>
       </c>
       <c r="W42">
-        <v>1.000834376303713</v>
+        <v>0.0008343763037130802</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4423,7 +4423,7 @@
         <v>0.7971855861691457</v>
       </c>
       <c r="K43">
-        <v>44.35744378900872</v>
+        <v>-0.05642556210991279</v>
       </c>
       <c r="L43">
         <v>-0.01587839721471333</v>
@@ -4453,13 +4453,13 @@
         <v>-0.3375000000000057</v>
       </c>
       <c r="U43">
-        <v>1.000041548944657</v>
+        <v>4.154894465679959E-05</v>
       </c>
       <c r="V43">
-        <v>0.9995008596306361</v>
+        <v>-0.0004991403693639374</v>
       </c>
       <c r="W43">
-        <v>1.000416840350146</v>
+        <v>0.0004168403501458862</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4494,7 +4494,7 @@
         <v>0.7971855861691457</v>
       </c>
       <c r="K44">
-        <v>44.35744378900872</v>
+        <v>-0.05642556210991279</v>
       </c>
       <c r="L44">
         <v>-0.01698511945303222</v>
@@ -4524,13 +4524,13 @@
         <v>-0.2624999999999886</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>0.9996115858395294</v>
+        <v>-0.0003884141604706404</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4565,7 +4565,7 @@
         <v>0.7394368094828391</v>
       </c>
       <c r="K45">
-        <v>42.51012772937033</v>
+        <v>-0.07489872270629666</v>
       </c>
       <c r="L45">
         <v>-0.01791467115105036</v>
@@ -4595,13 +4595,13 @@
         <v>-0.25</v>
       </c>
       <c r="U45">
-        <v>0.9999584527815862</v>
+        <v>-4.154721841376219E-05</v>
       </c>
       <c r="V45">
-        <v>0.9996669442131557</v>
+        <v>-0.0003330557868442829</v>
       </c>
       <c r="W45">
-        <v>0.9991666666666668</v>
+        <v>-0.0008333333333332416</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4636,7 +4636,7 @@
         <v>0.6415898712173148</v>
       </c>
       <c r="K46">
-        <v>39.08344480351516</v>
+        <v>-0.1091655519648483</v>
       </c>
       <c r="L46">
         <v>-0.01921882155738663</v>
@@ -4666,13 +4666,13 @@
         <v>-0.2749999999999773</v>
       </c>
       <c r="U46">
-        <v>0.9998753531660297</v>
+        <v>-0.0001246468339702878</v>
       </c>
       <c r="V46">
-        <v>0.9998334166250208</v>
+        <v>-0.0001665833749792123</v>
       </c>
       <c r="W46">
-        <v>0.9983319432860717</v>
+        <v>-0.001668056713928334</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4707,7 +4707,7 @@
         <v>0.5998154697665357</v>
       </c>
       <c r="K47">
-        <v>37.49279095632623</v>
+        <v>-0.1250720904367377</v>
       </c>
       <c r="L47">
         <v>-0.02090010435457213</v>
@@ -4737,13 +4737,13 @@
         <v>-0.3125000000000284</v>
       </c>
       <c r="U47">
-        <v>0.9998199321282637</v>
+        <v>-0.0001800678717363002</v>
       </c>
       <c r="V47">
-        <v>0.9996945462623571</v>
+        <v>-0.0003054537376429023</v>
       </c>
       <c r="W47">
-        <v>0.9991645781119465</v>
+        <v>-0.0008354218880535225</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4778,7 +4778,7 @@
         <v>0.4837682936002912</v>
       </c>
       <c r="K48">
-        <v>32.60403229310495</v>
+        <v>-0.1739596770689505</v>
       </c>
       <c r="L48">
         <v>-0.02368786966917094</v>
@@ -4808,13 +4808,13 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="U48">
-        <v>0.9997090687429</v>
+        <v>-0.0002909312571000022</v>
       </c>
       <c r="V48">
-        <v>0.9994722368823088</v>
+        <v>-0.0005277631176912045</v>
       </c>
       <c r="W48">
-        <v>0.9970735785953178</v>
+        <v>-0.002926421404682245</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4849,7 +4849,7 @@
         <v>0.5128617466079061</v>
       </c>
       <c r="K49">
-        <v>33.900106718795</v>
+        <v>-0.16099893281205</v>
       </c>
       <c r="L49">
         <v>-0.02673138080056944</v>
@@ -4879,13 +4879,13 @@
         <v>-0.375</v>
       </c>
       <c r="U49">
-        <v>0.9996812682751068</v>
+        <v>-0.000318731724893162</v>
       </c>
       <c r="V49">
-        <v>0.9995275415485521</v>
+        <v>-0.0004724584514479435</v>
       </c>
       <c r="W49">
-        <v>1.00041928721174</v>
+        <v>0.0004192872117401159</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4920,7 +4920,7 @@
         <v>0.4976222216386543</v>
       </c>
       <c r="K50">
-        <v>33.22748650819101</v>
+        <v>-0.1677251349180899</v>
       </c>
       <c r="L50">
         <v>-0.02979124052077094</v>
@@ -4950,13 +4950,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U50">
-        <v>0.9996395796944746</v>
+        <v>-0.0003604203055254107</v>
       </c>
       <c r="V50">
-        <v>0.9994160989851244</v>
+        <v>-0.0005839010148755985</v>
       </c>
       <c r="W50">
-        <v>0.9995808885163454</v>
+        <v>-0.0004191114836545884</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4991,7 +4991,7 @@
         <v>0.5601794520692384</v>
       </c>
       <c r="K51">
-        <v>35.9048089837539</v>
+        <v>-0.1409519101624611</v>
       </c>
       <c r="L51">
         <v>-0.03225562758455424</v>
@@ -5021,13 +5021,13 @@
         <v>-0.4812500000000171</v>
       </c>
       <c r="U51">
-        <v>0.9996117151098293</v>
+        <v>-0.0003882848901707314</v>
       </c>
       <c r="V51">
-        <v>0.9995548631204094</v>
+        <v>-0.0004451368795905797</v>
       </c>
       <c r="W51">
-        <v>1.00083857442348</v>
+        <v>0.0008385744234800097</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5062,7 +5062,7 @@
         <v>0.5601794520692384</v>
       </c>
       <c r="K52">
-        <v>35.9048089837539</v>
+        <v>-0.1409519101624611</v>
       </c>
       <c r="L52">
         <v>-0.03408578015380177</v>
@@ -5092,13 +5092,13 @@
         <v>-0.5437500000000171</v>
       </c>
       <c r="U52">
-        <v>0.999597691582043</v>
+        <v>-0.0004023084179569647</v>
       </c>
       <c r="V52">
-        <v>0.9994989979959921</v>
+        <v>-0.0005010020040079333</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5133,7 +5133,7 @@
         <v>0.6294949428510589</v>
       </c>
       <c r="K53">
-        <v>38.63129159208423</v>
+        <v>-0.1136870840791577</v>
       </c>
       <c r="L53">
         <v>-0.03498844918193181</v>
@@ -5163,13 +5163,13 @@
         <v>-0.5562499999999773</v>
       </c>
       <c r="U53">
-        <v>0.9995281382277427</v>
+        <v>-0.0004718617722573315</v>
       </c>
       <c r="V53">
-        <v>0.9995822890559732</v>
+        <v>-0.0004177109440267612</v>
       </c>
       <c r="W53">
-        <v>1.000837871805614</v>
+        <v>0.000837871805613899</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5204,7 +5204,7 @@
         <v>0.6294949428510589</v>
       </c>
       <c r="K54">
-        <v>38.63129159208423</v>
+        <v>-0.1136870840791577</v>
       </c>
       <c r="L54">
         <v>-0.03514465560802438</v>
@@ -5234,13 +5234,13 @@
         <v>-0.5250000000000057</v>
       </c>
       <c r="U54">
-        <v>0.9996112245039641</v>
+        <v>-0.0003887754960358869</v>
       </c>
       <c r="V54">
-        <v>0.9997214096670844</v>
+        <v>-0.0002785903329155515</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5275,7 +5275,7 @@
         <v>0.6678968768022004</v>
       </c>
       <c r="K55">
-        <v>40.0442548991839</v>
+        <v>-0.09955745100816094</v>
       </c>
       <c r="L55">
         <v>-0.03455915389939607</v>
@@ -5305,13 +5305,13 @@
         <v>-0.4937499999999773</v>
       </c>
       <c r="U55">
-        <v>0.9996944147347659</v>
+        <v>-0.000305585265234054</v>
       </c>
       <c r="V55">
-        <v>0.9998049324230179</v>
+        <v>-0.0001950675769820664</v>
       </c>
       <c r="W55">
-        <v>1.000418585182085</v>
+        <v>0.0004185851820845965</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5346,7 +5346,7 @@
         <v>0.6678968768022004</v>
       </c>
       <c r="K56">
-        <v>40.0442548991839</v>
+        <v>-0.09955745100816094</v>
       </c>
       <c r="L56">
         <v>-0.03343571728590039</v>
@@ -5376,13 +5376,13 @@
         <v>-0.3874999999999602</v>
       </c>
       <c r="U56">
-        <v>0.9996804268385878</v>
+        <v>-0.0003195731614121788</v>
       </c>
       <c r="V56">
-        <v>0.9998048943642344</v>
+        <v>-0.0001951056357656356</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5417,7 +5417,7 @@
         <v>0.6678968768022006</v>
       </c>
       <c r="K57">
-        <v>40.0442548991839</v>
+        <v>-0.09955745100816094</v>
       </c>
       <c r="L57">
         <v>-0.03193612484281723</v>
@@ -5447,13 +5447,13 @@
         <v>-0.2937500000000171</v>
       </c>
       <c r="U57">
-        <v>0.999666425751932</v>
+        <v>-0.0003335742480680137</v>
       </c>
       <c r="V57">
-        <v>0.9997491009450531</v>
+        <v>-0.000250899054946907</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5488,7 +5488,7 @@
         <v>0.6678968768022004</v>
       </c>
       <c r="K58">
-        <v>40.0442548991839</v>
+        <v>-0.09955745100816094</v>
       </c>
       <c r="L58">
         <v>-0.03018780415038809</v>
@@ -5518,13 +5518,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U58">
-        <v>0.9996107001835269</v>
+        <v>-0.0003892998164730654</v>
       </c>
       <c r="V58">
-        <v>0.9997211533099102</v>
+        <v>-0.0002788466900898179</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5559,7 +5559,7 @@
         <v>0.6378250212006823</v>
       </c>
       <c r="K59">
-        <v>38.94341660094408</v>
+        <v>-0.1105658339905592</v>
       </c>
       <c r="L59">
         <v>-0.02844210522223251</v>
@@ -5589,13 +5589,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U59">
-        <v>0.9996522755090688</v>
+        <v>-0.0003477244909312338</v>
       </c>
       <c r="V59">
-        <v>0.9996931830860204</v>
+        <v>-0.0003068169139796018</v>
       </c>
       <c r="W59">
-        <v>0.999581589958159</v>
+        <v>-0.0004184100418409553</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5630,7 +5630,7 @@
         <v>0.7326138604456306</v>
       </c>
       <c r="K60">
-        <v>42.28373541102813</v>
+        <v>-0.07716264588971877</v>
       </c>
       <c r="L60">
         <v>-0.02640176782560371</v>
@@ -5660,13 +5660,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U60">
-        <v>0.9997356374615631</v>
+        <v>-0.0002643625384368686</v>
       </c>
       <c r="V60">
-        <v>0.9998046929494155</v>
+        <v>-0.000195307050584459</v>
       </c>
       <c r="W60">
-        <v>1.000837170364169</v>
+        <v>0.0008371703641689709</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5701,7 +5701,7 @@
         <v>0.6661472072445994</v>
       </c>
       <c r="K61">
-        <v>39.98129363048564</v>
+        <v>-0.1001870636951436</v>
       </c>
       <c r="L61">
         <v>-0.02452058475971011</v>
@@ -5731,13 +5731,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U61">
-        <v>0.9998469075321493</v>
+        <v>-0.0001530924678506684</v>
       </c>
       <c r="V61">
-        <v>0.9998604677122286</v>
+        <v>-0.0001395322877714156</v>
       </c>
       <c r="W61">
-        <v>0.999163529903806</v>
+        <v>-0.0008364700961940308</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5772,7 +5772,7 @@
         <v>0.6661472072445994</v>
       </c>
       <c r="K62">
-        <v>39.98129363048564</v>
+        <v>-0.1001870636951436</v>
       </c>
       <c r="L62">
         <v>-0.02276646535802076</v>
@@ -5802,13 +5802,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U62">
-        <v>0.9998051252070544</v>
+        <v>-0.0001948747929455541</v>
       </c>
       <c r="V62">
-        <v>0.9999162689441513</v>
+        <v>-8.373105584869034E-05</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5843,7 +5843,7 @@
         <v>0.5788607561166124</v>
       </c>
       <c r="K63">
-        <v>36.66319236031848</v>
+        <v>-0.1333680763968152</v>
       </c>
       <c r="L63">
         <v>-0.02157445835548958</v>
@@ -5873,13 +5873,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U63">
-        <v>0.9997493978587439</v>
+        <v>-0.0002506021412560511</v>
       </c>
       <c r="V63">
-        <v>1.000027912689109</v>
+        <v>2.79126891085113E-05</v>
       </c>
       <c r="W63">
-        <v>0.9987442444537463</v>
+        <v>-0.001255755546253678</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5914,7 +5914,7 @@
         <v>0.6708128790831632</v>
       </c>
       <c r="K64">
-        <v>40.14889324119066</v>
+        <v>-0.09851106758809336</v>
       </c>
       <c r="L64">
         <v>-0.02041652731268918</v>
@@ -5944,13 +5944,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U64">
-        <v>0.9997911125346407</v>
+        <v>-0.0002088874653592976</v>
       </c>
       <c r="V64">
-        <v>1.000055823820024</v>
+        <v>5.582382002411457E-05</v>
       </c>
       <c r="W64">
-        <v>1.000838222967309</v>
+        <v>0.0008382229673093988</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5985,7 +5985,7 @@
         <v>0.8160004416619068</v>
       </c>
       <c r="K65">
-        <v>44.9339340972377</v>
+        <v>-0.05066065902762296</v>
       </c>
       <c r="L65">
         <v>-0.01882233719482182</v>
@@ -6015,13 +6015,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U65">
-        <v>0.9997910688915507</v>
+        <v>-0.0002089311084493284</v>
       </c>
       <c r="V65">
-        <v>1.000167462111697</v>
+        <v>0.0001674621116971586</v>
       </c>
       <c r="W65">
-        <v>1.001256281407035</v>
+        <v>0.001256281407035154</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6056,7 +6056,7 @@
         <v>0.7405488726827842</v>
       </c>
       <c r="K66">
-        <v>42.54685888488405</v>
+        <v>-0.07453141115115952</v>
       </c>
       <c r="L66">
         <v>-0.017300965168839</v>
@@ -6086,13 +6086,13 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>0.9998049568815393</v>
+        <v>-0.0001950431184607471</v>
       </c>
       <c r="V66">
-        <v>1.000055811357611</v>
+        <v>5.581135761123512E-05</v>
       </c>
       <c r="W66">
-        <v>0.999163529903806</v>
+        <v>-0.0008364700961940308</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6127,7 +6127,7 @@
         <v>0.7061819313355859</v>
       </c>
       <c r="K67">
-        <v>41.38960320502235</v>
+        <v>-0.08610396794977648</v>
       </c>
       <c r="L67">
         <v>-0.01600982919023139</v>
@@ -6157,13 +6157,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U67">
-        <v>0.9997631157249355</v>
+        <v>-0.0002368842750645195</v>
       </c>
       <c r="V67">
-        <v>1.000027904121439</v>
+        <v>2.790412143860443E-05</v>
       </c>
       <c r="W67">
-        <v>0.9995814148179155</v>
+        <v>-0.0004185851820844855</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6198,7 +6198,7 @@
         <v>0.673291708385401</v>
       </c>
       <c r="K68">
-        <v>40.2375572060341</v>
+        <v>-0.09762442793965903</v>
       </c>
       <c r="L68">
         <v>-0.01503443258395743</v>
@@ -6228,13 +6228,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U68">
-        <v>0.9997630595974801</v>
+        <v>-0.0002369404025198696</v>
       </c>
       <c r="V68">
-        <v>0.9999441933143592</v>
+        <v>-5.580668564075797E-05</v>
       </c>
       <c r="W68">
-        <v>0.9995812395309882</v>
+        <v>-0.0004187604690117919</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6269,7 +6269,7 @@
         <v>0.5629039534042065</v>
       </c>
       <c r="K69">
-        <v>36.0165416549193</v>
+        <v>-0.139834583450807</v>
       </c>
       <c r="L69">
         <v>-0.01486677563317636</v>
@@ -6299,13 +6299,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U69">
-        <v>0.999776944417337</v>
+        <v>-0.000223055582663001</v>
       </c>
       <c r="V69">
-        <v>0.9998325705993971</v>
+        <v>-0.0001674294006028809</v>
       </c>
       <c r="W69">
-        <v>0.9983242563887726</v>
+        <v>-0.001675743611227354</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6340,7 +6340,7 @@
         <v>0.7354853700103304</v>
       </c>
       <c r="K70">
-        <v>42.379231926683</v>
+        <v>-0.07620768073317002</v>
       </c>
       <c r="L70">
         <v>-0.01453640497148691</v>
@@ -6370,13 +6370,13 @@
         <v>-0.1187500000000341</v>
       </c>
       <c r="U70">
-        <v>0.9998605591577773</v>
+        <v>-0.0001394408422227267</v>
       </c>
       <c r="V70">
-        <v>0.9999162712810494</v>
+        <v>-8.372871895057088E-05</v>
       </c>
       <c r="W70">
-        <v>1.00167855644146</v>
+        <v>0.00167855644146031</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6411,7 +6411,7 @@
         <v>0.7354853700103304</v>
       </c>
       <c r="K71">
-        <v>42.379231926683</v>
+        <v>-0.07620768073317002</v>
       </c>
       <c r="L71">
         <v>-0.01407560111749291</v>
@@ -6441,13 +6441,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U71">
-        <v>0.9998605397113171</v>
+        <v>-0.0001394602886829466</v>
       </c>
       <c r="V71">
-        <v>0.9999162642699639</v>
+        <v>-8.373573003606083E-05</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6482,7 +6482,7 @@
         <v>0.7354853700103304</v>
       </c>
       <c r="K72">
-        <v>42.379231926683</v>
+        <v>-0.07620768073317002</v>
       </c>
       <c r="L72">
         <v>-0.01351389946110071</v>
@@ -6512,13 +6512,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U72">
-        <v>0.9998326243113188</v>
+        <v>-0.0001673756886811928</v>
       </c>
       <c r="V72">
-        <v>0.9999162572577043</v>
+        <v>-8.374274229572265E-05</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6553,7 +6553,7 @@
         <v>0.7354853700103304</v>
       </c>
       <c r="K73">
-        <v>42.379231926683</v>
+        <v>-0.07620768073317002</v>
       </c>
       <c r="L73">
         <v>-0.01287766091174562</v>
@@ -6583,13 +6583,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U73">
-        <v>0.9998186459830086</v>
+        <v>-0.0001813540169913752</v>
       </c>
       <c r="V73">
-        <v>0.9999162502442702</v>
+        <v>-8.374975572977839E-05</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6624,7 +6624,7 @@
         <v>0.7354853700103305</v>
       </c>
       <c r="K74">
-        <v>42.379231926683</v>
+        <v>-0.07620768073317002</v>
       </c>
       <c r="L74">
         <v>-0.01218991732992599</v>
@@ -6654,13 +6654,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U74">
-        <v>0.9998186130877634</v>
+        <v>-0.0001813869122365697</v>
       </c>
       <c r="V74">
-        <v>0.9999441621531073</v>
+        <v>-5.583784689267013E-05</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6695,7 +6695,7 @@
         <v>0.8470036358671632</v>
       </c>
       <c r="K75">
-        <v>45.85825492809587</v>
+        <v>-0.04141745071904135</v>
       </c>
       <c r="L75">
         <v>-0.01116570169889005</v>
@@ -6725,13 +6725,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U75">
-        <v>0.9998744016634802</v>
+        <v>-0.0001255983365198166</v>
       </c>
       <c r="V75">
-        <v>0.9999441590350682</v>
+        <v>-5.584096493183033E-05</v>
       </c>
       <c r="W75">
-        <v>1.000837871805614</v>
+        <v>0.000837871805613899</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6766,7 +6766,7 @@
         <v>0.8470036358671632</v>
       </c>
       <c r="K76">
-        <v>45.85825492809587</v>
+        <v>-0.04141745071904135</v>
       </c>
       <c r="L76">
         <v>-0.009962128935477193</v>
@@ -6796,13 +6796,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U76">
-        <v>0.9999302143814202</v>
+        <v>-6.978561857984289E-05</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6837,7 +6837,7 @@
         <v>0.8470036358671631</v>
       </c>
       <c r="K77">
-        <v>45.85825492809586</v>
+        <v>-0.0414174507190414</v>
       </c>
       <c r="L77">
         <v>-0.008690230875124843</v>
@@ -6867,13 +6867,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U77">
-        <v>0.9999581257066289</v>
+        <v>-4.187429337110249E-05</v>
       </c>
       <c r="V77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6908,7 +6908,7 @@
         <v>0.847003635867163</v>
       </c>
       <c r="K78">
-        <v>45.85825492809586</v>
+        <v>-0.0414174507190414</v>
       </c>
       <c r="L78">
         <v>-0.007426288606744915</v>
@@ -6938,13 +6938,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U78">
-        <v>1.000055834729201</v>
+        <v>5.583472920145383E-05</v>
       </c>
       <c r="V78">
-        <v>1.000083766124979</v>
+        <v>8.376612497906777E-05</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6979,7 +6979,7 @@
         <v>0.8470036358671631</v>
       </c>
       <c r="K79">
-        <v>45.85825492809586</v>
+        <v>-0.0414174507190414</v>
       </c>
       <c r="L79">
         <v>-0.006220633117988872</v>
@@ -7009,13 +7009,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U79">
-        <v>1.000041873708894</v>
+        <v>4.187370889408015E-05</v>
       </c>
       <c r="V79">
-        <v>1.000027919702934</v>
+        <v>2.791970293425372E-05</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7050,7 +7050,7 @@
         <v>0.8470036358671631</v>
       </c>
       <c r="K80">
-        <v>45.85825492809586</v>
+        <v>-0.0414174507190414</v>
       </c>
       <c r="L80">
         <v>-0.005104447907471301</v>
@@ -7080,13 +7080,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U80">
-        <v>1.00005582927408</v>
+        <v>5.582927407976612E-05</v>
       </c>
       <c r="V80">
-        <v>0.9999441621531074</v>
+        <v>-5.583784689255911E-05</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7121,7 +7121,7 @@
         <v>0.8470036358671631</v>
       </c>
       <c r="K81">
-        <v>45.85825492809586</v>
+        <v>-0.0414174507190414</v>
       </c>
       <c r="L81">
         <v>-0.004094998097082714</v>
@@ -7151,13 +7151,13 @@
         <v>0.09375</v>
       </c>
       <c r="U81">
-        <v>1.000027913078673</v>
+        <v>2.791307867289206E-05</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7192,7 +7192,7 @@
         <v>1.006694757164293</v>
       </c>
       <c r="K82">
-        <v>50.16681055104151</v>
+        <v>0.001668105510415074</v>
       </c>
       <c r="L82">
         <v>-0.002894762203623899</v>
@@ -7222,13 +7222,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U82">
-        <v>1.00005582459911</v>
+        <v>5.582459910957738E-05</v>
       </c>
       <c r="V82">
-        <v>1.000083761447398</v>
+        <v>8.376144739785651E-05</v>
       </c>
       <c r="W82">
-        <v>1.000837170364169</v>
+        <v>0.0008371703641689709</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7263,7 +7263,7 @@
         <v>1.006694757164293</v>
       </c>
       <c r="K83">
-        <v>50.16681055104151</v>
+        <v>0.001668105510415074</v>
       </c>
       <c r="L83">
         <v>-0.001644857732529799</v>
@@ -7293,13 +7293,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U83">
-        <v>1.000027910741449</v>
+        <v>2.791074144892214E-05</v>
       </c>
       <c r="V83">
-        <v>1.000111672576007</v>
+        <v>0.0001116725760070825</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7334,7 +7334,7 @@
         <v>1.095166292508963</v>
       </c>
       <c r="K84">
-        <v>52.27109162764837</v>
+        <v>0.02271091627648369</v>
       </c>
       <c r="L84">
         <v>-0.0002860846537538393</v>
@@ -7364,13 +7364,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U84">
-        <v>1.000041864943692</v>
+        <v>4.186494369151639E-05</v>
       </c>
       <c r="V84">
-        <v>1.00025123523993</v>
+        <v>0.000251235239929759</v>
       </c>
       <c r="W84">
-        <v>1.000418235048097</v>
+        <v>0.0004182350480970154</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7405,7 +7405,7 @@
         <v>1.281422156392507</v>
       </c>
       <c r="K85">
-        <v>56.16769140257463</v>
+        <v>0.06167691402574627</v>
       </c>
       <c r="L85">
         <v>0.001357957153344988</v>
@@ -7435,13 +7435,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U85">
-        <v>1.000055817588122</v>
+        <v>5.58175881220091E-05</v>
       </c>
       <c r="V85">
-        <v>1.000195356106274</v>
+        <v>0.0001953561062735254</v>
       </c>
       <c r="W85">
-        <v>1.000836120401338</v>
+        <v>0.0008361204013378476</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7476,7 +7476,7 @@
         <v>1.477480960480419</v>
       </c>
       <c r="K86">
-        <v>59.63642038217377</v>
+        <v>0.09636420382173772</v>
       </c>
       <c r="L86">
         <v>0.003369925715597087</v>
@@ -7506,13 +7506,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U86">
-        <v>1.000083721709039</v>
+        <v>8.37217090392528E-05</v>
       </c>
       <c r="V86">
-        <v>1.000251123078211</v>
+        <v>0.0002511230782109575</v>
       </c>
       <c r="W86">
-        <v>1.000835421888054</v>
+        <v>0.0008354218880535225</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7547,7 +7547,7 @@
         <v>1.224725038060726</v>
       </c>
       <c r="K87">
-        <v>55.05062500345248</v>
+        <v>0.0505062500345248</v>
       </c>
       <c r="L87">
         <v>0.005159309241009429</v>
@@ -7577,13 +7577,13 @@
         <v>0.1875</v>
       </c>
       <c r="U87">
-        <v>1.000055809800201</v>
+        <v>5.580980020081228E-05</v>
       </c>
       <c r="V87">
-        <v>1.000195268913189</v>
+        <v>0.0001952689131889951</v>
       </c>
       <c r="W87">
-        <v>0.9991652754590985</v>
+        <v>-0.0008347245409014992</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7618,7 +7618,7 @@
         <v>1.224725038060726</v>
       </c>
       <c r="K88">
-        <v>55.05062500345248</v>
+        <v>0.0505062500345248</v>
       </c>
       <c r="L88">
         <v>0.006680893061321923</v>
@@ -7648,13 +7648,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U88">
-        <v>1.000055806685641</v>
+        <v>5.580668564109104E-05</v>
       </c>
       <c r="V88">
-        <v>1.000195230790685</v>
+        <v>0.0001952307906847306</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7689,7 +7689,7 @@
         <v>1.319501881685456</v>
       </c>
       <c r="K89">
-        <v>56.8872951604008</v>
+        <v>0.06887295160400797</v>
       </c>
       <c r="L89">
         <v>0.008071230196952326</v>
@@ -7719,13 +7719,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U89">
-        <v>1.000083705357143</v>
+        <v>8.370535714297134E-05</v>
       </c>
       <c r="V89">
-        <v>1.000223077352072</v>
+        <v>0.0002230773520719431</v>
       </c>
       <c r="W89">
-        <v>1.000417710944027</v>
+        <v>0.0004177109440266502</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7760,7 +7760,7 @@
         <v>1.419266980237803</v>
       </c>
       <c r="K90">
-        <v>58.66516559897394</v>
+        <v>0.08665165598973934</v>
       </c>
       <c r="L90">
         <v>0.009416308793331291</v>
@@ -7790,13 +7790,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U90">
-        <v>1.000069748625952</v>
+        <v>6.974862595199305E-05</v>
       </c>
       <c r="V90">
-        <v>1.000195149149707</v>
+        <v>0.0001951491497071967</v>
       </c>
       <c r="W90">
-        <v>1.000417536534447</v>
+        <v>0.0004175365344467608</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7831,7 +7831,7 @@
         <v>1.524282873450801</v>
       </c>
       <c r="K91">
-        <v>60.38478846734962</v>
+        <v>0.1038478846734963</v>
       </c>
       <c r="L91">
         <v>0.01076615628836874</v>
@@ -7861,13 +7861,13 @@
         <v>0.2624999999999886</v>
       </c>
       <c r="U91">
-        <v>1.000111590018273</v>
+        <v>0.000111590018272878</v>
       </c>
       <c r="V91">
-        <v>1.000222984084511</v>
+        <v>0.0002229840845109354</v>
       </c>
       <c r="W91">
-        <v>1.000417362270451</v>
+        <v>0.0004173622704506386</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7902,7 +7902,7 @@
         <v>1.745368964425563</v>
       </c>
       <c r="K92">
-        <v>63.57502350474635</v>
+        <v>0.1357502350474635</v>
       </c>
       <c r="L92">
         <v>0.01229816982239469</v>
@@ -7932,13 +7932,13 @@
         <v>0.2874999999999943</v>
       </c>
       <c r="U92">
-        <v>1.000139471959163</v>
+        <v>0.0001394719591627513</v>
       </c>
       <c r="V92">
-        <v>1.000278667967117</v>
+        <v>0.0002786679671171743</v>
       </c>
       <c r="W92">
-        <v>1.000834376303713</v>
+        <v>0.0008343763037130802</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7973,7 +7973,7 @@
         <v>1.978091165451596</v>
       </c>
       <c r="K93">
-        <v>66.421444326458</v>
+        <v>0.16421444326458</v>
       </c>
       <c r="L93">
         <v>0.01410248014757038</v>
@@ -8003,13 +8003,13 @@
         <v>0.3000000000000114</v>
       </c>
       <c r="U93">
-        <v>1.000209178764172</v>
+        <v>0.0002091787641715914</v>
       </c>
       <c r="V93">
-        <v>1.000334308399499</v>
+        <v>0.0003343083994986618</v>
       </c>
       <c r="W93">
-        <v>1.000833680700292</v>
+        <v>0.0008336807002917723</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8044,7 +8044,7 @@
         <v>2.223061903373771</v>
       </c>
       <c r="K94">
-        <v>68.97360243210841</v>
+        <v>0.1897360243210841</v>
       </c>
       <c r="L94">
         <v>0.01620958589025952</v>
@@ -8074,13 +8074,13 @@
         <v>0.3000000000000114</v>
       </c>
       <c r="U94">
-        <v>1.000209135017567</v>
+        <v>0.0002091350175674744</v>
       </c>
       <c r="V94">
-        <v>1.000389896120534</v>
+        <v>0.0003898961205335283</v>
       </c>
       <c r="W94">
-        <v>1.000832986255727</v>
+        <v>0.0008329862557268086</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8115,7 +8115,7 @@
         <v>2.223061903373771</v>
       </c>
       <c r="K95">
-        <v>68.97360243210841</v>
+        <v>0.1897360243210841</v>
       </c>
       <c r="L95">
         <v>0.01830617399418567</v>
@@ -8145,13 +8145,13 @@
         <v>0.3249999999999886</v>
       </c>
       <c r="U95">
-        <v>1.000167273031406</v>
+        <v>0.0001672730314055126</v>
       </c>
       <c r="V95">
-        <v>1.000389744160797</v>
+        <v>0.0003897441607974006</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8186,7 +8186,7 @@
         <v>2.630215484407799</v>
       </c>
       <c r="K96">
-        <v>72.45342585598246</v>
+        <v>0.2245342585598246</v>
       </c>
       <c r="L96">
         <v>0.02065231609181929</v>
@@ -8216,13 +8216,13 @@
         <v>0.3687500000000057</v>
       </c>
       <c r="U96">
-        <v>1.000236930495742</v>
+        <v>0.0002369304957421381</v>
       </c>
       <c r="V96">
-        <v>1.000473076387923</v>
+        <v>0.0004730763879225997</v>
       </c>
       <c r="W96">
-        <v>1.001248439450687</v>
+        <v>0.001248439450686645</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8257,7 +8257,7 @@
         <v>2.301430971573187</v>
       </c>
       <c r="K97">
-        <v>69.71010423630081</v>
+        <v>0.1971010423630081</v>
       </c>
       <c r="L97">
         <v>0.02277176737335405</v>
@@ -8287,13 +8287,13 @@
         <v>0.3937500000000114</v>
       </c>
       <c r="U97">
-        <v>1.00023687437298</v>
+        <v>0.0002368743729797007</v>
       </c>
       <c r="V97">
-        <v>1.000389408099689</v>
+        <v>0.0003894080996886817</v>
       </c>
       <c r="W97">
-        <v>0.9995843724023276</v>
+        <v>-0.0004156275976724411</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8328,7 +8328,7 @@
         <v>1.821957437820379</v>
       </c>
       <c r="K98">
-        <v>64.56360444711812</v>
+        <v>0.1456360444711813</v>
       </c>
       <c r="L98">
         <v>0.02423073767373354</v>
@@ -8358,13 +8358,13 @@
         <v>0.40625</v>
       </c>
       <c r="U98">
-        <v>1.000222887789928</v>
+        <v>0.0002228877899281834</v>
       </c>
       <c r="V98">
-        <v>1.000333648445754</v>
+        <v>0.000333648445754342</v>
       </c>
       <c r="W98">
-        <v>0.9991683991683992</v>
+        <v>-0.0008316008316008316</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8399,7 +8399,7 @@
         <v>1.931608561215292</v>
       </c>
       <c r="K99">
-        <v>65.88903398530627</v>
+        <v>0.1588903398530627</v>
       </c>
       <c r="L99">
         <v>0.02526016288954673</v>
@@ -8429,13 +8429,13 @@
         <v>0.4124999999999659</v>
       </c>
       <c r="U99">
-        <v>1.000292475035167</v>
+        <v>0.0002924750351667171</v>
       </c>
       <c r="V99">
-        <v>1.000333537161599</v>
+        <v>0.0003335371615986737</v>
       </c>
       <c r="W99">
-        <v>1.000416146483562</v>
+        <v>0.0004161464835621409</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8470,7 +8470,7 @@
         <v>1.731728578058276</v>
       </c>
       <c r="K100">
-        <v>63.39314205546716</v>
+        <v>0.1339314205546716</v>
       </c>
       <c r="L100">
         <v>0.02571923531924173</v>
@@ -8500,13 +8500,13 @@
         <v>0.3937500000000398</v>
       </c>
       <c r="U100">
-        <v>1.000222772966501</v>
+        <v>0.0002227729665005285</v>
       </c>
       <c r="V100">
-        <v>1.00025006946374</v>
+        <v>0.0002500694637399548</v>
       </c>
       <c r="W100">
-        <v>0.9995840266222962</v>
+        <v>-0.0004159733777038266</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8541,7 +8541,7 @@
         <v>1.561628573915432</v>
       </c>
       <c r="K101">
-        <v>60.96233426723895</v>
+        <v>0.1096233426723895</v>
       </c>
       <c r="L101">
         <v>0.02555759861659038</v>
@@ -8571,13 +8571,13 @@
         <v>0.3562499999999602</v>
       </c>
       <c r="U101">
-        <v>1.000208803140399</v>
+        <v>0.0002088031403992829</v>
       </c>
       <c r="V101">
-        <v>1.000166671296425</v>
+        <v>0.0001666712964247807</v>
       </c>
       <c r="W101">
-        <v>0.9995838535164376</v>
+        <v>-0.0004161464835623629</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8612,7 +8612,7 @@
         <v>1.294034370168793</v>
       </c>
       <c r="K102">
-        <v>56.40867403715399</v>
+        <v>0.06408674037153983</v>
       </c>
       <c r="L102">
         <v>0.02463307486863437</v>
@@ -8642,13 +8642,13 @@
         <v>0.2937499999999886</v>
       </c>
       <c r="U102">
-        <v>1.000180924943983</v>
+        <v>0.0001809249439828076</v>
       </c>
       <c r="V102">
-        <v>1.000166643521733</v>
+        <v>0.000166643521733123</v>
       </c>
       <c r="W102">
-        <v>0.9991673605328893</v>
+        <v>-0.0008326394671106518</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8683,7 +8683,7 @@
         <v>1.474408957258182</v>
       </c>
       <c r="K103">
-        <v>59.58630859839476</v>
+        <v>0.09586308598394755</v>
       </c>
       <c r="L103">
         <v>0.02351995122414952</v>
@@ -8713,13 +8713,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U103">
-        <v>1.000208721787772</v>
+        <v>0.0002087217877717595</v>
       </c>
       <c r="V103">
-        <v>1.000222154341729</v>
+        <v>0.0002221543417288974</v>
       </c>
       <c r="W103">
-        <v>1.000833333333333</v>
+        <v>0.0008333333333332416</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8754,7 +8754,7 @@
         <v>2.044012916487888</v>
       </c>
       <c r="K104">
-        <v>67.14862822744598</v>
+        <v>0.1714862822744598</v>
       </c>
       <c r="L104">
         <v>0.02318978236697864</v>
@@ -8784,13 +8784,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U104">
-        <v>1.000292149524909</v>
+        <v>0.00029214952490908</v>
       </c>
       <c r="V104">
-        <v>1.000360920625226</v>
+        <v>0.0003609206252255248</v>
       </c>
       <c r="W104">
-        <v>1.002497918401332</v>
+        <v>0.002497918401332289</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8825,7 +8825,7 @@
         <v>2.143943435650985</v>
       </c>
       <c r="K105">
-        <v>68.19281197427333</v>
+        <v>0.1819281197427333</v>
       </c>
       <c r="L105">
         <v>0.0234217940286646</v>
@@ -8855,13 +8855,13 @@
         <v>0.1312499999999659</v>
       </c>
       <c r="U105">
-        <v>1.000278156379516</v>
+        <v>0.0002781563795164477</v>
       </c>
       <c r="V105">
-        <v>1.000360790408526</v>
+        <v>0.0003607904085258795</v>
       </c>
       <c r="W105">
-        <v>1.000415282392026</v>
+        <v>0.0004152823920264836</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8896,7 +8896,7 @@
         <v>1.939886713162632</v>
       </c>
       <c r="K106">
-        <v>65.98508386317262</v>
+        <v>0.1598508386317262</v>
       </c>
       <c r="L106">
         <v>0.02374170372610335</v>
@@ -8926,13 +8926,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U106">
-        <v>1.000264175078557</v>
+        <v>0.0002641750785574715</v>
       </c>
       <c r="V106">
-        <v>1.000305174087946</v>
+        <v>0.0003051740879456144</v>
       </c>
       <c r="W106">
-        <v>0.9995848899958489</v>
+        <v>-0.0004151100041510647</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8967,7 +8967,7 @@
         <v>2.140261915619892</v>
       </c>
       <c r="K107">
-        <v>68.15552247327119</v>
+        <v>0.1815552247327119</v>
       </c>
       <c r="L107">
         <v>0.02431131574015691</v>
@@ -8997,13 +8997,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U107">
-        <v>1.000291905867308</v>
+        <v>0.0002919058673078734</v>
       </c>
       <c r="V107">
-        <v>1.000305080985134</v>
+        <v>0.000305080985134154</v>
       </c>
       <c r="W107">
-        <v>1.000830564784053</v>
+        <v>0.0008305647840531893</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9038,7 +9038,7 @@
         <v>2.351183181364376</v>
       </c>
       <c r="K108">
-        <v>70.15979294832617</v>
+        <v>0.2015979294832617</v>
       </c>
       <c r="L108">
         <v>0.02521042036731845</v>
@@ -9068,13 +9068,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U108">
-        <v>1.000319613129151</v>
+        <v>0.0003196131291514082</v>
       </c>
       <c r="V108">
-        <v>1.000304987939113</v>
+        <v>0.000304987939113488</v>
       </c>
       <c r="W108">
-        <v>1.000829875518672</v>
+        <v>0.0008298755186721962</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9109,7 +9109,7 @@
         <v>1.763783914422618</v>
       </c>
       <c r="K109">
-        <v>63.81772124869936</v>
+        <v>0.1381772124869937</v>
       </c>
       <c r="L109">
         <v>0.02570382942369541</v>
@@ -9139,13 +9139,13 @@
         <v>0.1812500000000341</v>
       </c>
       <c r="U109">
-        <v>1.000277835660207</v>
+        <v>0.0002778356602071153</v>
       </c>
       <c r="V109">
-        <v>1.000166306336271</v>
+        <v>0.0001663063362713491</v>
       </c>
       <c r="W109">
-        <v>0.9987562189054727</v>
+        <v>-0.001243781094527274</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9180,7 +9180,7 @@
         <v>1.500683683116834</v>
       </c>
       <c r="K110">
-        <v>60.01093593918256</v>
+        <v>0.1001093593918256</v>
       </c>
       <c r="L110">
         <v>0.02552261278856351</v>
@@ -9210,13 +9210,13 @@
         <v>0.2437499999999773</v>
       </c>
       <c r="U110">
-        <v>1.000249982640094</v>
+        <v>0.0002499826400943483</v>
       </c>
       <c r="V110">
-        <v>1.000110852455382</v>
+        <v>0.0001108524553818935</v>
       </c>
       <c r="W110">
-        <v>0.9991697799916978</v>
+        <v>-0.0008302200083022404</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9251,7 +9251,7 @@
         <v>1.579193190329209</v>
       </c>
       <c r="K111">
-        <v>61.22818547483991</v>
+        <v>0.1122818547483991</v>
       </c>
       <c r="L111">
         <v>0.0250030973614994</v>
@@ -9281,13 +9281,13 @@
         <v>0.2875000000000227</v>
       </c>
       <c r="U111">
-        <v>1.000263804617969</v>
+        <v>0.0002638046179692655</v>
       </c>
       <c r="V111">
-        <v>1.000055420084238</v>
+        <v>5.542008423842226E-05</v>
       </c>
       <c r="W111">
-        <v>1.000415454923141</v>
+        <v>0.0004154549231409899</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9322,7 +9322,7 @@
         <v>1.355201230750639</v>
       </c>
       <c r="K112">
-        <v>57.54078305736599</v>
+        <v>0.07540783057365996</v>
       </c>
       <c r="L112">
         <v>0.02391727830797773</v>
@@ -9352,13 +9352,13 @@
         <v>0.2624999999999886</v>
       </c>
       <c r="U112">
-        <v>1.000208211876405</v>
+        <v>0.0002082118764052954</v>
       </c>
       <c r="V112">
-        <v>1.000027708506512</v>
+        <v>2.770850651168111E-05</v>
       </c>
       <c r="W112">
-        <v>0.9991694352159468</v>
+        <v>-0.0008305647840531893</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9393,7 +9393,7 @@
         <v>1.579158323074671</v>
       </c>
       <c r="K113">
-        <v>61.22766132449448</v>
+        <v>0.1122766132449449</v>
       </c>
       <c r="L113">
         <v>0.02292566937438612</v>
@@ -9423,13 +9423,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U113">
-        <v>1.000249802239893</v>
+        <v>0.0002498022398933486</v>
       </c>
       <c r="V113">
-        <v>1.000166246432628</v>
+        <v>0.0001662464326284141</v>
       </c>
       <c r="W113">
-        <v>1.001246882793017</v>
+        <v>0.001246882793017434</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9464,7 +9464,7 @@
         <v>1.364681119270259</v>
       </c>
       <c r="K114">
-        <v>57.71099993775903</v>
+        <v>0.07710999937759033</v>
       </c>
       <c r="L114">
         <v>0.02166745330098489</v>
@@ -9494,13 +9494,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U114">
-        <v>1.000208116545265</v>
+        <v>0.0002081165452654243</v>
       </c>
       <c r="V114">
-        <v>1.000083109399673</v>
+        <v>8.310939967315356E-05</v>
       </c>
       <c r="W114">
-        <v>0.9991697799916978</v>
+        <v>-0.0008302200083022404</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9535,7 +9535,7 @@
         <v>1.436163970099716</v>
       </c>
       <c r="K115">
-        <v>58.95185987997893</v>
+        <v>0.0895185987997893</v>
       </c>
       <c r="L115">
         <v>0.02040069540378231</v>
@@ -9565,13 +9565,13 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="U115">
-        <v>1.000194201692329</v>
+        <v>0.0001942016923290879</v>
       </c>
       <c r="V115">
-        <v>1.000138504155125</v>
+        <v>0.0001385041551247301</v>
       </c>
       <c r="W115">
-        <v>1.000415454923141</v>
+        <v>0.0004154549231409899</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9606,7 +9606,7 @@
         <v>1.103908977417529</v>
       </c>
       <c r="K116">
-        <v>52.46942663710369</v>
+        <v>0.024694266371037</v>
       </c>
       <c r="L116">
         <v>0.01852898012077979</v>
@@ -9636,13 +9636,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U116">
-        <v>1.000110950848774</v>
+        <v>0.0001109508487739941</v>
       </c>
       <c r="V116">
-        <v>1.000055393989752</v>
+        <v>5.539398975207277E-05</v>
       </c>
       <c r="W116">
-        <v>0.9983388704318936</v>
+        <v>-0.001661129568106379</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9677,7 +9677,7 @@
         <v>1.103908977417529</v>
       </c>
       <c r="K117">
-        <v>52.46942663710369</v>
+        <v>0.024694266371037</v>
       </c>
       <c r="L117">
         <v>0.01634295653801267</v>
@@ -9707,13 +9707,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U117">
-        <v>1.000138673175061</v>
+        <v>0.0001386731750609993</v>
       </c>
       <c r="V117">
-        <v>1.000110781842856</v>
+        <v>0.000110781842856067</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9748,7 +9748,7 @@
         <v>1.424336853380735</v>
       </c>
       <c r="K118">
-        <v>58.75160670822203</v>
+        <v>0.08751606708222026</v>
       </c>
       <c r="L118">
         <v>0.01480406731074743</v>
@@ -9778,13 +9778,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U118">
-        <v>1.000207980921217</v>
+        <v>0.000207980921216766</v>
       </c>
       <c r="V118">
-        <v>1.000193846750298</v>
+        <v>0.0001938467502977659</v>
       </c>
       <c r="W118">
-        <v>1.002079866888519</v>
+        <v>0.002079866888519133</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9819,7 +9819,7 @@
         <v>1.334325271764818</v>
       </c>
       <c r="K119">
-        <v>57.16106867814653</v>
+        <v>0.07161068678146532</v>
       </c>
       <c r="L119">
         <v>0.01354970362706081</v>
@@ -9849,13 +9849,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U119">
-        <v>1.000180212650928</v>
+        <v>0.0001802126509282687</v>
       </c>
       <c r="V119">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W119">
-        <v>0.9995848899958489</v>
+        <v>-0.0004151100041510647</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9890,7 +9890,7 @@
         <v>1.177647500056489</v>
       </c>
       <c r="K120">
-        <v>54.07888558758661</v>
+        <v>0.04078885587586611</v>
       </c>
       <c r="L120">
         <v>0.01219532505500008</v>
@@ -9920,13 +9920,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U120">
-        <v>1.0001386001386</v>
+        <v>0.0001386001386001201</v>
       </c>
       <c r="V120">
-        <v>0.9999169389224211</v>
+        <v>-8.306107757893866E-05</v>
       </c>
       <c r="W120">
-        <v>0.9991694352159468</v>
+        <v>-0.0008305647840531893</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9961,7 +9961,7 @@
         <v>1.177647500056489</v>
       </c>
       <c r="K121">
-        <v>54.07888558758661</v>
+        <v>0.04078885587586611</v>
       </c>
       <c r="L121">
         <v>0.01082233378048815</v>
@@ -9991,13 +9991,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U121">
-        <v>1.000124722838138</v>
+        <v>0.0001247228381375809</v>
       </c>
       <c r="V121">
-        <v>0.9999446213484702</v>
+        <v>-5.537865152982491E-05</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10032,7 +10032,7 @@
         <v>1.042067863037866</v>
       </c>
       <c r="K122">
-        <v>51.03003097495704</v>
+        <v>0.01030030974957041</v>
       </c>
       <c r="L122">
         <v>0.009183363321489535</v>
@@ -10062,13 +10062,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U122">
-        <v>1.000069281824606</v>
+        <v>6.928182460597121E-05</v>
       </c>
       <c r="V122">
-        <v>0.9998338548445157</v>
+        <v>-0.0001661451554842985</v>
       </c>
       <c r="W122">
-        <v>0.9991687448046551</v>
+        <v>-0.0008312551953448821</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10103,7 +10103,7 @@
         <v>1.042067863037867</v>
       </c>
       <c r="K123">
-        <v>51.03003097495704</v>
+        <v>0.01030030974957041</v>
       </c>
       <c r="L123">
         <v>0.007454387188969821</v>
@@ -10133,13 +10133,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U123">
-        <v>1.000041566214981</v>
+        <v>4.156621498063728E-05</v>
       </c>
       <c r="V123">
-        <v>0.999778436314288</v>
+        <v>-0.0002215636857120229</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10174,7 +10174,7 @@
         <v>1.169632983000985</v>
       </c>
       <c r="K124">
-        <v>53.90925525953132</v>
+        <v>0.03909255259531319</v>
       </c>
       <c r="L124">
         <v>0.006056777378038353</v>
@@ -10204,13 +10204,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U124">
-        <v>1.000041564487302</v>
+        <v>4.156448730197049E-05</v>
       </c>
       <c r="V124">
-        <v>0.9999168952048535</v>
+        <v>-8.310479514650471E-05</v>
       </c>
       <c r="W124">
-        <v>1.000831946755408</v>
+        <v>0.0008319467554076532</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10245,7 +10245,7 @@
         <v>1.169632983000985</v>
       </c>
       <c r="K125">
-        <v>53.90925525953132</v>
+        <v>0.03909255259531319</v>
       </c>
       <c r="L125">
         <v>0.004926893004333912</v>
@@ -10275,13 +10275,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U125">
-        <v>1.000041562759767</v>
+        <v>4.156275976741064E-05</v>
       </c>
       <c r="V125">
-        <v>0.9999722960992907</v>
+        <v>-2.770390070927498E-05</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10316,7 +10316,7 @@
         <v>1.240306179656452</v>
       </c>
       <c r="K126">
-        <v>55.36324413686398</v>
+        <v>0.05363244136863976</v>
       </c>
       <c r="L126">
         <v>0.004164622171074722</v>
@@ -10346,13 +10346,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U126">
-        <v>1.000013853677459</v>
+        <v>1.385367745854182E-05</v>
       </c>
       <c r="V126">
-        <v>0.9999722953317635</v>
+        <v>-2.770466823653894E-05</v>
       </c>
       <c r="W126">
-        <v>1.000415627597673</v>
+        <v>0.0004156275976725521</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10387,7 +10387,7 @@
         <v>1.314699018241175</v>
       </c>
       <c r="K127">
-        <v>56.79783884991447</v>
+        <v>0.06797838849914473</v>
       </c>
       <c r="L127">
         <v>0.003809809483183173</v>
@@ -10417,13 +10417,13 @@
         <v>-0.05000000000003979</v>
       </c>
       <c r="U127">
-        <v>1.000041560456611</v>
+        <v>4.156045661085628E-05</v>
       </c>
       <c r="V127">
-        <v>1.000055410871613</v>
+        <v>5.541087161309299E-05</v>
       </c>
       <c r="W127">
-        <v>1.000415454923141</v>
+        <v>0.0004154549231409899</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10458,7 +10458,7 @@
         <v>1.314699018241175</v>
       </c>
       <c r="K128">
-        <v>56.79783884991447</v>
+        <v>0.06797838849914473</v>
       </c>
       <c r="L128">
         <v>0.003710542445328434</v>
@@ -10488,13 +10488,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U128">
-        <v>1.000069264549019</v>
+        <v>6.926454901856616E-05</v>
       </c>
       <c r="V128">
-        <v>0.9999722960992907</v>
+        <v>-2.770390070927498E-05</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10529,7 +10529,7 @@
         <v>1.214581392245263</v>
       </c>
       <c r="K129">
-        <v>54.84473934885971</v>
+        <v>0.04844739348859717</v>
       </c>
       <c r="L129">
         <v>0.00360751580235677</v>
@@ -10559,13 +10559,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U129">
-        <v>1.000041555851064</v>
+        <v>4.155585106380144E-05</v>
       </c>
       <c r="V129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>0.9995847176079733</v>
+        <v>-0.0004152823920267057</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10600,7 +10600,7 @@
         <v>1.124445260258572</v>
       </c>
       <c r="K130">
-        <v>52.92888836880235</v>
+        <v>0.02928888368802351</v>
       </c>
       <c r="L130">
         <v>0.003344280799431947</v>
@@ -10630,13 +10630,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U130">
-        <v>1.000041554124247</v>
+        <v>4.155412424666771E-05</v>
       </c>
       <c r="V130">
-        <v>0.9999445906635268</v>
+        <v>-5.540933647318891E-05</v>
       </c>
       <c r="W130">
-        <v>0.9995845450768592</v>
+        <v>-0.0004154549231407678</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10671,7 +10671,7 @@
         <v>0.9725057076740746</v>
       </c>
       <c r="K131">
-        <v>49.3030617802788</v>
+        <v>-0.006969382197211993</v>
       </c>
       <c r="L131">
         <v>0.002685897594184694</v>
@@ -10701,13 +10701,13 @@
         <v>0.04374999999996021</v>
       </c>
       <c r="U131">
-        <v>1.000027701598382</v>
+        <v>2.770159838227926E-05</v>
       </c>
       <c r="V131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W131">
-        <v>0.9991687448046551</v>
+        <v>-0.0008312551953448821</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10742,7 +10742,7 @@
         <v>0.9725057076740746</v>
       </c>
       <c r="K132">
-        <v>49.3030617802788</v>
+        <v>-0.006969382197211993</v>
       </c>
       <c r="L132">
         <v>0.001820336773790265</v>
@@ -10772,13 +10772,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U132">
-        <v>1.00005540166205</v>
+        <v>5.540166204975883E-05</v>
       </c>
       <c r="V132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10813,7 +10813,7 @@
         <v>0.8458616924074481</v>
       </c>
       <c r="K133">
-        <v>45.8247601045472</v>
+        <v>-0.04175239895452798</v>
       </c>
       <c r="L133">
         <v>0.0005751192541642696</v>
@@ -10843,13 +10843,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V133">
-        <v>0.9998060565760674</v>
+        <v>-0.000193943423932641</v>
       </c>
       <c r="W133">
-        <v>0.9991680532445922</v>
+        <v>-0.0008319467554077642</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10884,7 +10884,7 @@
         <v>0.9829400547269636</v>
       </c>
       <c r="K134">
-        <v>49.56983204730852</v>
+        <v>-0.004301679526914792</v>
       </c>
       <c r="L134">
         <v>-0.000520160451815276</v>
@@ -10914,13 +10914,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U134">
-        <v>0.9999446014071243</v>
+        <v>-5.539859287573279E-05</v>
       </c>
       <c r="V134">
-        <v>0.9998891536884111</v>
+        <v>-0.0001108463115888636</v>
       </c>
       <c r="W134">
-        <v>1.000832639467111</v>
+        <v>0.0008326394671107629</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10955,7 +10955,7 @@
         <v>0.9167963974909268</v>
       </c>
       <c r="K135">
-        <v>47.82961814259495</v>
+        <v>-0.02170381857405046</v>
       </c>
       <c r="L135">
         <v>-0.001604285731269779</v>
@@ -10985,13 +10985,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U135">
-        <v>0.9999168975069253</v>
+        <v>-8.310249307474926E-05</v>
       </c>
       <c r="V135">
-        <v>0.9999168560501079</v>
+        <v>-8.314394989206164E-05</v>
       </c>
       <c r="W135">
-        <v>0.9995840266222962</v>
+        <v>-0.0004159733777038266</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11026,7 +11026,7 @@
         <v>0.7561207748183582</v>
       </c>
       <c r="K136">
-        <v>43.05630829386244</v>
+        <v>-0.06943691706137556</v>
       </c>
       <c r="L136">
         <v>-0.003060802571612692</v>
@@ -11056,13 +11056,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U136">
-        <v>0.9998891874671025</v>
+        <v>-0.0001108125328974641</v>
       </c>
       <c r="V136">
-        <v>0.9998336982732338</v>
+        <v>-0.0001663017267662381</v>
       </c>
       <c r="W136">
-        <v>0.9987515605493134</v>
+        <v>-0.001248439450686645</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11097,7 +11097,7 @@
         <v>0.9406025581838424</v>
       </c>
       <c r="K137">
-        <v>48.46961343100192</v>
+        <v>-0.01530386568998082</v>
       </c>
       <c r="L137">
         <v>-0.004185005333780414</v>
@@ -11127,13 +11127,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U137">
-        <v>0.9999030282880337</v>
+        <v>-9.697171196632048E-05</v>
       </c>
       <c r="V137">
-        <v>0.9999722784353949</v>
+        <v>-2.772156460506547E-05</v>
       </c>
       <c r="W137">
-        <v>1.00125</v>
+        <v>0.001249999999999973</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11168,7 +11168,7 @@
         <v>0.7106115349442145</v>
       </c>
       <c r="K138">
-        <v>41.54137397228462</v>
+        <v>-0.08458626027715377</v>
       </c>
       <c r="L138">
         <v>-0.005777846993683841</v>
@@ -11198,13 +11198,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U138">
-        <v>0.9998060377672177</v>
+        <v>-0.0001939622327823409</v>
       </c>
       <c r="V138">
-        <v>0.9998336660013308</v>
+        <v>-0.0001663339986691659</v>
       </c>
       <c r="W138">
-        <v>0.997919267582189</v>
+        <v>-0.002080732417811038</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11239,7 +11239,7 @@
         <v>0.8135650350511613</v>
       </c>
       <c r="K139">
-        <v>44.85998678443921</v>
+        <v>-0.0514001321556079</v>
       </c>
       <c r="L139">
         <v>-0.007229523684184668</v>
@@ -11269,13 +11269,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U139">
-        <v>0.9998752858033672</v>
+        <v>-0.0001247141966328469</v>
       </c>
       <c r="V139">
-        <v>0.9998336383297287</v>
+        <v>-0.0001663616702712867</v>
       </c>
       <c r="W139">
-        <v>1.000834028356964</v>
+        <v>0.0008340283569641116</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11310,7 +11310,7 @@
         <v>0.8135650350511612</v>
       </c>
       <c r="K140">
-        <v>44.85998678443921</v>
+        <v>-0.0514001321556079</v>
       </c>
       <c r="L140">
         <v>-0.008476996670014041</v>
@@ -11340,13 +11340,13 @@
         <v>-0.25</v>
       </c>
       <c r="U140">
-        <v>0.9999029879705084</v>
+        <v>-9.701202949163878E-05</v>
       </c>
       <c r="V140">
-        <v>0.9998336106489185</v>
+        <v>-0.0001663893510814862</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11381,7 +11381,7 @@
         <v>0.8135650350511612</v>
       </c>
       <c r="K141">
-        <v>44.85998678443921</v>
+        <v>-0.0514001321556079</v>
       </c>
       <c r="L141">
         <v>-0.009490534282808825</v>
@@ -11411,13 +11411,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U141">
-        <v>0.9998891183522987</v>
+        <v>-0.0001108816477013441</v>
       </c>
       <c r="V141">
-        <v>0.9998058467853775</v>
+        <v>-0.0001941532146224612</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11452,7 +11452,7 @@
         <v>0.8135650350511613</v>
       </c>
       <c r="K142">
-        <v>44.85998678443921</v>
+        <v>-0.0514001321556079</v>
       </c>
       <c r="L142">
         <v>-0.01026332207994968</v>
@@ -11482,13 +11482,13 @@
         <v>-0.2437500000000057</v>
       </c>
       <c r="U142">
-        <v>0.9999168295421467</v>
+        <v>-8.31704578533321E-05</v>
       </c>
       <c r="V142">
-        <v>0.9997780675229561</v>
+        <v>-0.0002219324770439401</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11523,7 +11523,7 @@
         <v>0.8135650350511614</v>
       </c>
       <c r="K143">
-        <v>44.85998678443922</v>
+        <v>-0.05140013215560785</v>
       </c>
       <c r="L143">
         <v>-0.01080373751512834</v>
@@ -11553,13 +11553,13 @@
         <v>-0.2312500000000171</v>
       </c>
       <c r="U143">
-        <v>0.9998752339363693</v>
+        <v>-0.0001247660636306547</v>
       </c>
       <c r="V143">
-        <v>0.9997780182579983</v>
+        <v>-0.0002219817420017201</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11594,7 +11594,7 @@
         <v>0.8135650350511613</v>
       </c>
       <c r="K144">
-        <v>44.85998678443921</v>
+        <v>-0.0514001321556079</v>
       </c>
       <c r="L144">
         <v>-0.01112967429552415</v>
@@ -11624,13 +11624,13 @@
         <v>-0.1812500000000341</v>
       </c>
       <c r="U144">
-        <v>0.9999029476194438</v>
+        <v>-9.705238055623955E-05</v>
       </c>
       <c r="V144">
-        <v>0.9998057228497682</v>
+        <v>-0.0001942771502317919</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11665,7 +11665,7 @@
         <v>0.8135650350511615</v>
       </c>
       <c r="K145">
-        <v>44.85998678443922</v>
+        <v>-0.05140013215560779</v>
       </c>
       <c r="L145">
         <v>-0.01126443420021025</v>
@@ -11695,13 +11695,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U145">
-        <v>0.9998890722278456</v>
+        <v>-0.0001109277721543789</v>
       </c>
       <c r="V145">
-        <v>0.9998334443704198</v>
+        <v>-0.000166555629580234</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11736,7 +11736,7 @@
         <v>0.7577116082225169</v>
       </c>
       <c r="K146">
-        <v>43.10784571700881</v>
+        <v>-0.06892154282991192</v>
       </c>
       <c r="L146">
         <v>-0.0113852795450592</v>
@@ -11766,13 +11766,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U146">
-        <v>0.9999306624509439</v>
+        <v>-6.933754905613654E-05</v>
       </c>
       <c r="V146">
-        <v>0.9998611805208506</v>
+        <v>-0.0001388194791493991</v>
       </c>
       <c r="W146">
-        <v>0.9995833333333334</v>
+        <v>-0.0004166666666666208</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11807,7 +11807,7 @@
         <v>0.6620274701075001</v>
       </c>
       <c r="K147">
-        <v>39.83252274793509</v>
+        <v>-0.101674772520649</v>
       </c>
       <c r="L147">
         <v>-0.01175159912452183</v>
@@ -11837,13 +11837,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U147">
-        <v>0.9999029207000804</v>
+        <v>-9.707929991964459E-05</v>
       </c>
       <c r="V147">
-        <v>0.9998056257462583</v>
+        <v>-0.0001943742537416915</v>
       </c>
       <c r="W147">
-        <v>0.9991663192997081</v>
+        <v>-0.0008336807002918833</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11878,7 +11878,7 @@
         <v>0.5843515188656984</v>
       </c>
       <c r="K148">
-        <v>36.88269376508436</v>
+        <v>-0.1311730623491564</v>
       </c>
       <c r="L148">
         <v>-0.01250370399985387</v>
@@ -11908,13 +11908,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U148">
-        <v>0.9998058225495499</v>
+        <v>-0.0001941774504501392</v>
       </c>
       <c r="V148">
-        <v>0.9998055879575627</v>
+        <v>-0.0001944120424373086</v>
       </c>
       <c r="W148">
-        <v>0.999165623696287</v>
+        <v>-0.0008343763037129692</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11949,7 +11949,7 @@
         <v>0.5843515188656985</v>
       </c>
       <c r="K149">
-        <v>36.88269376508437</v>
+        <v>-0.1311730623491563</v>
       </c>
       <c r="L149">
         <v>-0.01339637555780174</v>
@@ -11979,13 +11979,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U149">
-        <v>0.9998196573489629</v>
+        <v>-0.0001803426510370576</v>
       </c>
       <c r="V149">
-        <v>0.9997499930553626</v>
+        <v>-0.0002500069446373931</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12020,7 +12020,7 @@
         <v>0.7143575078740105</v>
       </c>
       <c r="K150">
-        <v>41.66910954062851</v>
+        <v>-0.08330890459371487</v>
       </c>
       <c r="L150">
         <v>-0.01396573319753727</v>
@@ -12050,13 +12050,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U150">
-        <v>0.999875124875125</v>
+        <v>-0.0001248751248750235</v>
       </c>
       <c r="V150">
-        <v>0.9998332870241734</v>
+        <v>-0.0001667129758265995</v>
       </c>
       <c r="W150">
-        <v>1.000835073068894</v>
+        <v>0.0008350730688935215</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12091,7 +12091,7 @@
         <v>0.9196301220976807</v>
       </c>
       <c r="K151">
-        <v>47.90663115312821</v>
+        <v>-0.0209336884687179</v>
       </c>
       <c r="L151">
         <v>-0.01379748499750076</v>
@@ -12121,13 +12121,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U151">
-        <v>0.999916739519587</v>
+        <v>-8.326048041296108E-05</v>
       </c>
       <c r="V151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W151">
-        <v>1.00125156445557</v>
+        <v>0.001251564455569509</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12162,7 +12162,7 @@
         <v>0.9196301220976806</v>
       </c>
       <c r="K152">
-        <v>47.90663115312821</v>
+        <v>-0.0209336884687179</v>
       </c>
       <c r="L152">
         <v>-0.01314270059876598</v>
@@ -12192,13 +12192,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U152">
-        <v>0.9999444883911348</v>
+        <v>-5.551160886518858E-05</v>
       </c>
       <c r="V152">
-        <v>0.9999166296131614</v>
+        <v>-8.337038683858822E-05</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12233,7 +12233,7 @@
         <v>0.9954464154397492</v>
       </c>
       <c r="K153">
-        <v>49.88590060537287</v>
+        <v>-0.001140993946271263</v>
       </c>
       <c r="L153">
         <v>-0.01203528330626565</v>
@@ -12263,13 +12263,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U153">
-        <v>0.9999583639820687</v>
+        <v>-4.163601793127913E-05</v>
       </c>
       <c r="V153">
-        <v>1.00008337733804</v>
+        <v>8.33773380395364E-05</v>
       </c>
       <c r="W153">
-        <v>1.000416666666667</v>
+        <v>0.0004166666666667318</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12304,7 +12304,7 @@
         <v>1.075253040010347</v>
       </c>
       <c r="K154">
-        <v>51.81310516258712</v>
+        <v>0.01813105162587125</v>
       </c>
       <c r="L154">
         <v>-0.0105285956441899</v>
@@ -12334,13 +12334,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U154">
-        <v>0.9999444829979182</v>
+        <v>-5.551700208183963E-05</v>
       </c>
       <c r="V154">
-        <v>1.000055580257893</v>
+        <v>5.558025789254017E-05</v>
       </c>
       <c r="W154">
-        <v>1.000416493127863</v>
+        <v>0.0004164931278634043</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12375,7 +12375,7 @@
         <v>1.075253040010347</v>
       </c>
       <c r="K155">
-        <v>51.81310516258712</v>
+        <v>0.01813105162587125</v>
       </c>
       <c r="L155">
         <v>-0.008837516484125597</v>
@@ -12405,13 +12405,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U155">
-        <v>0.9999444799156094</v>
+        <v>-5.55200843905812E-05</v>
       </c>
       <c r="V155">
-        <v>1.000055577168899</v>
+        <v>5.557716889903475E-05</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12446,7 +12446,7 @@
         <v>1.075253040010347</v>
       </c>
       <c r="K156">
-        <v>51.81310516258712</v>
+        <v>0.01813105162587125</v>
       </c>
       <c r="L156">
         <v>-0.007110201489770755</v>
@@ -12476,13 +12476,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U156">
-        <v>0.9999305960411983</v>
+        <v>-6.940395880172812E-05</v>
       </c>
       <c r="V156">
-        <v>1.000055574080249</v>
+        <v>5.557408024903232E-05</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12517,7 +12517,7 @@
         <v>0.9836888080272265</v>
       </c>
       <c r="K157">
-        <v>49.58886716740125</v>
+        <v>-0.00411132832598754</v>
       </c>
       <c r="L157">
         <v>-0.005596722951271918</v>
@@ -12547,13 +12547,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U157">
-        <v>0.9999028277135361</v>
+        <v>-9.717228646388687E-05</v>
       </c>
       <c r="V157">
-        <v>1.000027785495971</v>
+        <v>2.778549597115543E-05</v>
       </c>
       <c r="W157">
-        <v>0.9995836802664446</v>
+        <v>-0.0004163197335553814</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12588,7 +12588,7 @@
         <v>0.9836888080272266</v>
       </c>
       <c r="K158">
-        <v>49.58886716740125</v>
+        <v>-0.00411132832598754</v>
       </c>
       <c r="L158">
         <v>-0.004288864416345857</v>
@@ -12618,13 +12618,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U158">
-        <v>0.9999028182701651</v>
+        <v>-9.718172983486095E-05</v>
       </c>
       <c r="V158">
-        <v>1.000027784723959</v>
+        <v>2.778472395870146E-05</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12659,7 +12659,7 @@
         <v>0.8988748739740781</v>
       </c>
       <c r="K159">
-        <v>47.33723565960191</v>
+        <v>-0.02662764340398094</v>
       </c>
       <c r="L159">
         <v>-0.00332498998439008</v>
@@ -12689,13 +12689,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U159">
-        <v>0.9999028088249586</v>
+        <v>-9.719117504136676E-05</v>
       </c>
       <c r="V159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W159">
-        <v>0.9995835068721366</v>
+        <v>-0.0004164931278634043</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12730,7 +12730,7 @@
         <v>0.8988748739740782</v>
       </c>
       <c r="K160">
-        <v>47.33723565960191</v>
+        <v>-0.02662764340398094</v>
       </c>
       <c r="L160">
         <v>-0.002618851118097435</v>
@@ -12760,13 +12760,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U160">
-        <v>0.9999166851810709</v>
+        <v>-8.33148189290922E-05</v>
       </c>
       <c r="V160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12801,7 +12801,7 @@
         <v>0.754678527567626</v>
       </c>
       <c r="K161">
-        <v>43.00950377581573</v>
+        <v>-0.06990496224184267</v>
       </c>
       <c r="L161">
         <v>-0.002407709319606273</v>
@@ -12831,13 +12831,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U161">
-        <v>0.9999166782391334</v>
+        <v>-8.332176086656151E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999722160480108</v>
+        <v>-2.778395198921313E-05</v>
       </c>
       <c r="W161">
-        <v>0.9991666666666668</v>
+        <v>-0.0008333333333332416</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12872,7 +12872,7 @@
         <v>0.9235403260126035</v>
       </c>
       <c r="K162">
-        <v>48.01252739665996</v>
+        <v>-0.0198747260334004</v>
       </c>
       <c r="L162">
         <v>-0.002197785115392939</v>
@@ -12902,13 +12902,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U162">
-        <v>0.9999444475306928</v>
+        <v>-5.555246930721847E-05</v>
       </c>
       <c r="V162">
-        <v>1.000083354171876</v>
+        <v>8.335417187610439E-05</v>
       </c>
       <c r="W162">
-        <v>1.000834028356964</v>
+        <v>0.0008340283569641116</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12943,7 +12943,7 @@
         <v>0.8481603849724787</v>
       </c>
       <c r="K163">
-        <v>45.89214182215625</v>
+        <v>-0.04107858177843754</v>
       </c>
       <c r="L163">
         <v>-0.002145667439068519</v>
@@ -12973,13 +12973,13 @@
         <v>0.05625000000003411</v>
       </c>
       <c r="U163">
-        <v>0.9999583333333335</v>
+        <v>-4.166666666649554E-05</v>
       </c>
       <c r="V163">
-        <v>1.000111129632717</v>
+        <v>0.0001111296327165334</v>
       </c>
       <c r="W163">
-        <v>0.9995833333333334</v>
+        <v>-0.0004166666666666208</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13014,7 +13014,7 @@
         <v>0.7810549189811687</v>
       </c>
       <c r="K164">
-        <v>43.85350000481522</v>
+        <v>-0.06146499995184773</v>
       </c>
       <c r="L164">
         <v>-0.00233637029126074</v>
@@ -13044,13 +13044,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U164">
-        <v>0.9999166631942995</v>
+        <v>-8.333680570049573E-05</v>
       </c>
       <c r="V164">
-        <v>1.00008333796322</v>
+        <v>8.333796322013143E-05</v>
       </c>
       <c r="W164">
-        <v>0.9995831596498541</v>
+        <v>-0.0004168403501458862</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13085,7 +13085,7 @@
         <v>0.8643379087010006</v>
       </c>
       <c r="K165">
-        <v>46.36165496968509</v>
+        <v>-0.0363834503031491</v>
       </c>
       <c r="L165">
         <v>-0.002501838978498052</v>
@@ -13115,13 +13115,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U165">
-        <v>0.9999444374991319</v>
+        <v>-5.556250086813375E-05</v>
       </c>
       <c r="V165">
-        <v>1.000055554012389</v>
+        <v>5.555401238854785E-05</v>
       </c>
       <c r="W165">
-        <v>1.000417014178482</v>
+        <v>0.0004170141784820558</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13156,7 +13156,7 @@
         <v>1.215003128574002</v>
       </c>
       <c r="K166">
-        <v>54.85333690504579</v>
+        <v>0.04853336905045791</v>
       </c>
       <c r="L166">
         <v>-0.002025547916425988</v>
@@ -13186,13 +13186,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U166">
-        <v>1.000041674191174</v>
+        <v>4.167419117351301E-05</v>
       </c>
       <c r="V166">
-        <v>1.000083326389468</v>
+        <v>8.332638946750848E-05</v>
       </c>
       <c r="W166">
-        <v>1.001667361400584</v>
+        <v>0.001667361400583545</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13227,7 +13227,7 @@
         <v>1.112354681479802</v>
       </c>
       <c r="K167">
-        <v>52.6594653460633</v>
+        <v>0.02659465346063294</v>
       </c>
       <c r="L167">
         <v>-0.001335104464629193</v>
@@ -13257,13 +13257,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U167">
-        <v>0.9999861091818308</v>
+        <v>-1.389081816915994E-05</v>
       </c>
       <c r="V167">
-        <v>1.000055546297839</v>
+        <v>5.554629783932619E-05</v>
       </c>
       <c r="W167">
-        <v>0.9995838535164376</v>
+        <v>-0.0004161464835623629</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13298,7 +13298,7 @@
         <v>1.290215946854588</v>
       </c>
       <c r="K168">
-        <v>56.33599524213369</v>
+        <v>0.06335995242133696</v>
       </c>
       <c r="L168">
         <v>-0.0002506229067598861</v>
@@ -13328,13 +13328,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U168">
-        <v>1.00008334606676</v>
+        <v>8.334606676019263E-05</v>
       </c>
       <c r="V168">
-        <v>1.000083314818929</v>
+        <v>8.331481892920323E-05</v>
       </c>
       <c r="W168">
-        <v>1.000832639467111</v>
+        <v>0.0008326394671107629</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13369,7 +13369,7 @@
         <v>1.007325206112802</v>
       </c>
       <c r="K169">
-        <v>50.18246186742672</v>
+        <v>0.001824618674267198</v>
       </c>
       <c r="L169">
         <v>0.000549247598834638</v>
@@ -13399,13 +13399,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U169">
-        <v>1.000013889853462</v>
+        <v>1.388985346206795E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999722307072838</v>
+        <v>-2.776929271619544E-05</v>
       </c>
       <c r="W169">
-        <v>0.9987520798668885</v>
+        <v>-0.00124792013311148</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13440,7 +13440,7 @@
         <v>1.007325206112802</v>
       </c>
       <c r="K170">
-        <v>50.18246186742672</v>
+        <v>0.001824618674267198</v>
       </c>
       <c r="L170">
         <v>0.001123705297446026</v>
@@ -13470,13 +13470,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U170">
-        <v>1.000013889660537</v>
+        <v>1.388966053661456E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999722299361289</v>
+        <v>-2.777006387111314E-05</v>
       </c>
       <c r="W170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13511,7 +13511,7 @@
         <v>0.931861322986354</v>
       </c>
       <c r="K171">
-        <v>48.23645009600601</v>
+        <v>-0.01763549903993988</v>
       </c>
       <c r="L171">
         <v>0.001369184612591376</v>
@@ -13541,13 +13541,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V171">
-        <v>0.9999444583298619</v>
+        <v>-5.554167013810396E-05</v>
       </c>
       <c r="W171">
-        <v>0.9995835068721366</v>
+        <v>-0.0004164931278634043</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13582,7 +13582,7 @@
         <v>0.8049135526008078</v>
       </c>
       <c r="K172">
-        <v>44.59568445485711</v>
+        <v>-0.05404315545142885</v>
       </c>
       <c r="L172">
         <v>0.001091320125243077</v>
@@ -13612,13 +13612,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U172">
-        <v>0.9999722210647666</v>
+        <v>-2.777893523342456E-05</v>
       </c>
       <c r="V172">
-        <v>0.9999166828672204</v>
+        <v>-8.331713277964781E-05</v>
       </c>
       <c r="W172">
-        <v>0.9991666666666668</v>
+        <v>-0.0008333333333332416</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13653,7 +13653,7 @@
         <v>1.020014064911816</v>
       </c>
       <c r="K173">
-        <v>50.49539419698768</v>
+        <v>0.004953941969876863</v>
       </c>
       <c r="L173">
         <v>0.0009652668770312389</v>
@@ -13683,13 +13683,13 @@
         <v>0.09375</v>
       </c>
       <c r="U173">
-        <v>1.000013889853462</v>
+        <v>1.388985346206795E-05</v>
       </c>
       <c r="V173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W173">
-        <v>1.001251042535446</v>
+        <v>0.001251042535446167</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13724,7 +13724,7 @@
         <v>0.9484322205169189</v>
       </c>
       <c r="K174">
-        <v>48.67668531293842</v>
+        <v>-0.01323314687061583</v>
       </c>
       <c r="L174">
         <v>0.0007839946891870646</v>
@@ -13754,13 +13754,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W174">
-        <v>0.9995835068721366</v>
+        <v>-0.0004164931278634043</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13795,7 +13795,7 @@
         <v>0.826346393264303</v>
       </c>
       <c r="K175">
-        <v>45.24587429372259</v>
+        <v>-0.04754125706277407</v>
       </c>
       <c r="L175">
         <v>0.0002745622325901927</v>
@@ -13825,13 +13825,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U175">
-        <v>0.9999722206789267</v>
+        <v>-2.777932107334014E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999444506165981</v>
+        <v>-5.55493834019094E-05</v>
       </c>
       <c r="W175">
-        <v>0.9991666666666668</v>
+        <v>-0.0008333333333332416</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13866,7 +13866,7 @@
         <v>0.7739141841435401</v>
       </c>
       <c r="K176">
-        <v>43.62748722916334</v>
+        <v>-0.06372512770836658</v>
       </c>
       <c r="L176">
         <v>-0.0005539136445039253</v>
@@ -13896,13 +13896,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U176">
-        <v>0.9999722199072144</v>
+        <v>-2.778009278558979E-05</v>
       </c>
       <c r="V176">
-        <v>0.9999722237653464</v>
+        <v>-2.777623465355372E-05</v>
       </c>
       <c r="W176">
-        <v>0.9995829858215178</v>
+        <v>-0.0004170141784821668</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13937,7 +13937,7 @@
         <v>0.6827166853046448</v>
       </c>
       <c r="K177">
-        <v>40.5722895165233</v>
+        <v>-0.09427710483476703</v>
       </c>
       <c r="L177">
         <v>-0.00182428242607868</v>
@@ -13967,13 +13967,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U177">
-        <v>0.9999722191354595</v>
+        <v>-2.778086454047202E-05</v>
       </c>
       <c r="V177">
-        <v>0.9998611149690287</v>
+        <v>-0.0001388850309712586</v>
       </c>
       <c r="W177">
-        <v>0.999165623696287</v>
+        <v>-0.0008343763037129692</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14008,7 +14008,7 @@
         <v>0.6073768369823315</v>
       </c>
       <c r="K178">
-        <v>37.78683523414539</v>
+        <v>-0.1221316476585461</v>
       </c>
       <c r="L178">
         <v>-0.003578231241530412</v>
@@ -14038,13 +14038,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U178">
-        <v>0.9999722183636617</v>
+        <v>-2.778163633831987E-05</v>
       </c>
       <c r="V178">
-        <v>0.9998333148127568</v>
+        <v>-0.0001666851872431652</v>
       </c>
       <c r="W178">
-        <v>0.9991649269311065</v>
+        <v>-0.0008350730688935215</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14079,7 +14079,7 @@
         <v>0.6654573740515141</v>
       </c>
       <c r="K179">
-        <v>39.95643385532429</v>
+        <v>-0.1004356614467571</v>
       </c>
       <c r="L179">
         <v>-0.005348770545451497</v>
@@ -14109,13 +14109,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U179">
-        <v>0.9999861087959103</v>
+        <v>-1.38912040896777E-05</v>
       </c>
       <c r="V179">
-        <v>0.9998888580161156</v>
+        <v>-0.0001111419838843997</v>
       </c>
       <c r="W179">
-        <v>1.000417885499373</v>
+        <v>0.0004178854993730496</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14150,7 +14150,7 @@
         <v>0.6654573740515141</v>
       </c>
       <c r="K180">
-        <v>39.95643385532429</v>
+        <v>-0.1004356614467571</v>
       </c>
       <c r="L180">
         <v>-0.006997218583423207</v>
@@ -14180,13 +14180,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U180">
-        <v>0.9999583258088266</v>
+        <v>-4.167419117340199E-05</v>
       </c>
       <c r="V180">
-        <v>0.9998610570777524</v>
+        <v>-0.0001389429222475869</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14221,7 +14221,7 @@
         <v>0.6654573740515141</v>
       </c>
       <c r="K181">
-        <v>39.95643385532429</v>
+        <v>-0.1004356614467571</v>
       </c>
       <c r="L181">
         <v>-0.008441346535447279</v>
@@ -14251,13 +14251,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U181">
-        <v>0.999916648144032</v>
+        <v>-8.335185596797245E-05</v>
       </c>
       <c r="V181">
-        <v>0.9997498679858815</v>
+        <v>-0.0002501320141184982</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14292,7 +14292,7 @@
         <v>0.6232378231104626</v>
       </c>
       <c r="K182">
-        <v>38.39473269026031</v>
+        <v>-0.116052673097397</v>
       </c>
       <c r="L182">
         <v>-0.009790834763097044</v>
@@ -14322,13 +14322,13 @@
         <v>-0.3062500000000057</v>
       </c>
       <c r="U182">
-        <v>0.9999027480619078</v>
+        <v>-9.725193809217991E-05</v>
       </c>
       <c r="V182">
-        <v>0.999749805404203</v>
+        <v>-0.0002501945957970042</v>
       </c>
       <c r="W182">
-        <v>0.9995822890559732</v>
+        <v>-0.0004177109440267612</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14363,7 +14363,7 @@
         <v>0.6232378231104626</v>
       </c>
       <c r="K183">
-        <v>38.39473269026031</v>
+        <v>-0.116052673097397</v>
       </c>
       <c r="L183">
         <v>-0.01096153942733977</v>
@@ -14393,13 +14393,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U183">
-        <v>0.9998888441177697</v>
+        <v>-0.0001111558822303182</v>
       </c>
       <c r="V183">
-        <v>0.9996941300781359</v>
+        <v>-0.0003058699218640992</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14434,7 +14434,7 @@
         <v>0.5823028003764569</v>
       </c>
       <c r="K184">
-        <v>36.80097135882697</v>
+        <v>-0.1319902864117303</v>
       </c>
       <c r="L184">
         <v>-0.01206136985834423</v>
@@ -14464,13 +14464,13 @@
         <v>-0.2999999999999829</v>
       </c>
       <c r="U184">
-        <v>0.9998610397009574</v>
+        <v>-0.0001389602990425898</v>
       </c>
       <c r="V184">
-        <v>0.9997496662216289</v>
+        <v>-0.0002503337783711368</v>
       </c>
       <c r="W184">
-        <v>0.9995821145006267</v>
+        <v>-0.0004178854993732717</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14505,7 +14505,7 @@
         <v>0.7205790603110196</v>
       </c>
       <c r="K185">
-        <v>41.8800319574251</v>
+        <v>-0.08119968042574899</v>
       </c>
       <c r="L185">
         <v>-0.01270089166415278</v>
@@ -14535,13 +14535,13 @@
         <v>-0.2687499999999545</v>
       </c>
       <c r="U185">
-        <v>0.9998888163106472</v>
+        <v>-0.0001111836893528118</v>
       </c>
       <c r="V185">
-        <v>0.9998052471969507</v>
+        <v>-0.0001947528030492585</v>
       </c>
       <c r="W185">
-        <v>1.000836120401338</v>
+        <v>0.0008361204013378476</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14576,7 +14576,7 @@
         <v>0.671695118813239</v>
       </c>
       <c r="K186">
-        <v>40.18047975698375</v>
+        <v>-0.0981952024301625</v>
       </c>
       <c r="L186">
         <v>-0.01312640990359065</v>
@@ -14606,13 +14606,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U186">
-        <v>0.9998749044408924</v>
+        <v>-0.0001250955591075575</v>
       </c>
       <c r="V186">
-        <v>0.9998052092609083</v>
+        <v>-0.000194790739091677</v>
       </c>
       <c r="W186">
-        <v>0.9995822890559732</v>
+        <v>-0.0004177109440267612</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14647,7 +14647,7 @@
         <v>0.671695118813239</v>
       </c>
       <c r="K187">
-        <v>40.18047975698375</v>
+        <v>-0.0981952024301625</v>
       </c>
       <c r="L187">
         <v>-0.01334746266319922</v>
@@ -14677,13 +14677,13 @@
         <v>-0.1874999999999716</v>
       </c>
       <c r="U187">
-        <v>0.9998887900355872</v>
+        <v>-0.0001112099644128284</v>
       </c>
       <c r="V187">
-        <v>0.9998608366500598</v>
+        <v>-0.0001391633499402412</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14718,7 +14718,7 @@
         <v>0.671695118813239</v>
       </c>
       <c r="K188">
-        <v>40.18047975698375</v>
+        <v>-0.0981952024301625</v>
       </c>
       <c r="L188">
         <v>-0.01338202859905932</v>
@@ -14748,13 +14748,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U188">
-        <v>0.9998887776665556</v>
+        <v>-0.0001112223334444051</v>
       </c>
       <c r="V188">
-        <v>0.9997773076494824</v>
+        <v>-0.0002226923505176392</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14789,7 +14789,7 @@
         <v>0.7508201259577136</v>
       </c>
       <c r="K189">
-        <v>42.88390993603689</v>
+        <v>-0.07116090063963104</v>
       </c>
       <c r="L189">
         <v>-0.01310086442025121</v>
@@ -14819,13 +14819,13 @@
         <v>-0.125</v>
       </c>
       <c r="U189">
-        <v>0.9999165739710788</v>
+        <v>-8.342602892119633E-05</v>
       </c>
       <c r="V189">
-        <v>0.9998329435349148</v>
+        <v>-0.0001670564650851913</v>
       </c>
       <c r="W189">
-        <v>1.000417885499373</v>
+        <v>0.0004178854993730496</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14860,7 +14860,7 @@
         <v>0.6436084912820431</v>
       </c>
       <c r="K190">
-        <v>39.15826029713543</v>
+        <v>-0.1084173970286457</v>
       </c>
       <c r="L190">
         <v>-0.0129023850843149</v>
@@ -14890,13 +14890,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U190">
-        <v>0.999888756014128</v>
+        <v>-0.0001112439858720338</v>
       </c>
       <c r="V190">
-        <v>0.9998329156223893</v>
+        <v>-0.0001670843776107045</v>
       </c>
       <c r="W190">
-        <v>0.9991645781119465</v>
+        <v>-0.0008354218880535225</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14931,7 +14931,7 @@
         <v>0.5986197875583639</v>
       </c>
       <c r="K191">
-        <v>37.44603890288759</v>
+        <v>-0.1255396109711241</v>
       </c>
       <c r="L191">
         <v>-0.01287167791448595</v>
@@ -14961,13 +14961,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U191">
-        <v>0.999902650682836</v>
+        <v>-9.734931716398609E-05</v>
       </c>
       <c r="V191">
-        <v>0.9998328877005348</v>
+        <v>-0.0001671122994651997</v>
       </c>
       <c r="W191">
-        <v>0.9995819397993311</v>
+        <v>-0.0004180602006689238</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15002,7 +15002,7 @@
         <v>0.5575923039864914</v>
       </c>
       <c r="K192">
-        <v>35.7983473954894</v>
+        <v>-0.142016526045106</v>
       </c>
       <c r="L192">
         <v>-0.01304977810809359</v>
@@ -15032,13 +15032,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U192">
-        <v>0.9998609160071767</v>
+        <v>-0.0001390839928232523</v>
       </c>
       <c r="V192">
-        <v>0.9998607164744554</v>
+        <v>-0.0001392835255445979</v>
       </c>
       <c r="W192">
-        <v>0.999581764951903</v>
+        <v>-0.0004182350480970154</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15073,7 +15073,7 @@
         <v>0.5575923039864914</v>
       </c>
       <c r="K193">
-        <v>35.7983473954894</v>
+        <v>-0.142016526045106</v>
       </c>
       <c r="L193">
         <v>-0.01329570255280175</v>
@@ -15103,13 +15103,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U193">
-        <v>0.9998748069941158</v>
+        <v>-0.0001251930058842055</v>
       </c>
       <c r="V193">
-        <v>0.9999164182431114</v>
+        <v>-8.358175688860658E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15144,7 +15144,7 @@
         <v>0.5575923039864914</v>
       </c>
       <c r="K194">
-        <v>35.7983473954894</v>
+        <v>-0.142016526045106</v>
       </c>
       <c r="L194">
         <v>-0.01351879240185148</v>
@@ -15174,13 +15174,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U194">
-        <v>0.9998887033945466</v>
+        <v>-0.0001112966054533926</v>
       </c>
       <c r="V194">
-        <v>0.9998885483421567</v>
+        <v>-0.00011145165784332</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15215,7 +15215,7 @@
         <v>0.5163188357308273</v>
       </c>
       <c r="K195">
-        <v>34.05080933931515</v>
+        <v>-0.1594919066068485</v>
       </c>
       <c r="L195">
         <v>-0.01381673129718893</v>
@@ -15245,13 +15245,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U195">
-        <v>0.9998608637577915</v>
+        <v>-0.0001391362422085152</v>
       </c>
       <c r="V195">
-        <v>0.9998606698991248</v>
+        <v>-0.0001393301008751902</v>
       </c>
       <c r="W195">
-        <v>0.999581589958159</v>
+        <v>-0.0004184100418409553</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15286,7 +15286,7 @@
         <v>0.7500689561036133</v>
       </c>
       <c r="K196">
-        <v>42.85939439629745</v>
+        <v>-0.07140605603702549</v>
       </c>
       <c r="L196">
         <v>-0.01363486042021481</v>
@@ -15316,13 +15316,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U196">
-        <v>0.9998469288358242</v>
+        <v>-0.0001530711641758442</v>
       </c>
       <c r="V196">
-        <v>0.9999442601934172</v>
+        <v>-5.573980658279964E-05</v>
       </c>
       <c r="W196">
-        <v>1.001255755546254</v>
+        <v>0.001255755546253567</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15357,7 +15357,7 @@
         <v>0.6019560176044856</v>
       </c>
       <c r="K197">
-        <v>37.57631364340649</v>
+        <v>-0.1242368635659352</v>
       </c>
       <c r="L197">
         <v>-0.01358027808440712</v>
@@ -15387,13 +15387,13 @@
         <v>-0.1375000000000171</v>
       </c>
       <c r="U197">
-        <v>0.9998190700199024</v>
+        <v>-0.000180929980097555</v>
       </c>
       <c r="V197">
-        <v>0.9998885141726358</v>
+        <v>-0.0001114858273641994</v>
       </c>
       <c r="W197">
-        <v>0.9987458193979933</v>
+        <v>-0.00125418060200666</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15428,7 +15428,7 @@
         <v>0.5629512466284157</v>
       </c>
       <c r="K198">
-        <v>36.01847772557263</v>
+        <v>-0.1398152227442737</v>
       </c>
       <c r="L198">
         <v>-0.01370903858640893</v>
@@ -15458,13 +15458,13 @@
         <v>-0.1562500000000284</v>
       </c>
       <c r="U198">
-        <v>0.9997772766502409</v>
+        <v>-0.0002227233497591463</v>
       </c>
       <c r="V198">
-        <v>0.9998606271777004</v>
+        <v>-0.0001393728222995883</v>
       </c>
       <c r="W198">
-        <v>0.9995814148179155</v>
+        <v>-0.0004185851820844855</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15499,7 +15499,7 @@
         <v>0.631158312357922</v>
       </c>
       <c r="K199">
-        <v>38.69387217513857</v>
+        <v>-0.1130612782486143</v>
       </c>
       <c r="L199">
         <v>-0.01373886440526471</v>
@@ -15529,13 +15529,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U199">
-        <v>0.9998329202751245</v>
+        <v>-0.0001670797248755074</v>
       </c>
       <c r="V199">
-        <v>0.9999163646501256</v>
+        <v>-8.363534987443355E-05</v>
       </c>
       <c r="W199">
-        <v>1.000418760469012</v>
+        <v>0.0004187604690117919</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15570,7 +15570,7 @@
         <v>0.631158312357922</v>
       </c>
       <c r="K200">
-        <v>38.69387217513857</v>
+        <v>-0.1130612782486143</v>
       </c>
       <c r="L200">
         <v>-0.01365690929499329</v>
@@ -15600,13 +15600,13 @@
         <v>-0.1500000000000341</v>
       </c>
       <c r="U200">
-        <v>0.9998328923548253</v>
+        <v>-0.0001671076451746911</v>
       </c>
       <c r="V200">
-        <v>0.9998605960911144</v>
+        <v>-0.0001394039088855603</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15641,7 +15641,7 @@
         <v>0.7067340084570981</v>
       </c>
       <c r="K201">
-        <v>41.40856190567103</v>
+        <v>-0.08591438094328974</v>
       </c>
       <c r="L201">
         <v>-0.01331067423015461</v>
@@ -15671,13 +15671,13 @@
         <v>-0.1250000000000284</v>
       </c>
       <c r="U201">
-        <v>0.9998607203543274</v>
+        <v>-0.0001392796456726186</v>
       </c>
       <c r="V201">
-        <v>0.999916345992973</v>
+        <v>-8.365400702703418E-05</v>
       </c>
       <c r="W201">
-        <v>1.000418585182085</v>
+        <v>0.0004185851820845965</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15712,7 +15712,7 @@
         <v>0.9453941014018873</v>
       </c>
       <c r="K202">
-        <v>48.59653376766273</v>
+        <v>-0.01403466232337264</v>
       </c>
       <c r="L202">
         <v>-0.01232148901625164</v>
@@ -15742,13 +15742,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U202">
-        <v>0.9999303504764027</v>
+        <v>-6.964952359733712E-05</v>
       </c>
       <c r="V202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W202">
-        <v>1.001255230125523</v>
+        <v>0.001255230125523088</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15783,7 +15783,7 @@
         <v>0.809772741565899</v>
       </c>
       <c r="K203">
-        <v>44.74444348549787</v>
+        <v>-0.0525555651450213</v>
       </c>
       <c r="L203">
         <v>-0.01126504359179494</v>
@@ -15813,13 +15813,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U203">
-        <v>0.9998606912500174</v>
+        <v>-0.0001393087499825807</v>
       </c>
       <c r="V203">
-        <v>0.9999442259962632</v>
+        <v>-5.577400373679708E-05</v>
       </c>
       <c r="W203">
-        <v>0.9991642290012536</v>
+        <v>-0.0008357709987464323</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15854,7 +15854,7 @@
         <v>0.8852752890915464</v>
       </c>
       <c r="K204">
-        <v>46.95734857470773</v>
+        <v>-0.0304265142529227</v>
       </c>
       <c r="L204">
         <v>-0.01004193173195745</v>
@@ -15884,13 +15884,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U204">
-        <v>0.9998885374723085</v>
+        <v>-0.0001114625276914527</v>
       </c>
       <c r="V204">
-        <v>0.9999442228853501</v>
+        <v>-5.577711464987978E-05</v>
       </c>
       <c r="W204">
-        <v>1.000418235048097</v>
+        <v>0.0004182350480970154</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15925,7 +15925,7 @@
         <v>0.9647516549080399</v>
       </c>
       <c r="K205">
-        <v>49.10298217579031</v>
+        <v>-0.008970178242096893</v>
       </c>
       <c r="L205">
         <v>-0.008606949684033688</v>
@@ -15955,13 +15955,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U205">
-        <v>0.9999303281543928</v>
+        <v>-6.967184560724426E-05</v>
       </c>
       <c r="V205">
-        <v>1.000027890112955</v>
+        <v>2.789011295512012E-05</v>
       </c>
       <c r="W205">
-        <v>1.000418060200669</v>
+        <v>0.0004180602006689238</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15996,7 +15996,7 @@
         <v>0.9647516549080398</v>
       </c>
       <c r="K206">
-        <v>49.10298217579031</v>
+        <v>-0.008970178242096893</v>
       </c>
       <c r="L206">
         <v>-0.007103611704697291</v>
@@ -16026,13 +16026,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U206">
-        <v>0.9999442586399109</v>
+        <v>-5.574136008912323E-05</v>
       </c>
       <c r="V206">
-        <v>1.000055778670236</v>
+        <v>5.577867023642824E-05</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16067,7 +16067,7 @@
         <v>1.052814110106346</v>
       </c>
       <c r="K207">
-        <v>51.28638316168846</v>
+        <v>0.01286383161688454</v>
       </c>
       <c r="L207">
         <v>-0.005476523729885103</v>
@@ -16097,13 +16097,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U207">
-        <v>0.9999860638831596</v>
+        <v>-1.39361168404184E-05</v>
       </c>
       <c r="V207">
-        <v>1.0001115511183</v>
+        <v>0.0001115511183000795</v>
       </c>
       <c r="W207">
-        <v>1.000417885499373</v>
+        <v>0.0004178854993730496</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16138,7 +16138,7 @@
         <v>0.8881549421091781</v>
       </c>
       <c r="K208">
-        <v>47.03824470660537</v>
+        <v>-0.0296175529339463</v>
       </c>
       <c r="L208">
         <v>-0.004162594444529838</v>
@@ -16168,13 +16168,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U208">
-        <v>0.9999860636889414</v>
+        <v>-1.393631105861548E-05</v>
       </c>
       <c r="V208">
-        <v>1.000055769338018</v>
+        <v>5.576933801787476E-05</v>
       </c>
       <c r="W208">
-        <v>0.9991645781119465</v>
+        <v>-0.0008354218880535225</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16209,7 +16209,7 @@
         <v>0.8206064663264745</v>
       </c>
       <c r="K209">
-        <v>45.07324792612935</v>
+        <v>-0.04926752073870655</v>
       </c>
       <c r="L209">
         <v>-0.003259208972340265</v>
@@ -16239,13 +16239,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U209">
-        <v>0.9999581904841544</v>
+        <v>-4.180951584564774E-05</v>
       </c>
       <c r="V209">
-        <v>1.000027883113986</v>
+        <v>2.788311398616017E-05</v>
       </c>
       <c r="W209">
-        <v>0.9995819397993311</v>
+        <v>-0.0004180602006689238</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16280,7 +16280,7 @@
         <v>0.7597801968787676</v>
       </c>
       <c r="K210">
-        <v>43.17472137863302</v>
+        <v>-0.06825278621366976</v>
       </c>
       <c r="L210">
         <v>-0.00280250655349118</v>
@@ -16310,13 +16310,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U210">
-        <v>0.9999442516480607</v>
+        <v>-5.574835193933314E-05</v>
       </c>
       <c r="V210">
-        <v>1.00002788233654</v>
+        <v>2.788233653983063E-05</v>
       </c>
       <c r="W210">
-        <v>0.999581764951903</v>
+        <v>-0.0004182350480970154</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16351,7 +16351,7 @@
         <v>0.704789166044837</v>
       </c>
       <c r="K211">
-        <v>41.34172014243669</v>
+        <v>-0.08658279857563306</v>
       </c>
       <c r="L211">
         <v>-0.002787583295478839</v>
@@ -16381,13 +16381,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U211">
-        <v>0.9999303106750106</v>
+        <v>-6.968932498940816E-05</v>
       </c>
       <c r="V211">
-        <v>0.9999163553225895</v>
+        <v>-8.36446774105104E-05</v>
       </c>
       <c r="W211">
-        <v>0.999581589958159</v>
+        <v>-0.0004184100418409553</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16422,7 +16422,7 @@
         <v>0.704789166044837</v>
       </c>
       <c r="K212">
-        <v>41.34172014243669</v>
+        <v>-0.08658279857563306</v>
       </c>
       <c r="L212">
         <v>-0.003031137332084755</v>
@@ -16452,13 +16452,13 @@
         <v>0.0625</v>
       </c>
       <c r="U212">
-        <v>0.9999442446544563</v>
+        <v>-5.575534554369543E-05</v>
       </c>
       <c r="V212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16493,7 +16493,7 @@
         <v>0.8651826334476765</v>
       </c>
       <c r="K213">
-        <v>46.38594730256731</v>
+        <v>-0.0361405269743269</v>
       </c>
       <c r="L213">
         <v>-0.003100267091360008</v>
@@ -16523,13 +16523,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U213">
-        <v>0.9999721207728121</v>
+        <v>-2.787922718794356E-05</v>
       </c>
       <c r="V213">
-        <v>1.000083651674428</v>
+        <v>8.36516744278093E-05</v>
       </c>
       <c r="W213">
-        <v>1.000837170364169</v>
+        <v>0.0008371703641689709</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16564,7 +16564,7 @@
         <v>0.6903496274477713</v>
       </c>
       <c r="K214">
-        <v>40.84064126367264</v>
+        <v>-0.09159358736327355</v>
       </c>
       <c r="L214">
         <v>-0.003504776907287117</v>
@@ -16594,13 +16594,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U214">
-        <v>0.9999442399910784</v>
+        <v>-5.576000892160149E-05</v>
       </c>
       <c r="V214">
-        <v>0.9999721184408632</v>
+        <v>-2.788155913679979E-05</v>
       </c>
       <c r="W214">
-        <v>0.998745294855709</v>
+        <v>-0.001254705144291046</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16635,7 +16635,7 @@
         <v>0.7612536331621225</v>
       </c>
       <c r="K215">
-        <v>43.22226048700219</v>
+        <v>-0.0677773951299781</v>
       </c>
       <c r="L215">
         <v>-0.003921723684702712</v>
@@ -16665,13 +16665,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U215">
-        <v>0.9999302961021581</v>
+        <v>-6.970389784188846E-05</v>
       </c>
       <c r="V215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W215">
-        <v>1.000418760469012</v>
+        <v>0.0004187604690117919</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16706,7 +16706,7 @@
         <v>0.7083829110827928</v>
       </c>
       <c r="K216">
-        <v>41.46511338221076</v>
+        <v>-0.08534886617789239</v>
       </c>
       <c r="L216">
         <v>-0.004457645869197175</v>
@@ -16736,13 +16736,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U216">
-        <v>0.9999302912431859</v>
+        <v>-6.970875681411304E-05</v>
       </c>
       <c r="V216">
-        <v>0.9999442353269203</v>
+        <v>-5.576467307966126E-05</v>
       </c>
       <c r="W216">
-        <v>0.9995814148179155</v>
+        <v>-0.0004185851820844855</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16777,7 +16777,7 @@
         <v>0.7083829110827929</v>
       </c>
       <c r="K217">
-        <v>41.46511338221077</v>
+        <v>-0.08534886617789234</v>
       </c>
       <c r="L217">
         <v>-0.005015314896905291</v>
@@ -16807,13 +16807,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U217">
-        <v>0.9999302863835365</v>
+        <v>-6.971361646346264E-05</v>
       </c>
       <c r="V217">
-        <v>0.9998605805426206</v>
+        <v>-0.0001394194573793861</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16848,7 +16848,7 @@
         <v>0.7853382318686936</v>
       </c>
       <c r="K218">
-        <v>43.9882044673792</v>
+        <v>-0.06011795532620801</v>
       </c>
       <c r="L218">
         <v>-0.005380133939342209</v>
@@ -16878,13 +16878,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U218">
-        <v>0.9999442252185674</v>
+        <v>-5.577478143259373E-05</v>
       </c>
       <c r="V218">
-        <v>0.99994422444085</v>
+        <v>-5.577555915003973E-05</v>
       </c>
       <c r="W218">
-        <v>1.000418760469012</v>
+        <v>0.0004187604690117919</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16919,7 +16919,7 @@
         <v>0.67584394259752</v>
       </c>
       <c r="K219">
-        <v>40.32857269215517</v>
+        <v>-0.09671427307844832</v>
       </c>
       <c r="L219">
         <v>-0.00588986480520237</v>
@@ -16949,13 +16949,13 @@
         <v>-0.1562499999999716</v>
       </c>
       <c r="U219">
-        <v>0.9999023886882435</v>
+        <v>-9.761131175645144E-05</v>
       </c>
       <c r="V219">
-        <v>0.9998605533244087</v>
+        <v>-0.0001394466755912926</v>
       </c>
       <c r="W219">
-        <v>0.9991628296358308</v>
+        <v>-0.000837170364169193</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16990,7 +16990,7 @@
         <v>1.042746832091941</v>
       </c>
       <c r="K220">
-        <v>51.04630763392655</v>
+        <v>0.01046307633926546</v>
       </c>
       <c r="L220">
         <v>-0.00567206746532437</v>
@@ -17020,13 +17020,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V220">
-        <v>0.9999721067752643</v>
+        <v>-2.789322473573108E-05</v>
       </c>
       <c r="W220">
-        <v>1.002094679514034</v>
+        <v>0.002094679514034414</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17061,7 +17061,7 @@
         <v>1.042746832091942</v>
       </c>
       <c r="K221">
-        <v>51.04630763392655</v>
+        <v>0.01046307633926546</v>
       </c>
       <c r="L221">
         <v>-0.005006645599962937</v>
@@ -17091,13 +17091,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U221">
-        <v>1.000013945834379</v>
+        <v>1.394583437930308E-05</v>
       </c>
       <c r="V221">
-        <v>0.9999721059972106</v>
+        <v>-2.789400278935261E-05</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17132,7 +17132,7 @@
         <v>1.205363071203056</v>
       </c>
       <c r="K222">
-        <v>54.65599233714899</v>
+        <v>0.04655992337148995</v>
       </c>
       <c r="L222">
         <v>-0.003789521487007077</v>
@@ -17162,13 +17162,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U222">
-        <v>1.000055782559583</v>
+        <v>5.578255958260669E-05</v>
       </c>
       <c r="V222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W222">
-        <v>1.000836120401338</v>
+        <v>0.0008361204013378476</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17203,7 +17203,7 @@
         <v>1.110332495138694</v>
       </c>
       <c r="K223">
-        <v>52.61410217093404</v>
+        <v>0.02614102170934041</v>
       </c>
       <c r="L223">
         <v>-0.002454152559347998</v>
@@ -17233,13 +17233,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U223">
-        <v>1.000041834586047</v>
+        <v>4.1834586046674E-05</v>
       </c>
       <c r="V223">
-        <v>1.000027894780886</v>
+        <v>2.789478088649489E-05</v>
       </c>
       <c r="W223">
-        <v>0.9995822890559732</v>
+        <v>-0.0004177109440267612</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17274,7 +17274,7 @@
         <v>1.110332495138694</v>
       </c>
       <c r="K224">
-        <v>52.61410217093403</v>
+        <v>0.0261410217093403</v>
       </c>
       <c r="L224">
         <v>-0.001123291438592499</v>
@@ -17304,13 +17304,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U224">
-        <v>1.000041832835987</v>
+        <v>4.183283598746534E-05</v>
       </c>
       <c r="V224">
-        <v>1.000055788005579</v>
+        <v>5.578800557870522E-05</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17345,7 +17345,7 @@
         <v>1.197689607452856</v>
       </c>
       <c r="K225">
-        <v>54.49766897887779</v>
+        <v>0.04497668978877789</v>
       </c>
       <c r="L225">
         <v>0.000276429894603903</v>
@@ -17375,13 +17375,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U225">
-        <v>1.000069718476791</v>
+        <v>6.971847679060339E-05</v>
       </c>
       <c r="V225">
-        <v>1.000111569786902</v>
+        <v>0.000111569786901633</v>
       </c>
       <c r="W225">
-        <v>1.000417885499373</v>
+        <v>0.0004178854993730496</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17416,7 +17416,7 @@
         <v>1.096830699451194</v>
       </c>
       <c r="K226">
-        <v>52.30897753157986</v>
+        <v>0.02308977531579859</v>
       </c>
       <c r="L226">
         <v>0.001475316721943018</v>
@@ -17446,13 +17446,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U226">
-        <v>1.000013942723293</v>
+        <v>1.394272329280355E-05</v>
       </c>
       <c r="V226">
-        <v>1.000111557340473</v>
+        <v>0.0001115573404730785</v>
       </c>
       <c r="W226">
-        <v>0.9995822890559732</v>
+        <v>-0.0004177109440267612</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17487,7 +17487,7 @@
         <v>1.185474093298857</v>
       </c>
       <c r="K227">
-        <v>54.24333772401058</v>
+        <v>0.04243337724010576</v>
       </c>
       <c r="L227">
         <v>0.002623040706164458</v>
@@ -17517,13 +17517,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U227">
-        <v>1.000069712644479</v>
+        <v>6.971264447930281E-05</v>
       </c>
       <c r="V227">
-        <v>1.000139431121026</v>
+        <v>0.0001394311210261012</v>
       </c>
       <c r="W227">
-        <v>1.000417885499373</v>
+        <v>0.0004178854993730496</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17558,7 +17558,7 @@
         <v>1.084299380619844</v>
       </c>
       <c r="K228">
-        <v>52.02224741329564</v>
+        <v>0.02022247413295641</v>
       </c>
       <c r="L228">
         <v>0.003504715112840278</v>
@@ -17588,13 +17588,13 @@
         <v>0.2125000000000057</v>
       </c>
       <c r="U228">
-        <v>1.000069707784965</v>
+        <v>6.970778496540042E-05</v>
       </c>
       <c r="V228">
-        <v>1.00005576467308</v>
+        <v>5.576467307966126E-05</v>
       </c>
       <c r="W228">
-        <v>0.9995822890559732</v>
+        <v>-0.0004177109440267612</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17629,7 +17629,7 @@
         <v>1.084299380619844</v>
       </c>
       <c r="K229">
-        <v>52.02224741329564</v>
+        <v>0.02022247413295641</v>
       </c>
       <c r="L229">
         <v>0.004156230234463861</v>
@@ -17659,13 +17659,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U229">
-        <v>1.000055762340903</v>
+        <v>5.576234090320931E-05</v>
       </c>
       <c r="V229">
-        <v>1.000139403908886</v>
+        <v>0.0001394039088855603</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17700,7 +17700,7 @@
         <v>0.9906208310758318</v>
       </c>
       <c r="K230">
-        <v>49.76441598576312</v>
+        <v>-0.002355840142368837</v>
       </c>
       <c r="L230">
         <v>0.004459330811700729</v>
@@ -17730,13 +17730,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U230">
-        <v>1.000041819423728</v>
+        <v>4.181942372838421E-05</v>
       </c>
       <c r="V230">
-        <v>1.000083630686887</v>
+        <v>8.363068688654884E-05</v>
       </c>
       <c r="W230">
-        <v>0.9995821145006267</v>
+        <v>-0.0004178854993732717</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17771,7 +17771,7 @@
         <v>0.9906208310758319</v>
       </c>
       <c r="K231">
-        <v>49.76441598576312</v>
+        <v>-0.002355840142368781</v>
       </c>
       <c r="L231">
         <v>0.004515807304419889</v>
@@ -17801,13 +17801,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U231">
-        <v>1.000027878449958</v>
+        <v>2.787844995832955E-05</v>
       </c>
       <c r="V231">
-        <v>1.00011149825784</v>
+        <v>0.0001114982578398482</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17842,7 +17842,7 @@
         <v>0.9040746280993496</v>
       </c>
       <c r="K232">
-        <v>47.48105009948052</v>
+        <v>-0.02518949900519479</v>
       </c>
       <c r="L232">
         <v>0.004250553163026641</v>
@@ -17872,13 +17872,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U232">
-        <v>0.999972122327228</v>
+        <v>-2.787767277201425E-05</v>
       </c>
       <c r="V232">
-        <v>1.000083614370523</v>
+        <v>8.361437052317733E-05</v>
       </c>
       <c r="W232">
-        <v>0.9995819397993311</v>
+        <v>-0.0004180602006689238</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17913,7 +17913,7 @@
         <v>0.8279346068850902</v>
       </c>
       <c r="K233">
-        <v>45.2934477943902</v>
+        <v>-0.04706552205609799</v>
       </c>
       <c r="L233">
         <v>0.003639563956157956</v>
@@ -17943,13 +17943,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U233">
-        <v>0.9999860607750209</v>
+        <v>-1.393922497905375E-05</v>
       </c>
       <c r="V233">
-        <v>1.000027869126582</v>
+        <v>2.786912658159224E-05</v>
       </c>
       <c r="W233">
-        <v>0.999581764951903</v>
+        <v>-0.0004182350480970154</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17984,7 +17984,7 @@
         <v>0.8279346068850901</v>
       </c>
       <c r="K234">
-        <v>45.2934477943902</v>
+        <v>-0.04706552205609799</v>
       </c>
       <c r="L234">
         <v>0.002844845487601826</v>
@@ -18014,13 +18014,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U234">
-        <v>0.9999721211614324</v>
+        <v>-2.787883856758544E-05</v>
       </c>
       <c r="V234">
-        <v>1.000083605049745</v>
+        <v>8.360504974525007E-05</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18055,7 +18055,7 @@
         <v>0.8279346068850902</v>
       </c>
       <c r="K235">
-        <v>45.2934477943902</v>
+        <v>-0.04706552205609799</v>
       </c>
       <c r="L235">
         <v>0.001979127108552809</v>
@@ -18085,13 +18085,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U235">
-        <v>0.9999581805762716</v>
+        <v>-4.181942372838421E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999442679596497</v>
+        <v>-5.57320403502537E-05</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18126,7 +18126,7 @@
         <v>0.7538818573771524</v>
       </c>
       <c r="K236">
-        <v>42.98361683862488</v>
+        <v>-0.07016383161375123</v>
       </c>
       <c r="L236">
         <v>0.0009660946800593999</v>
@@ -18156,13 +18156,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U236">
-        <v>0.9999442384364458</v>
+        <v>-5.576156355424633E-05</v>
       </c>
       <c r="V236">
-        <v>0.9999163972801249</v>
+        <v>-8.36027198750644E-05</v>
       </c>
       <c r="W236">
-        <v>0.999581589958159</v>
+        <v>-0.0004184100418409553</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18197,7 +18197,7 @@
         <v>0.7538818573771524</v>
       </c>
       <c r="K237">
-        <v>42.98361683862488</v>
+        <v>-0.07016383161375123</v>
       </c>
       <c r="L237">
         <v>-7.514686898943472E-05</v>
@@ -18227,13 +18227,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U237">
-        <v>0.9999302941586505</v>
+        <v>-6.970584134946556E-05</v>
       </c>
       <c r="V237">
-        <v>0.9998606504835428</v>
+        <v>-0.0001393495164572212</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18268,7 +18268,7 @@
         <v>0.6291728288220587</v>
       </c>
       <c r="K238">
-        <v>38.61915799792522</v>
+        <v>-0.1138084200207478</v>
       </c>
       <c r="L238">
         <v>-0.00137140449029733</v>
@@ -18298,13 +18298,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U238">
-        <v>0.9999302892994074</v>
+        <v>-6.971070059258455E-05</v>
       </c>
       <c r="V238">
-        <v>0.9998327572750586</v>
+        <v>-0.0001672427249413966</v>
       </c>
       <c r="W238">
-        <v>0.9991628296358308</v>
+        <v>-0.000837170364169193</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18339,7 +18339,7 @@
         <v>0.6291728288220587</v>
       </c>
       <c r="K239">
-        <v>38.61915799792522</v>
+        <v>-0.1138084200207478</v>
       </c>
       <c r="L239">
         <v>-0.002734604611386753</v>
@@ -18369,13 +18369,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U239">
-        <v>0.9999442275515894</v>
+        <v>-5.577244841059592E-05</v>
       </c>
       <c r="V239">
-        <v>0.9998327293002509</v>
+        <v>-0.0001672706997490891</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18410,7 +18410,7 @@
         <v>0.6291728288220587</v>
       </c>
       <c r="K240">
-        <v>38.61915799792522</v>
+        <v>-0.1138084200207478</v>
       </c>
       <c r="L240">
         <v>-0.004041605880934527</v>
@@ -18440,13 +18440,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U240">
-        <v>0.9999581683306377</v>
+        <v>-4.183166936233551E-05</v>
       </c>
       <c r="V240">
-        <v>0.9998048182020968</v>
+        <v>-0.0001951817979032322</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18481,7 +18481,7 @@
         <v>0.573816552945125</v>
       </c>
       <c r="K241">
-        <v>36.46019301749793</v>
+        <v>-0.1353980698250207</v>
       </c>
       <c r="L241">
         <v>-0.005368921511919252</v>
@@ -18511,13 +18511,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U241">
-        <v>0.9999581665806757</v>
+        <v>-4.183341932428863E-05</v>
       </c>
       <c r="V241">
-        <v>0.9998047800987254</v>
+        <v>-0.0001952199012745792</v>
       </c>
       <c r="W241">
-        <v>0.9995810640971932</v>
+        <v>-0.0004189359028068385</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18552,7 +18552,7 @@
         <v>0.573816552945125</v>
       </c>
       <c r="K242">
-        <v>36.46019301749793</v>
+        <v>-0.1353980698250207</v>
       </c>
       <c r="L242">
         <v>-0.006604529215598054</v>
@@ -18582,13 +18582,13 @@
         <v>-0.2125000000000341</v>
       </c>
       <c r="U242">
-        <v>0.9999581648305677</v>
+        <v>-4.183516943234711E-05</v>
       </c>
       <c r="V242">
-        <v>0.999776847977685</v>
+        <v>-0.0002231520223150429</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18623,7 +18623,7 @@
         <v>0.5228455572502476</v>
       </c>
       <c r="K243">
-        <v>34.33345914567546</v>
+        <v>-0.1566654085432454</v>
       </c>
       <c r="L243">
         <v>-0.00783420845724727</v>
@@ -18653,13 +18653,13 @@
         <v>-0.2187500000000284</v>
       </c>
       <c r="U243">
-        <v>0.999916326160626</v>
+        <v>-8.367383937402106E-05</v>
       </c>
       <c r="V243">
-        <v>0.999776798169745</v>
+        <v>-0.0002232018302550376</v>
       </c>
       <c r="W243">
-        <v>0.9995808885163454</v>
+        <v>-0.0004191114836545884</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18694,7 +18694,7 @@
         <v>0.4083105400300842</v>
       </c>
       <c r="K244">
-        <v>28.99293361969455</v>
+        <v>-0.2100706638030544</v>
       </c>
       <c r="L244">
         <v>-0.009410494331246105</v>
@@ -18724,13 +18724,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U244">
-        <v>0.9999163191587285</v>
+        <v>-8.368084127152731E-05</v>
       </c>
       <c r="V244">
-        <v>0.9996930289669028</v>
+        <v>-0.0003069710330971809</v>
       </c>
       <c r="W244">
-        <v>0.9987421383647799</v>
+        <v>-0.001257861635220126</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18765,7 +18765,7 @@
         <v>0.4851740129680037</v>
       </c>
       <c r="K245">
-        <v>32.66782267475995</v>
+        <v>-0.1733217732524006</v>
       </c>
       <c r="L245">
         <v>-0.01091002672541891</v>
@@ -18795,13 +18795,13 @@
         <v>-0.25</v>
       </c>
       <c r="U245">
-        <v>0.9999163121556595</v>
+        <v>-8.368784434054088E-05</v>
       </c>
       <c r="V245">
-        <v>0.9997487647600705</v>
+        <v>-0.000251235239929537</v>
       </c>
       <c r="W245">
-        <v>1.000419815281276</v>
+        <v>0.0004198152812764366</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18836,7 +18836,7 @@
         <v>0.4488574425584508</v>
       </c>
       <c r="K246">
-        <v>30.98009710091561</v>
+        <v>-0.1901990289908438</v>
       </c>
       <c r="L246">
         <v>-0.01238036917824648</v>
@@ -18866,13 +18866,13 @@
         <v>-0.25</v>
       </c>
       <c r="U246">
-        <v>0.9999163051514179</v>
+        <v>-8.3694848582061E-05</v>
       </c>
       <c r="V246">
-        <v>0.999720779583403</v>
+        <v>-0.0002792204165970036</v>
       </c>
       <c r="W246">
-        <v>0.9995803608896349</v>
+        <v>-0.0004196391103651331</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18907,7 +18907,7 @@
         <v>0.6852342959989176</v>
       </c>
       <c r="K247">
-        <v>40.66106995483065</v>
+        <v>-0.09338930045169347</v>
       </c>
       <c r="L247">
         <v>-0.01323746891229089</v>
@@ -18937,13 +18937,13 @@
         <v>-0.2312500000000171</v>
       </c>
       <c r="U247">
-        <v>0.999958149073002</v>
+        <v>-4.185092699804382E-05</v>
       </c>
       <c r="V247">
-        <v>0.9998324209585522</v>
+        <v>-0.0001675790414478184</v>
       </c>
       <c r="W247">
-        <v>1.001259445843829</v>
+        <v>0.001259445843828866</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18978,7 +18978,7 @@
         <v>0.6852342959989176</v>
       </c>
       <c r="K248">
-        <v>40.66106995483065</v>
+        <v>-0.09338930045169347</v>
       </c>
       <c r="L248">
         <v>-0.01362028104898124</v>
@@ -19008,13 +19008,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U248">
-        <v>0.9999441964285715</v>
+        <v>-5.580357142853654E-05</v>
       </c>
       <c r="V248">
-        <v>0.9998603273925918</v>
+        <v>-0.0001396726074082144</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19049,7 +19049,7 @@
         <v>0.8598432366751463</v>
       </c>
       <c r="K249">
-        <v>46.23202750207558</v>
+        <v>-0.03767972497924421</v>
       </c>
       <c r="L249">
         <v>-0.01333698116175543</v>
@@ -19079,13 +19079,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U249">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V249">
-        <v>0.9999161847288576</v>
+        <v>-8.381527114242893E-05</v>
       </c>
       <c r="W249">
-        <v>1.00083857442348</v>
+        <v>0.0008385744234800097</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19120,7 +19120,7 @@
         <v>0.8598432366751463</v>
       </c>
       <c r="K250">
-        <v>46.23202750207558</v>
+        <v>-0.03767972497924421</v>
       </c>
       <c r="L250">
         <v>-0.01261947382801773</v>
@@ -19150,13 +19150,13 @@
         <v>-0.1562500000000284</v>
       </c>
       <c r="U250">
-        <v>0.9999302416429487</v>
+        <v>-6.975835705125277E-05</v>
       </c>
       <c r="V250">
-        <v>0.9999161777032691</v>
+        <v>-8.382229673087327E-05</v>
       </c>
       <c r="W250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19191,7 +19191,7 @@
         <v>0.8598432366751462</v>
       </c>
       <c r="K251">
-        <v>46.23202750207558</v>
+        <v>-0.03767972497924421</v>
       </c>
       <c r="L251">
         <v>-0.01163855494634877</v>
@@ -19221,13 +19221,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U251">
-        <v>0.9999302367763812</v>
+        <v>-6.976322361884613E-05</v>
       </c>
       <c r="V251">
-        <v>0.999944113784335</v>
+        <v>-5.588621566499086E-05</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19262,7 +19262,7 @@
         <v>0.8598432366751463</v>
       </c>
       <c r="K252">
-        <v>46.23202750207558</v>
+        <v>-0.03767972497924421</v>
       </c>
       <c r="L252">
         <v>-0.01051808278827122</v>
@@ -19292,13 +19292,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U252">
-        <v>0.9999023246727876</v>
+        <v>-9.767532721238759E-05</v>
       </c>
       <c r="V252">
-        <v>0.9999441106608915</v>
+        <v>-5.58893391084947E-05</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19333,7 +19333,7 @@
         <v>0.9670302230710631</v>
       </c>
       <c r="K253">
-        <v>49.16194025535962</v>
+        <v>-0.008380597446403737</v>
       </c>
       <c r="L253">
         <v>-0.00919361982519579</v>
@@ -19363,13 +19363,13 @@
         <v>0.03125</v>
       </c>
       <c r="U253">
-        <v>0.9999302250938473</v>
+        <v>-6.977490615267534E-05</v>
       </c>
       <c r="V253">
-        <v>1.000027946231451</v>
+        <v>2.794623145074837E-05</v>
       </c>
       <c r="W253">
-        <v>1.000418935902807</v>
+        <v>0.0004189359028070605</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19404,7 +19404,7 @@
         <v>0.967030223071063</v>
       </c>
       <c r="K254">
-        <v>49.16194025535962</v>
+        <v>-0.008380597446403848</v>
       </c>
       <c r="L254">
         <v>-0.007796398781305235</v>
@@ -19434,13 +19434,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U254">
-        <v>0.9999302202249698</v>
+        <v>-6.977977503019872E-05</v>
       </c>
       <c r="V254">
-        <v>1.000027945450481</v>
+        <v>2.794545048057095E-05</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19475,7 +19475,7 @@
         <v>0.7129912687525014</v>
       </c>
       <c r="K255">
-        <v>41.62258627691328</v>
+        <v>-0.08377413723086718</v>
       </c>
       <c r="L255">
         <v>-0.00687318640752807</v>
@@ -19505,13 +19505,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U255">
-        <v>0.9998743876397439</v>
+        <v>-0.0001256123602560999</v>
       </c>
       <c r="V255">
-        <v>0.9999441106608915</v>
+        <v>-5.58893391084947E-05</v>
       </c>
       <c r="W255">
-        <v>0.9987437185929647</v>
+        <v>-0.001256281407035265</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19546,7 +19546,7 @@
         <v>0.8051667489731817</v>
       </c>
       <c r="K256">
-        <v>44.60345557723009</v>
+        <v>-0.05396544422769906</v>
       </c>
       <c r="L256">
         <v>-0.006118504561594071</v>
@@ -19576,13 +19576,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U256">
-        <v>0.9999022892238972</v>
+        <v>-9.771077610276624E-05</v>
       </c>
       <c r="V256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W256">
-        <v>1.00041928721174</v>
+        <v>0.0004192872117401159</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19617,7 +19617,7 @@
         <v>0.6743137161244233</v>
       </c>
       <c r="K257">
-        <v>40.27403643836082</v>
+        <v>-0.09725963561639184</v>
       </c>
       <c r="L257">
         <v>-0.005796788319255664</v>
@@ -19647,13 +19647,13 @@
         <v>0.1062499999999602</v>
       </c>
       <c r="U257">
-        <v>0.9998603995365264</v>
+        <v>-0.0001396004634736103</v>
       </c>
       <c r="V257">
-        <v>0.9999441075370985</v>
+        <v>-5.589246290149674E-05</v>
       </c>
       <c r="W257">
-        <v>0.9991617770326907</v>
+        <v>-0.0008382229673092878</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19688,7 +19688,7 @@
         <v>0.6743137161244234</v>
       </c>
       <c r="K258">
-        <v>40.27403643836082</v>
+        <v>-0.09725963561639178</v>
       </c>
       <c r="L258">
         <v>-0.005736836168304008</v>
@@ -19718,13 +19718,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U258">
-        <v>0.9998743420409646</v>
+        <v>-0.0001256579590354079</v>
       </c>
       <c r="V258">
-        <v>0.9999720522064783</v>
+        <v>-2.794779352166543E-05</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19759,7 +19759,7 @@
         <v>0.5309093474864238</v>
       </c>
       <c r="K259">
-        <v>34.67934586447693</v>
+        <v>-0.1532065413552307</v>
       </c>
       <c r="L259">
         <v>-0.006276064512314176</v>
@@ -19789,13 +19789,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U259">
-        <v>0.9998324349987432</v>
+        <v>-0.0001675650012568086</v>
       </c>
       <c r="V259">
-        <v>0.9999720514253774</v>
+        <v>-2.794857462262712E-05</v>
       </c>
       <c r="W259">
-        <v>0.998741610738255</v>
+        <v>-0.001258389261745041</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19830,7 +19830,7 @@
         <v>0.5309093474864239</v>
       </c>
       <c r="K260">
-        <v>34.67934586447693</v>
+        <v>-0.1532065413552307</v>
       </c>
       <c r="L260">
         <v>-0.007121222509999306</v>
@@ -19860,13 +19860,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U260">
-        <v>0.9998463730063407</v>
+        <v>-0.0001536269936592838</v>
       </c>
       <c r="V260">
-        <v>0.9999441012884652</v>
+        <v>-5.589871153477421E-05</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19901,7 +19901,7 @@
         <v>0.5309093474864238</v>
       </c>
       <c r="K261">
-        <v>34.67934586447693</v>
+        <v>-0.1532065413552307</v>
       </c>
       <c r="L261">
         <v>-0.00807208002743369</v>
@@ -19931,13 +19931,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U261">
-        <v>0.999846349401461</v>
+        <v>-0.0001536505985390013</v>
       </c>
       <c r="V261">
-        <v>0.9999720490818124</v>
+        <v>-2.795091818763584E-05</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19972,7 +19972,7 @@
         <v>0.4903652184285672</v>
       </c>
       <c r="K262">
-        <v>32.90235254856562</v>
+        <v>-0.1709764745143438</v>
       </c>
       <c r="L262">
         <v>-0.009149704901431835</v>
@@ -20002,13 +20002,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U262">
-        <v>0.9998463257893268</v>
+        <v>-0.0001536742106732492</v>
       </c>
       <c r="V262">
-        <v>0.9998602415026834</v>
+        <v>-0.0001397584973166222</v>
       </c>
       <c r="W262">
-        <v>0.9995800083998321</v>
+        <v>-0.0004199916001679238</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20043,7 +20043,7 @@
         <v>0.4903652184285672</v>
       </c>
       <c r="K263">
-        <v>32.90235254856562</v>
+        <v>-0.1709764745143438</v>
       </c>
       <c r="L263">
         <v>-0.01020233125663549</v>
@@ -20073,13 +20073,13 @@
         <v>-0.2312500000000171</v>
       </c>
       <c r="U263">
-        <v>0.9998602746999399</v>
+        <v>-0.0001397253000601228</v>
       </c>
       <c r="V263">
-        <v>0.9998602219675156</v>
+        <v>-0.0001397780324844389</v>
       </c>
       <c r="W263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20114,7 +20114,7 @@
         <v>0.4903652184285672</v>
       </c>
       <c r="K264">
-        <v>32.90235254856562</v>
+        <v>-0.1709764745143438</v>
       </c>
       <c r="L264">
         <v>-0.01113576608990232</v>
@@ -20144,13 +20144,13 @@
         <v>-0.2750000000000057</v>
       </c>
       <c r="U264">
-        <v>0.9998602551740522</v>
+        <v>-0.0001397448259478073</v>
       </c>
       <c r="V264">
-        <v>0.9998042833976403</v>
+        <v>-0.0001957166023597301</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20185,7 +20185,7 @@
         <v>0.4903652184285672</v>
       </c>
       <c r="K265">
-        <v>32.90235254856562</v>
+        <v>-0.1709764745143438</v>
       </c>
       <c r="L265">
         <v>-0.01189712283166674</v>
@@ -20215,13 +20215,13 @@
         <v>-0.2812500000000284</v>
       </c>
       <c r="U265">
-        <v>0.9998602356427063</v>
+        <v>-0.0001397643572936813</v>
       </c>
       <c r="V265">
-        <v>0.9998042450851533</v>
+        <v>-0.0001957549148466908</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20256,7 +20256,7 @@
         <v>0.4483302057634112</v>
       </c>
       <c r="K266">
-        <v>30.954971730849</v>
+        <v>-0.19045028269151</v>
       </c>
       <c r="L266">
         <v>-0.01261516560414602</v>
@@ -20286,13 +20286,13 @@
         <v>-0.2937499999999886</v>
       </c>
       <c r="U266">
-        <v>0.9998602161059001</v>
+        <v>-0.0001397838940998541</v>
       </c>
       <c r="V266">
-        <v>0.9997762362944731</v>
+        <v>-0.0002237637055269026</v>
       </c>
       <c r="W266">
-        <v>0.9995798319327731</v>
+        <v>-0.0004201680672268893</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20327,7 +20327,7 @@
         <v>0.4483302057634112</v>
       </c>
       <c r="K267">
-        <v>30.954971730849</v>
+        <v>-0.19045028269151</v>
       </c>
       <c r="L267">
         <v>-0.01321545637084993</v>
@@ -20357,13 +20357,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U267">
-        <v>0.9998601965636316</v>
+        <v>-0.0001398034363684353</v>
       </c>
       <c r="V267">
-        <v>0.9997761862130705</v>
+        <v>-0.0002238137869294832</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20398,7 +20398,7 @@
         <v>0.3489092289661014</v>
       </c>
       <c r="K268">
-        <v>25.8660272666034</v>
+        <v>-0.241339727333966</v>
       </c>
       <c r="L268">
         <v>-0.01411621219800395</v>
@@ -20428,13 +20428,13 @@
         <v>-0.2625000000000171</v>
       </c>
       <c r="U268">
-        <v>0.9998461947174878</v>
+        <v>-0.0001538052825121872</v>
       </c>
       <c r="V268">
-        <v>0.9996642041638685</v>
+        <v>-0.000335795836131525</v>
       </c>
       <c r="W268">
-        <v>0.9987389659520807</v>
+        <v>-0.001261034047919329</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20469,7 +20469,7 @@
         <v>0.3489092289661014</v>
       </c>
       <c r="K269">
-        <v>25.8660272666034</v>
+        <v>-0.241339727333966</v>
       </c>
       <c r="L269">
         <v>-0.01509054964785437</v>
@@ -20499,13 +20499,13 @@
         <v>-0.25</v>
       </c>
       <c r="U269">
-        <v>0.9998461710577837</v>
+        <v>-0.000153828942216272</v>
       </c>
       <c r="V269">
-        <v>0.9996640913671481</v>
+        <v>-0.0003359086328519334</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20540,7 +20540,7 @@
         <v>0.2997990216623866</v>
       </c>
       <c r="K270">
-        <v>23.06502902879221</v>
+        <v>-0.2693497097120779</v>
       </c>
       <c r="L270">
         <v>-0.0162981865473594</v>
@@ -20570,13 +20570,13 @@
         <v>-0.2374999999999829</v>
       </c>
       <c r="U270">
-        <v>0.9998181741891268</v>
+        <v>-0.0001818258108732262</v>
       </c>
       <c r="V270">
-        <v>0.9996919802867384</v>
+        <v>-0.0003080197132615536</v>
       </c>
       <c r="W270">
-        <v>0.9991582491582492</v>
+        <v>-0.0008417508417507547</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20611,7 +20611,7 @@
         <v>0.2791214771618386</v>
       </c>
       <c r="K271">
-        <v>21.82134239362188</v>
+        <v>-0.2817865760637812</v>
       </c>
       <c r="L271">
         <v>-0.01766406486622945</v>
@@ -20641,13 +20641,13 @@
         <v>-0.25</v>
       </c>
       <c r="U271">
-        <v>0.999818141122489</v>
+        <v>-0.0001818588775109875</v>
       </c>
       <c r="V271">
-        <v>0.9996358645416096</v>
+        <v>-0.0003641354583904244</v>
       </c>
       <c r="W271">
-        <v>0.9995787700084247</v>
+        <v>-0.0004212299915753448</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20682,7 +20682,7 @@
         <v>0.4969257534634214</v>
       </c>
       <c r="K272">
-        <v>33.19641954944589</v>
+        <v>-0.1680358045055411</v>
       </c>
       <c r="L272">
         <v>-0.01851665396010435</v>
@@ -20712,13 +20712,13 @@
         <v>-0.2374999999999829</v>
       </c>
       <c r="U272">
-        <v>0.9998600831106321</v>
+        <v>-0.0001399168893678748</v>
       </c>
       <c r="V272">
-        <v>0.9997758350145707</v>
+        <v>-0.0002241649854293204</v>
       </c>
       <c r="W272">
-        <v>1.00126422250316</v>
+        <v>0.001264222503160495</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20753,7 +20753,7 @@
         <v>0.5733483065516961</v>
       </c>
       <c r="K273">
-        <v>36.44128284653653</v>
+        <v>-0.1355871715346347</v>
       </c>
       <c r="L273">
         <v>-0.01878388240225764</v>
@@ -20783,13 +20783,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U273">
-        <v>0.9998880508249256</v>
+        <v>-0.0001119491750743995</v>
       </c>
       <c r="V273">
-        <v>0.9998038116591927</v>
+        <v>-0.0001961883408072573</v>
       </c>
       <c r="W273">
-        <v>1.000420875420875</v>
+        <v>0.0004208754208754328</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20824,7 +20824,7 @@
         <v>0.5733483065516962</v>
       </c>
       <c r="K274">
-        <v>36.44128284653653</v>
+        <v>-0.1355871715346347</v>
       </c>
       <c r="L274">
         <v>-0.01861105996810154</v>
@@ -20854,13 +20854,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U274">
-        <v>0.9999300239318153</v>
+        <v>-6.997606818470725E-05</v>
       </c>
       <c r="V274">
-        <v>0.9998878703781572</v>
+        <v>-0.0001121296218428158</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20895,7 +20895,7 @@
         <v>0.6580270357354041</v>
       </c>
       <c r="K275">
-        <v>39.68735259154213</v>
+        <v>-0.1031264740845787</v>
       </c>
       <c r="L275">
         <v>-0.01796200749862259</v>
@@ -20925,13 +20925,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U275">
-        <v>0.9999300190348226</v>
+        <v>-6.998096517740748E-05</v>
       </c>
       <c r="V275">
-        <v>0.9999158933527714</v>
+        <v>-8.410664722857675E-05</v>
       </c>
       <c r="W275">
-        <v>1.000420698359276</v>
+        <v>0.0004206983592764946</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20966,7 +20966,7 @@
         <v>0.7471625401392817</v>
       </c>
       <c r="K276">
-        <v>42.7643406365454</v>
+        <v>-0.072356593634546</v>
       </c>
       <c r="L276">
         <v>-0.01684738182358094</v>
@@ -20996,13 +20996,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U276">
-        <v>0.9999580084822864</v>
+        <v>-4.199151771355769E-05</v>
       </c>
       <c r="V276">
-        <v>0.9999439241854988</v>
+        <v>-5.607581450117749E-05</v>
       </c>
       <c r="W276">
-        <v>1.000420521446594</v>
+        <v>0.000420521446593769</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21037,7 +21037,7 @@
         <v>0.8409893868802055</v>
       </c>
       <c r="K277">
-        <v>45.68138159152404</v>
+        <v>-0.04318618408475955</v>
       </c>
       <c r="L277">
         <v>-0.01530726910489201</v>
@@ -21067,13 +21067,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U277">
-        <v>0.9999300111982083</v>
+        <v>-6.99888017916539E-05</v>
       </c>
       <c r="V277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W277">
-        <v>1.00042034468264</v>
+        <v>0.0004203446826398505</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21108,7 +21108,7 @@
         <v>0.8409893868802056</v>
       </c>
       <c r="K278">
-        <v>45.68138159152404</v>
+        <v>-0.04318618408475955</v>
       </c>
       <c r="L278">
         <v>-0.01355155309903375</v>
@@ -21138,13 +21138,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U278">
-        <v>0.999930006299433</v>
+        <v>-6.999370056703924E-05</v>
       </c>
       <c r="V278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21179,7 +21179,7 @@
         <v>0.6410518550554557</v>
       </c>
       <c r="K279">
-        <v>39.06347341070419</v>
+        <v>-0.1093652658929581</v>
       </c>
       <c r="L279">
         <v>-0.01218645270314634</v>
@@ -21209,13 +21209,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U279">
-        <v>0.999860002799944</v>
+        <v>-0.0001399972000559746</v>
       </c>
       <c r="V279">
-        <v>0.999915881561238</v>
+        <v>-8.41184387619931E-05</v>
       </c>
       <c r="W279">
-        <v>0.9987394957983193</v>
+        <v>-0.001260504201680668</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21250,7 +21250,7 @@
         <v>0.6410518550554557</v>
       </c>
       <c r="K280">
-        <v>39.06347341070419</v>
+        <v>-0.1093652658929581</v>
       </c>
       <c r="L280">
         <v>-0.01110069571718202</v>
@@ -21280,13 +21280,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U280">
-        <v>0.9998599831979837</v>
+        <v>-0.0001400168020162518</v>
       </c>
       <c r="V280">
-        <v>0.9999158744847313</v>
+        <v>-8.412551526870704E-05</v>
       </c>
       <c r="W280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21321,7 +21321,7 @@
         <v>0.5452899391071622</v>
       </c>
       <c r="K281">
-        <v>35.28722509008374</v>
+        <v>-0.1471277490991627</v>
       </c>
       <c r="L281">
         <v>-0.01051897452656246</v>
@@ -21351,13 +21351,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U281">
-        <v>0.9998319563086402</v>
+        <v>-0.0001680436913598093</v>
       </c>
       <c r="V281">
-        <v>0.999887823209378</v>
+        <v>-0.0001121767906220317</v>
       </c>
       <c r="W281">
-        <v>0.9991586032814472</v>
+        <v>-0.0008413967185527671</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21392,7 +21392,7 @@
         <v>0.4711967414003575</v>
       </c>
       <c r="K282">
-        <v>32.02812568439006</v>
+        <v>-0.1797187431560994</v>
       </c>
       <c r="L282">
         <v>-0.0105475381358874</v>
@@ -21422,13 +21422,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U282">
-        <v>0.9998039160760807</v>
+        <v>-0.0001960839239193435</v>
       </c>
       <c r="V282">
-        <v>0.9998317159365008</v>
+        <v>-0.0001682840634992244</v>
       </c>
       <c r="W282">
-        <v>0.9991578947368421</v>
+        <v>-0.0008421052631578663</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21463,7 +21463,7 @@
         <v>0.3470870560009042</v>
       </c>
       <c r="K283">
-        <v>25.76574798597657</v>
+        <v>-0.2423425201402343</v>
       </c>
       <c r="L283">
         <v>-0.01167093638642493</v>
@@ -21493,13 +21493,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U283">
-        <v>0.9997198251709066</v>
+        <v>-0.0002801748290933714</v>
       </c>
       <c r="V283">
-        <v>0.9997755834829444</v>
+        <v>-0.0002244165170556256</v>
       </c>
       <c r="W283">
-        <v>0.9978929624947324</v>
+        <v>-0.002107037505267639</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21534,7 +21534,7 @@
         <v>0.3288518737793482</v>
       </c>
       <c r="K284">
-        <v>24.74706777092246</v>
+        <v>-0.2525293222907754</v>
       </c>
       <c r="L284">
         <v>-0.01349707942524762</v>
@@ -21564,13 +21564,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U284">
-        <v>0.9997057339835211</v>
+        <v>-0.0002942660164788613</v>
       </c>
       <c r="V284">
-        <v>0.9997474747474747</v>
+        <v>-0.0002525252525252819</v>
       </c>
       <c r="W284">
-        <v>0.9995777027027026</v>
+        <v>-0.0004222972972973693</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21605,7 +21605,7 @@
         <v>0.3841547965544905</v>
       </c>
       <c r="K285">
-        <v>27.75374528273488</v>
+        <v>-0.2224625471726512</v>
       </c>
       <c r="L285">
         <v>-0.01543098577011821</v>
@@ -21635,13 +21635,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U285">
-        <v>0.9997617145340119</v>
+        <v>-0.0002382854659881417</v>
       </c>
       <c r="V285">
-        <v>0.9998316073082428</v>
+        <v>-0.0001683926917571688</v>
       </c>
       <c r="W285">
-        <v>1.000422475707647</v>
+        <v>0.0004224757076469743</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21676,7 +21676,7 @@
         <v>0.2975480704413087</v>
       </c>
       <c r="K286">
-        <v>22.93156432656168</v>
+        <v>-0.2706843567343832</v>
       </c>
       <c r="L286">
         <v>-0.01801670082485428</v>
@@ -21706,13 +21706,13 @@
         <v>-0.3250000000000171</v>
       </c>
       <c r="U286">
-        <v>0.9996775369430502</v>
+        <v>-0.0003224630569498288</v>
       </c>
       <c r="V286">
-        <v>0.999719298245614</v>
+        <v>-0.0002807017543859924</v>
       </c>
       <c r="W286">
-        <v>0.9978885135135135</v>
+        <v>-0.002111486486486513</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21747,7 +21747,7 @@
         <v>0.2840655727455495</v>
       </c>
       <c r="K287">
-        <v>22.12235720471574</v>
+        <v>-0.2787764279528426</v>
       </c>
       <c r="L287">
         <v>-0.02092102727487512</v>
@@ -21777,13 +21777,13 @@
         <v>-0.4437499999999943</v>
       </c>
       <c r="U287">
-        <v>0.9996914575824299</v>
+        <v>-0.0003085424175700568</v>
       </c>
       <c r="V287">
-        <v>0.9996069072020216</v>
+        <v>-0.0003930927979783894</v>
       </c>
       <c r="W287">
-        <v>0.9995768091409225</v>
+        <v>-0.0004231908590774935</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21818,7 +21818,7 @@
         <v>0.3794592536159391</v>
       </c>
       <c r="K288">
-        <v>27.50782617328296</v>
+        <v>-0.2249217382671704</v>
       </c>
       <c r="L288">
         <v>-0.0234519613226937</v>
@@ -21848,13 +21848,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U288">
-        <v>0.9997194203223859</v>
+        <v>-0.000280579677614079</v>
       </c>
       <c r="V288">
-        <v>0.9996348417179294</v>
+        <v>-0.0003651582820706212</v>
       </c>
       <c r="W288">
-        <v>1.000846740050805</v>
+        <v>0.0008467400508045397</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21889,7 +21889,7 @@
         <v>0.4296664540740318</v>
       </c>
       <c r="K289">
-        <v>30.05361515265592</v>
+        <v>-0.1994638484734408</v>
       </c>
       <c r="L289">
         <v>-0.0253576604284117</v>
@@ -21919,13 +21919,13 @@
         <v>-0.5812500000000114</v>
       </c>
       <c r="U289">
-        <v>0.9997754732602686</v>
+        <v>-0.0002245267397313899</v>
       </c>
       <c r="V289">
-        <v>0.9996628076879847</v>
+        <v>-0.0003371923120153442</v>
       </c>
       <c r="W289">
-        <v>1.000423011844332</v>
+        <v>0.0004230118443315778</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21960,7 +21960,7 @@
         <v>0.4080985731590247</v>
       </c>
       <c r="K290">
-        <v>28.98224463387308</v>
+        <v>-0.2101775536612692</v>
       </c>
       <c r="L290">
         <v>-0.02682459393967478</v>
@@ -21990,13 +21990,13 @@
         <v>-0.6125000000000398</v>
       </c>
       <c r="U290">
-        <v>0.9997613867639835</v>
+        <v>-0.0002386132360164828</v>
       </c>
       <c r="V290">
-        <v>0.9996064762761412</v>
+        <v>-0.000393523723858813</v>
       </c>
       <c r="W290">
-        <v>0.9995771670190275</v>
+        <v>-0.000422832980972454</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22031,7 +22031,7 @@
         <v>0.7251309920529894</v>
       </c>
       <c r="K291">
-        <v>42.03338734237499</v>
+        <v>-0.07966612657625005</v>
       </c>
       <c r="L291">
         <v>-0.02691559058424762</v>
@@ -22061,13 +22061,13 @@
         <v>-0.5375000000000227</v>
       </c>
       <c r="U291">
-        <v>0.9998455663503115</v>
+        <v>-0.0001544336496884791</v>
       </c>
       <c r="V291">
-        <v>0.9997469208705922</v>
+        <v>-0.0002530791294077517</v>
       </c>
       <c r="W291">
-        <v>1.00253807106599</v>
+        <v>0.002538071065989911</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22102,7 +22102,7 @@
         <v>0.8363704372789366</v>
       </c>
       <c r="K292">
-        <v>45.54475612873829</v>
+        <v>-0.04455243871261705</v>
       </c>
       <c r="L292">
         <v>-0.02576217699722401</v>
@@ -22132,13 +22132,13 @@
         <v>-0.4312500000000057</v>
       </c>
       <c r="U292">
-        <v>0.9998876672704551</v>
+        <v>-0.0001123327295449172</v>
       </c>
       <c r="V292">
-        <v>0.9997749838269625</v>
+        <v>-0.0002250161730374955</v>
       </c>
       <c r="W292">
-        <v>1.00084388185654</v>
+        <v>0.0008438818565399409</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22173,7 +22173,7 @@
         <v>0.8949175137136622</v>
       </c>
       <c r="K293">
-        <v>47.22725433888684</v>
+        <v>-0.02772745661113157</v>
       </c>
       <c r="L293">
         <v>-0.02368053004817426</v>
@@ -22203,13 +22203,13 @@
         <v>-0.3250000000000171</v>
       </c>
       <c r="U293">
-        <v>0.999901697819096</v>
+        <v>-9.830218090400855E-05</v>
       </c>
       <c r="V293">
-        <v>0.9998030665353778</v>
+        <v>-0.0001969334646222398</v>
       </c>
       <c r="W293">
-        <v>1.000421585160203</v>
+        <v>0.00042158516020252</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22244,7 +22244,7 @@
         <v>0.8429667368957996</v>
       </c>
       <c r="K294">
-        <v>45.73966095099743</v>
+        <v>-0.04260339049002565</v>
       </c>
       <c r="L294">
         <v>-0.02123565836441756</v>
@@ -22274,13 +22274,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U294">
-        <v>0.9998876436055166</v>
+        <v>-0.0001123563944833705</v>
       </c>
       <c r="V294">
-        <v>0.9998593055321064</v>
+        <v>-0.000140694467893554</v>
       </c>
       <c r="W294">
-        <v>0.9995785924989464</v>
+        <v>-0.0004214075010535723</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22315,7 +22315,7 @@
         <v>0.7944225747148527</v>
       </c>
       <c r="K295">
-        <v>44.27176663451709</v>
+        <v>-0.05728233365482915</v>
       </c>
       <c r="L295">
         <v>-0.01880224574689294</v>
@@ -22345,13 +22345,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U295">
-        <v>0.9998735848526561</v>
+        <v>-0.0001264151473439057</v>
       </c>
       <c r="V295">
-        <v>0.9998311428812652</v>
+        <v>-0.000168857118734822</v>
       </c>
       <c r="W295">
-        <v>0.9995784148397977</v>
+        <v>-0.000421585160202298</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22386,7 +22386,7 @@
         <v>0.7944225747148528</v>
       </c>
       <c r="K296">
-        <v>44.27176663451709</v>
+        <v>-0.0572823336548291</v>
       </c>
       <c r="L296">
         <v>-0.01646222818365403</v>
@@ -22416,13 +22416,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U296">
-        <v>0.9998876167731966</v>
+        <v>-0.0001123832268034031</v>
       </c>
       <c r="V296">
-        <v>0.9998874095758156</v>
+        <v>-0.0001125904241844333</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22457,7 +22457,7 @@
         <v>0.8582311960976187</v>
       </c>
       <c r="K297">
-        <v>46.18538306212641</v>
+        <v>-0.03814616937873588</v>
       </c>
       <c r="L297">
         <v>-0.01411440434344842</v>
@@ -22487,13 +22487,13 @@
         <v>0.21875</v>
       </c>
       <c r="U297">
-        <v>0.9999016536240639</v>
+        <v>-9.834637593608697E-05</v>
       </c>
       <c r="V297">
-        <v>0.9999718492244463</v>
+        <v>-2.815077555373691E-05</v>
       </c>
       <c r="W297">
-        <v>1.000421762969211</v>
+        <v>0.00042176296921137</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22528,7 +22528,7 @@
         <v>0.7142992478982485</v>
       </c>
       <c r="K298">
-        <v>41.66712718179093</v>
+        <v>-0.08332872818209069</v>
       </c>
       <c r="L298">
         <v>-0.01232039103626035</v>
@@ -22558,13 +22558,13 @@
         <v>0.3062499999999773</v>
       </c>
       <c r="U298">
-        <v>0.999901643951103</v>
+        <v>-9.83560488969637E-05</v>
       </c>
       <c r="V298">
-        <v>1.000028151568042</v>
+        <v>2.815156804225616E-05</v>
       </c>
       <c r="W298">
-        <v>0.998735244519393</v>
+        <v>-0.001264755480607005</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22599,7 +22599,7 @@
         <v>0.6746024081390045</v>
       </c>
       <c r="K299">
-        <v>40.28433285777334</v>
+        <v>-0.09715667142226664</v>
       </c>
       <c r="L299">
         <v>-0.01108496931839741</v>
@@ -22629,13 +22629,13 @@
         <v>0.28125</v>
       </c>
       <c r="U299">
-        <v>0.9998875820299875</v>
+        <v>-0.0001124179700124905</v>
       </c>
       <c r="V299">
-        <v>1.000028150775554</v>
+        <v>2.815077555373691E-05</v>
       </c>
       <c r="W299">
-        <v>0.9995778809624314</v>
+        <v>-0.0004221190375686135</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22670,7 +22670,7 @@
         <v>0.7916014032742927</v>
       </c>
       <c r="K300">
-        <v>44.18401335406295</v>
+        <v>-0.05815986645937055</v>
       </c>
       <c r="L300">
         <v>-0.009919410547339708</v>
@@ -22700,13 +22700,13 @@
         <v>0.2374999999999829</v>
       </c>
       <c r="U300">
-        <v>0.9999437846953834</v>
+        <v>-5.621530461663582E-05</v>
       </c>
       <c r="V300">
-        <v>1.00005629996622</v>
+        <v>5.629996621991928E-05</v>
       </c>
       <c r="W300">
-        <v>1.000844594594595</v>
+        <v>0.0008445945945945166</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22741,7 +22741,7 @@
         <v>0.9147582402588067</v>
       </c>
       <c r="K301">
-        <v>47.77408557516713</v>
+        <v>-0.02225914424832864</v>
       </c>
       <c r="L301">
         <v>-0.008527242308906197</v>
@@ -22771,13 +22771,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U301">
-        <v>0.9999859453837612</v>
+        <v>-1.405461623882331E-05</v>
       </c>
       <c r="V301">
-        <v>1.000253335585205</v>
+        <v>0.0002533355852052388</v>
       </c>
       <c r="W301">
-        <v>1.00084388185654</v>
+        <v>0.0008438818565399409</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22812,7 +22812,7 @@
         <v>1.044397016031998</v>
       </c>
       <c r="K302">
-        <v>51.08582177737102</v>
+        <v>0.01085821777371021</v>
       </c>
       <c r="L302">
         <v>-0.006748252067128993</v>
@@ -22842,13 +22842,13 @@
         <v>0.1562500000000284</v>
       </c>
       <c r="U302">
-        <v>0.9999718903724526</v>
+        <v>-2.810962754740132E-05</v>
       </c>
       <c r="V302">
-        <v>1.000337695230055</v>
+        <v>0.0003376952300548908</v>
       </c>
       <c r="W302">
-        <v>1.000843170320405</v>
+        <v>0.000843170320404818</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22883,7 +22883,7 @@
         <v>1.044397016031998</v>
       </c>
       <c r="K303">
-        <v>51.08582177737103</v>
+        <v>0.01085821777371032</v>
       </c>
       <c r="L303">
         <v>-0.004823577624490229</v>
@@ -22913,13 +22913,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U303">
-        <v>0.9999578343734188</v>
+        <v>-4.216562658121425E-05</v>
       </c>
       <c r="V303">
-        <v>1.00028131769207</v>
+        <v>0.000281317692069738</v>
       </c>
       <c r="W303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22954,7 +22954,7 @@
         <v>1.188041088910859</v>
       </c>
       <c r="K304">
-        <v>54.29701914337588</v>
+        <v>0.0429701914337588</v>
       </c>
       <c r="L304">
         <v>-0.002608544475804977</v>
@@ -22984,13 +22984,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U304">
-        <v>0.9999859441984678</v>
+        <v>-1.405580153224228E-05</v>
       </c>
       <c r="V304">
-        <v>1.000309362432151</v>
+        <v>0.0003093624321510724</v>
       </c>
       <c r="W304">
-        <v>1.000842459983151</v>
+        <v>0.0008424599831506896</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23025,7 +23025,7 @@
         <v>1.263643232531313</v>
       </c>
       <c r="K305">
-        <v>55.82342722436199</v>
+        <v>0.05823427224361988</v>
       </c>
       <c r="L305">
         <v>-0.0001956667697697112</v>
@@ -23055,13 +23055,13 @@
         <v>0.09375</v>
       </c>
       <c r="U305">
-        <v>0.9999859440008996</v>
+        <v>-1.405599910042632E-05</v>
       </c>
       <c r="V305">
-        <v>1.000365497076023</v>
+        <v>0.0003654970760234022</v>
       </c>
       <c r="W305">
-        <v>1.000420875420875</v>
+        <v>0.0004208754208754328</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23096,7 +23096,7 @@
         <v>1.263643232531313</v>
       </c>
       <c r="K306">
-        <v>55.823427224362</v>
+        <v>0.05823427224361999</v>
       </c>
       <c r="L306">
         <v>0.002183959629682121</v>
@@ -23126,13 +23126,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U306">
-        <v>0.9999718876066516</v>
+        <v>-2.811239334843396E-05</v>
       </c>
       <c r="V306">
-        <v>1.000196734212079</v>
+        <v>0.0001967342120794413</v>
       </c>
       <c r="W306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23167,7 +23167,7 @@
         <v>0.9464934033272772</v>
       </c>
       <c r="K307">
-        <v>48.62556439746314</v>
+        <v>-0.01374435602536855</v>
       </c>
       <c r="L307">
         <v>0.003769441684495136</v>
@@ -23197,13 +23197,13 @@
         <v>0.15625</v>
       </c>
       <c r="U307">
-        <v>0.9999016038571287</v>
+        <v>-9.839614287132648E-05</v>
       </c>
       <c r="V307">
-        <v>1.000028099359335</v>
+        <v>2.809935933489882E-05</v>
       </c>
       <c r="W307">
-        <v>0.9983172065628945</v>
+        <v>-0.001682793437105534</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23238,7 +23238,7 @@
         <v>1.012540907259456</v>
       </c>
       <c r="K308">
-        <v>50.31156900250374</v>
+        <v>0.003115690025037421</v>
       </c>
       <c r="L308">
         <v>0.004912539748580564</v>
@@ -23268,13 +23268,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U308">
-        <v>0.9999156521494644</v>
+        <v>-8.434785053557103E-05</v>
       </c>
       <c r="V308">
-        <v>1.000028098569783</v>
+        <v>2.809856978269742E-05</v>
       </c>
       <c r="W308">
-        <v>1.000421407501054</v>
+        <v>0.0004214075010535723</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23309,7 +23309,7 @@
         <v>0.9467213473521716</v>
       </c>
       <c r="K309">
-        <v>48.63157989405379</v>
+        <v>-0.01368420105946216</v>
       </c>
       <c r="L309">
         <v>0.005543292178422063</v>
@@ -23339,13 +23339,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U309">
-        <v>0.9999437633562029</v>
+        <v>-5.623664379705851E-05</v>
       </c>
       <c r="V309">
-        <v>1.000028097780275</v>
+        <v>2.809778027534904E-05</v>
       </c>
       <c r="W309">
-        <v>0.9995787700084247</v>
+        <v>-0.0004212299915753448</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23380,7 +23380,7 @@
         <v>0.9467213473521716</v>
       </c>
       <c r="K310">
-        <v>48.63157989405379</v>
+        <v>-0.01368420105946216</v>
       </c>
       <c r="L310">
         <v>0.005803272077646558</v>
@@ -23410,13 +23410,13 @@
         <v>0.1874999999999716</v>
       </c>
       <c r="U310">
-        <v>0.9999437601934649</v>
+        <v>-5.623980653512994E-05</v>
       </c>
       <c r="V310">
-        <v>1.000056193981625</v>
+        <v>5.61939816245971E-05</v>
       </c>
       <c r="W310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23451,7 +23451,7 @@
         <v>1.018748324002895</v>
       </c>
       <c r="K311">
-        <v>50.46435515958026</v>
+        <v>0.004643551595802653</v>
       </c>
       <c r="L311">
         <v>0.005954478961711021</v>
@@ -23481,13 +23481,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U311">
-        <v>0.9999859392575929</v>
+        <v>-1.406074240706268E-05</v>
       </c>
       <c r="V311">
-        <v>1.000084286236058</v>
+        <v>8.42862360577179E-05</v>
       </c>
       <c r="W311">
-        <v>1.000421407501054</v>
+        <v>0.0004214075010535723</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23522,7 +23522,7 @@
         <v>0.9469524091960427</v>
       </c>
       <c r="K312">
-        <v>48.63767623303483</v>
+        <v>-0.01362323766965168</v>
       </c>
       <c r="L312">
         <v>0.005854927508342059</v>
@@ -23552,13 +23552,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V312">
-        <v>1.000028093044162</v>
+        <v>2.80930441620697E-05</v>
       </c>
       <c r="W312">
-        <v>0.9995787700084247</v>
+        <v>-0.0004212299915753448</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23593,7 +23593,7 @@
         <v>1.169503883542989</v>
       </c>
       <c r="K313">
-        <v>53.90651256328184</v>
+        <v>0.03906512563281839</v>
       </c>
       <c r="L313">
         <v>0.006049061357202445</v>
@@ -23623,13 +23623,13 @@
         <v>0.08125000000003979</v>
       </c>
       <c r="U313">
-        <v>1.000112487520916</v>
+        <v>0.0001124875209155274</v>
       </c>
       <c r="V313">
-        <v>1.000196645784757</v>
+        <v>0.00019664578475731</v>
       </c>
       <c r="W313">
-        <v>1.00126422250316</v>
+        <v>0.001264222503160495</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23664,7 +23664,7 @@
         <v>1.169503883542989</v>
       </c>
       <c r="K314">
-        <v>53.90651256328184</v>
+        <v>0.03906512563281839</v>
       </c>
       <c r="L314">
         <v>0.006386643936920972</v>
@@ -23694,13 +23694,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U314">
-        <v>1.000126534227509</v>
+        <v>0.0001265342275085235</v>
       </c>
       <c r="V314">
-        <v>1.000224693854623</v>
+        <v>0.0002246938546230925</v>
       </c>
       <c r="W314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23735,7 +23735,7 @@
         <v>1.333900171149252</v>
       </c>
       <c r="K315">
-        <v>57.15326592107052</v>
+        <v>0.07153265921070517</v>
       </c>
       <c r="L315">
         <v>0.007073294653359609</v>
@@ -23765,13 +23765,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U315">
-        <v>1.00014057579847</v>
+        <v>0.0001405757984704881</v>
       </c>
       <c r="V315">
-        <v>1.000224643378636</v>
+        <v>0.0002246433786363689</v>
       </c>
       <c r="W315">
-        <v>1.000841750841751</v>
+        <v>0.0008417508417508657</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23806,7 +23806,7 @@
         <v>1.420424533047272</v>
       </c>
       <c r="K316">
-        <v>58.68493372354736</v>
+        <v>0.08684933723547361</v>
       </c>
       <c r="L316">
         <v>0.008055258422178564</v>
@@ -23836,13 +23836,13 @@
         <v>0.03125</v>
       </c>
       <c r="U316">
-        <v>1.000224889663509</v>
+        <v>0.0002248896635088649</v>
       </c>
       <c r="V316">
-        <v>1.000196518809658</v>
+        <v>0.0001965188096575421</v>
       </c>
       <c r="W316">
-        <v>1.000420521446594</v>
+        <v>0.000420521446593769</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23877,7 +23877,7 @@
         <v>1.115602953103561</v>
       </c>
       <c r="K317">
-        <v>52.73215144018334</v>
+        <v>0.02732151440183339</v>
       </c>
       <c r="L317">
         <v>0.008663614312103801</v>
@@ -23907,13 +23907,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U317">
-        <v>1.00019673421208</v>
+        <v>0.0001967342120796634</v>
       </c>
       <c r="V317">
-        <v>1.000056137199315</v>
+        <v>5.61371993150761E-05</v>
       </c>
       <c r="W317">
-        <v>0.9987389659520807</v>
+        <v>-0.001261034047919329</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -23948,7 +23948,7 @@
         <v>1.037482715558081</v>
       </c>
       <c r="K318">
-        <v>50.9198290437476</v>
+        <v>0.009198290437475998</v>
       </c>
       <c r="L318">
         <v>0.008821819972745632</v>
@@ -23978,13 +23978,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U318">
-        <v>1.00015454647634</v>
+        <v>0.0001545464763403892</v>
       </c>
       <c r="V318">
-        <v>1.000028067024053</v>
+        <v>2.806702405333539E-05</v>
       </c>
       <c r="W318">
-        <v>0.9995791245791246</v>
+        <v>-0.0004208754208754328</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24019,7 +24019,7 @@
         <v>0.9662591190101441</v>
       </c>
       <c r="K319">
-        <v>49.14200319114497</v>
+        <v>-0.008579968088550272</v>
       </c>
       <c r="L319">
         <v>0.008511690566123968</v>
@@ -24049,13 +24049,13 @@
         <v>0.0625</v>
       </c>
       <c r="U319">
-        <v>1.000126427578069</v>
+        <v>0.0001264275780690216</v>
       </c>
       <c r="V319">
-        <v>0.9999438675273646</v>
+        <v>-5.613247263536181E-05</v>
       </c>
       <c r="W319">
-        <v>0.9995789473684211</v>
+        <v>-0.0004210526315788776</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24090,7 +24090,7 @@
         <v>0.9662591190101439</v>
       </c>
       <c r="K320">
-        <v>49.14200319114497</v>
+        <v>-0.008579968088550272</v>
       </c>
       <c r="L320">
         <v>0.007906680977526153</v>
@@ -24120,13 +24120,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U320">
-        <v>1.000140457329063</v>
+        <v>0.0001404573290633149</v>
       </c>
       <c r="V320">
-        <v>0.9999157965644998</v>
+        <v>-8.420343550019638E-05</v>
       </c>
       <c r="W320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24161,7 +24161,7 @@
         <v>0.8386691624114361</v>
       </c>
       <c r="K321">
-        <v>45.61283669496647</v>
+        <v>-0.04387163305033531</v>
       </c>
       <c r="L321">
         <v>0.006826004568541855</v>
@@ -24191,13 +24191,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U321">
-        <v>1.000028087520715</v>
+        <v>2.808752071459253E-05</v>
       </c>
       <c r="V321">
-        <v>0.999859649122807</v>
+        <v>-0.0001403508771929962</v>
       </c>
       <c r="W321">
-        <v>0.9991575400168491</v>
+        <v>-0.0008424599831509116</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24232,7 +24232,7 @@
         <v>0.7363238105667737</v>
       </c>
       <c r="K322">
-        <v>42.40705599299601</v>
+        <v>-0.07592944007003988</v>
       </c>
       <c r="L322">
         <v>0.005194458014297621</v>
@@ -24262,13 +24262,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U322">
-        <v>0.9999719132681721</v>
+        <v>-2.808673182785881E-05</v>
       </c>
       <c r="V322">
-        <v>0.9999157776530039</v>
+        <v>-8.422234699612119E-05</v>
       </c>
       <c r="W322">
-        <v>0.9991568296795953</v>
+        <v>-0.000843170320404707</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Aker BP 14.01.2021.xlsx
+++ b/data_clean/Aker BP 14.01.2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1403,13 +1406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W322"/>
+  <dimension ref="A1:X322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1479,10 +1482,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>240.9</v>
@@ -1539,7 +1545,7 @@
         <v>240.9</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>240.9</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1550,10 +1556,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>239.7</v>
@@ -1610,7 +1619,7 @@
         <v>240.3</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>240.3</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1621,10 +1630,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>240.7</v>
@@ -1681,21 +1693,24 @@
         <v>240.4333333333333</v>
       </c>
       <c r="T4">
+        <v>240.4333333333333</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.0005548619780828545</v>
       </c>
       <c r="V4">
         <v>0.0005548619780828545</v>
       </c>
       <c r="W4">
+        <v>0.0005548619780828545</v>
+      </c>
+      <c r="X4">
         <v>0.004171881518564957</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>240.6</v>
@@ -1752,21 +1767,24 @@
         <v>240.475</v>
       </c>
       <c r="T5">
+        <v>240.3333333333333</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.0001732982115625337</v>
       </c>
       <c r="V5">
         <v>0.0001732982115625337</v>
       </c>
       <c r="W5">
+        <v>0.0001732982115625337</v>
+      </c>
+      <c r="X5">
         <v>-0.0004154549231407678</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>240.9</v>
@@ -1823,21 +1841,24 @@
         <v>240.56</v>
       </c>
       <c r="T6">
+        <v>240.7333333333333</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0003534670963718511</v>
       </c>
       <c r="V6">
         <v>0.0003534670963718511</v>
       </c>
       <c r="W6">
+        <v>0.0003534670963718511</v>
+      </c>
+      <c r="X6">
         <v>0.001246882793017434</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>240.5</v>
@@ -1894,21 +1915,24 @@
         <v>240.55</v>
       </c>
       <c r="T7">
+        <v>240.6666666666667</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>-4.156967076829332E-05</v>
       </c>
       <c r="V7">
         <v>-4.156967076829332E-05</v>
       </c>
       <c r="W7">
+        <v>-4.156967076829332E-05</v>
+      </c>
+      <c r="X7">
         <v>-0.00166044001660437</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>240.3</v>
@@ -1965,21 +1989,24 @@
         <v>240.5142857142857</v>
       </c>
       <c r="T8">
+        <v>240.5666666666667</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>-0.0001484692817055322</v>
       </c>
       <c r="V8">
         <v>-0.0001484692817055322</v>
       </c>
       <c r="W8">
+        <v>-0.0001484692817055322</v>
+      </c>
+      <c r="X8">
         <v>-0.0008316008316008316</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>240.4</v>
@@ -2036,21 +2063,24 @@
         <v>240.5</v>
       </c>
       <c r="T9">
+        <v>240.4</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>-5.93965312425393E-05</v>
       </c>
       <c r="V9">
         <v>-5.93965312425393E-05</v>
       </c>
       <c r="W9">
+        <v>-5.93965312425393E-05</v>
+      </c>
+      <c r="X9">
         <v>0.0004161464835621409</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>240.7</v>
@@ -2107,21 +2137,24 @@
         <v>240.5222222222222</v>
       </c>
       <c r="T10">
+        <v>240.4666666666667</v>
+      </c>
+      <c r="U10">
         <v>-0.04722222222221717</v>
-      </c>
-      <c r="U10">
-        <v>9.240009240008007E-05</v>
       </c>
       <c r="V10">
         <v>9.240009240008007E-05</v>
       </c>
       <c r="W10">
+        <v>9.240009240008007E-05</v>
+      </c>
+      <c r="X10">
         <v>0.00124792013311148</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>240</v>
@@ -2178,21 +2211,24 @@
         <v>240.47</v>
       </c>
       <c r="T11">
+        <v>240.3666666666666</v>
+      </c>
+      <c r="U11">
         <v>0.04250000000004661</v>
-      </c>
-      <c r="U11">
-        <v>-0.0002171201552179092</v>
       </c>
       <c r="V11">
         <v>-0.0002171201552179092</v>
       </c>
       <c r="W11">
+        <v>-0.0002171201552179092</v>
+      </c>
+      <c r="X11">
         <v>-0.002908184461985819</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>239.3</v>
@@ -2249,21 +2285,24 @@
         <v>240.3636363636364</v>
       </c>
       <c r="T12">
+        <v>240</v>
+      </c>
+      <c r="U12">
         <v>-0.02613636363636829</v>
-      </c>
-      <c r="U12">
-        <v>-0.000442315616765443</v>
       </c>
       <c r="V12">
         <v>-0.000442315616765443</v>
       </c>
       <c r="W12">
+        <v>-0.000442315616765443</v>
+      </c>
+      <c r="X12">
         <v>-0.002916666666666567</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>239.7</v>
@@ -2320,21 +2359,24 @@
         <v>240.3083333333333</v>
       </c>
       <c r="T13">
+        <v>239.6666666666667</v>
+      </c>
+      <c r="U13">
         <v>-0.08333333333331439</v>
-      </c>
-      <c r="U13">
-        <v>-0.0002300806858297477</v>
       </c>
       <c r="V13">
         <v>-0.0002300806858297477</v>
       </c>
       <c r="W13">
+        <v>-0.0002300806858297477</v>
+      </c>
+      <c r="X13">
         <v>0.001671541997492643</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>240</v>
@@ -2391,21 +2433,24 @@
         <v>240.2846153846154</v>
       </c>
       <c r="T14">
+        <v>239.6666666666667</v>
+      </c>
+      <c r="U14">
         <v>-0.1721153846153527</v>
-      </c>
-      <c r="U14">
-        <v>-9.86979868278226E-05</v>
       </c>
       <c r="V14">
         <v>-9.86979868278226E-05</v>
       </c>
       <c r="W14">
+        <v>-9.86979868278226E-05</v>
+      </c>
+      <c r="X14">
         <v>0.001251564455569509</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>240.1</v>
@@ -2462,21 +2507,24 @@
         <v>240.2714285714286</v>
       </c>
       <c r="T15">
+        <v>239.9333333333333</v>
+      </c>
+      <c r="U15">
         <v>-0.2089285714285722</v>
-      </c>
-      <c r="U15">
-        <v>-5.487997292574764E-05</v>
       </c>
       <c r="V15">
         <v>-5.487997292574764E-05</v>
       </c>
       <c r="W15">
+        <v>-5.487997292574764E-05</v>
+      </c>
+      <c r="X15">
         <v>0.0004166666666667318</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>240.3</v>
@@ -2533,21 +2581,24 @@
         <v>240.2733333333333</v>
       </c>
       <c r="T16">
+        <v>240.1333333333333</v>
+      </c>
+      <c r="U16">
         <v>-0.2108333333333405</v>
-      </c>
-      <c r="U16">
-        <v>7.927542263752585E-06</v>
       </c>
       <c r="V16">
         <v>7.927542263752585E-06</v>
       </c>
       <c r="W16">
+        <v>7.927542263752585E-06</v>
+      </c>
+      <c r="X16">
         <v>0.0008329862557268086</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>240.5</v>
@@ -2604,21 +2655,24 @@
         <v>240.2466666666666</v>
       </c>
       <c r="T17">
+        <v>240.3</v>
+      </c>
+      <c r="U17">
         <v>-0.2125000000000057</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>5.896062817334347E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-0.0001109847118561103</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.0008322929671242818</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>240.6</v>
@@ -2675,21 +2729,24 @@
         <v>240.3066666666667</v>
       </c>
       <c r="T18">
+        <v>240.4666666666667</v>
+      </c>
+      <c r="U18">
         <v>-0.2062499999999829</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>7.650149483917623E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0002497433193662246</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.0004158004158003603</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>240.9</v>
@@ -2746,21 +2803,24 @@
         <v>240.32</v>
       </c>
       <c r="T19">
+        <v>240.6666666666667</v>
+      </c>
+      <c r="U19">
         <v>-0.1687500000000171</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.0001373521764200802</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>5.548465849192219E-05</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.001246882793017434</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>241.1</v>
@@ -2817,21 +2877,24 @@
         <v>240.3533333333333</v>
       </c>
       <c r="T20">
+        <v>240.8666666666667</v>
+      </c>
+      <c r="U20">
         <v>0.03125000000002842</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0001666749801387812</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0001387039502884768</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0008302200083021294</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>241.5</v>
@@ -2888,21 +2951,24 @@
         <v>240.3933333333333</v>
       </c>
       <c r="T21">
+        <v>241.1666666666667</v>
+      </c>
+      <c r="U21">
         <v>0.2000000000000171</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0002331844456122667</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0001664216570049781</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.001659062629614239</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>241.6</v>
@@ -2959,21 +3025,24 @@
         <v>240.4666666666667</v>
       </c>
       <c r="T22">
+        <v>241.4</v>
+      </c>
+      <c r="U22">
         <v>0.3562499999999886</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0002307325908299518</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0003050556033168395</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.0004140786749482483</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>242.3</v>
@@ -3030,21 +3099,24 @@
         <v>240.6</v>
       </c>
       <c r="T23">
+        <v>241.8</v>
+      </c>
+      <c r="U23">
         <v>0.5187500000000114</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0003420138857639365</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0005544774050456613</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.002897350993377623</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>241.7</v>
@@ -3101,21 +3173,24 @@
         <v>240.6866666666667</v>
       </c>
       <c r="T24">
+        <v>241.8666666666667</v>
+      </c>
+      <c r="U24">
         <v>0.6062499999999886</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0002037299001558246</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0003602105846494119</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.002476269087907657</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>241.2</v>
@@ -3172,21 +3247,24 @@
         <v>240.72</v>
       </c>
       <c r="T25">
+        <v>241.7333333333333</v>
+      </c>
+      <c r="U25">
         <v>0.6437500000000114</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001001331092760349</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0001384926460403779</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.002068680182043869</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>241.3</v>
@@ -3243,21 +3321,24 @@
         <v>240.8066666666667</v>
       </c>
       <c r="T26">
+        <v>241.4</v>
+      </c>
+      <c r="U26">
         <v>0.6937499999999659</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001087351744437637</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0003600310180571498</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.0004145936981758691</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>241.4</v>
@@ -3314,21 +3395,24 @@
         <v>240.9466666666667</v>
       </c>
       <c r="T27">
+        <v>241.3</v>
+      </c>
+      <c r="U27">
         <v>0.6687500000000171</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001163409121127668</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0005813792530660056</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0004144218814752243</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>241.8</v>
@@ -3385,21 +3469,24 @@
         <v>241.0866666666667</v>
       </c>
       <c r="T28">
+        <v>241.5</v>
+      </c>
+      <c r="U28">
         <v>0.5999999999999943</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001692594131315062</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0005810414476232761</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.001657000828500399</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>241.4</v>
@@ -3456,21 +3543,24 @@
         <v>241.18</v>
       </c>
       <c r="T29">
+        <v>241.5333333333333</v>
+      </c>
+      <c r="U29">
         <v>0.4812499999999886</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>9.780219780219923E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0003871360230069953</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.001654259718775863</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>241</v>
@@ -3527,21 +3617,24 @@
         <v>241.24</v>
       </c>
       <c r="T30">
+        <v>241.4</v>
+      </c>
+      <c r="U30">
         <v>0.34375</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3.375948718309374E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.000248776847167953</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.001657000828500399</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>240</v>
@@ -3598,21 +3691,24 @@
         <v>241.22</v>
       </c>
       <c r="T31">
+        <v>240.8</v>
+      </c>
+      <c r="U31">
         <v>0.06250000000002842</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-0.0001069355331499988</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-8.290499088037251E-05</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.004149377593360981</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>240.3</v>
@@ -3669,21 +3765,24 @@
         <v>241.2066666666666</v>
       </c>
       <c r="T32">
+        <v>240.4333333333334</v>
+      </c>
+      <c r="U32">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-8.307487815673031E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-5.527457645859712E-05</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.001249999999999973</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>240.4</v>
@@ -3740,21 +3839,24 @@
         <v>241.1933333333333</v>
       </c>
       <c r="T33">
+        <v>240.2333333333333</v>
+      </c>
+      <c r="U33">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>9.692874352662528E-05</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-5.527763190615875E-05</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.0004161464835621409</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>240.3</v>
@@ -3811,21 +3913,24 @@
         <v>241.1533333333333</v>
       </c>
       <c r="T34">
+        <v>240.3333333333333</v>
+      </c>
+      <c r="U34">
         <v>-0.3125</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-5.538248528913492E-05</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.0001658420630752389</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.0004159733777038266</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>240.6</v>
@@ -3882,21 +3987,24 @@
         <v>241.12</v>
       </c>
       <c r="T35">
+        <v>240.4333333333333</v>
+      </c>
+      <c r="U35">
         <v>-0.3937500000000114</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.0001382246426893108</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.001248439450686645</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>240.3</v>
@@ -3953,21 +4061,24 @@
         <v>241.04</v>
       </c>
       <c r="T36">
+        <v>240.4</v>
+      </c>
+      <c r="U36">
         <v>-0.5312500000000284</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-8.30783290178827E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.0003317850033177638</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.001246882793017434</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>240.5</v>
@@ -4024,21 +4135,24 @@
         <v>240.9666666666667</v>
       </c>
       <c r="T37">
+        <v>240.4666666666667</v>
+      </c>
+      <c r="U37">
         <v>-0.5812500000000398</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0003042371943799971</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0008322929671242818</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>240.4</v>
@@ -4095,21 +4209,24 @@
         <v>240.84</v>
       </c>
       <c r="T38">
+        <v>240.4</v>
+      </c>
+      <c r="U38">
         <v>-0.5812499999999829</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>1.384753859978716E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0005256605339603038</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.0004158004158003603</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>239.9</v>
@@ -4166,21 +4283,24 @@
         <v>240.72</v>
       </c>
       <c r="T39">
+        <v>240.2666666666667</v>
+      </c>
+      <c r="U39">
         <v>-0.4437499999999943</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-6.923673424152899E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.0004982561036375177</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.002079866888519133</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>239.7</v>
@@ -4237,21 +4357,24 @@
         <v>240.62</v>
       </c>
       <c r="T40">
+        <v>240</v>
+      </c>
+      <c r="U40">
         <v>-0.3937500000000114</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-0.0001384830565980266</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0004154204054501731</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.0008336807002918833</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>239.7</v>
@@ -4308,21 +4431,24 @@
         <v>240.5133333333333</v>
       </c>
       <c r="T41">
+        <v>239.7666666666667</v>
+      </c>
+      <c r="U41">
         <v>-0.3875000000000171</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-4.155067104338883E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.0004432992547032111</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>239.9</v>
@@ -4379,21 +4505,24 @@
         <v>240.4133333333334</v>
       </c>
       <c r="T42">
+        <v>239.7666666666667</v>
+      </c>
+      <c r="U42">
         <v>-0.3499999999999943</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>8.310479514661573E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0004157773650801388</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.0008343763037130802</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>240</v>
@@ -4450,21 +4579,24 @@
         <v>240.2933333333334</v>
       </c>
       <c r="T43">
+        <v>239.8666666666666</v>
+      </c>
+      <c r="U43">
         <v>-0.3375000000000057</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>4.154894465679959E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-0.0004991403693639374</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0004168403501458862</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>240</v>
@@ -4521,21 +4653,24 @@
         <v>240.2</v>
       </c>
       <c r="T44">
+        <v>239.9666666666667</v>
+      </c>
+      <c r="U44">
         <v>-0.2624999999999886</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-0.0003884141604706404</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>239.8</v>
@@ -4592,21 +4727,24 @@
         <v>240.12</v>
       </c>
       <c r="T45">
+        <v>239.9333333333333</v>
+      </c>
+      <c r="U45">
         <v>-0.25</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>-4.154721841376219E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0003330557868442829</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.0008333333333332416</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>239.4</v>
@@ -4663,21 +4801,24 @@
         <v>240.08</v>
       </c>
       <c r="T46">
+        <v>239.7333333333333</v>
+      </c>
+      <c r="U46">
         <v>-0.2749999999999773</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>-0.0001246468339702878</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-0.0001665833749792123</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.001668056713928334</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>239.2</v>
@@ -4734,21 +4875,24 @@
         <v>240.0066666666667</v>
       </c>
       <c r="T47">
+        <v>239.4666666666667</v>
+      </c>
+      <c r="U47">
         <v>-0.3125000000000284</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>-0.0001800678717363002</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0003054537376429023</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>-0.0008354218880535225</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>238.5</v>
@@ -4805,21 +4949,24 @@
         <v>239.88</v>
       </c>
       <c r="T48">
+        <v>239.0333333333333</v>
+      </c>
+      <c r="U48">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>-0.0002909312571000022</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-0.0005277631176912045</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.002926421404682245</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>238.6</v>
@@ -4876,21 +5023,24 @@
         <v>239.7666666666667</v>
       </c>
       <c r="T49">
+        <v>238.7666666666667</v>
+      </c>
+      <c r="U49">
         <v>-0.375</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-0.000318731724893162</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-0.0004724584514479435</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.0004192872117401159</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>238.5</v>
@@ -4947,21 +5097,24 @@
         <v>239.6266666666667</v>
       </c>
       <c r="T50">
+        <v>238.5333333333333</v>
+      </c>
+      <c r="U50">
         <v>-0.4375</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-0.0003604203055254107</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-0.0005839010148755985</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.0004191114836545884</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>238.7</v>
@@ -5018,21 +5171,24 @@
         <v>239.52</v>
       </c>
       <c r="T51">
+        <v>238.6</v>
+      </c>
+      <c r="U51">
         <v>-0.4812500000000171</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-0.0003882848901707314</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-0.0004451368795905797</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.0008385744234800097</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>238.7</v>
@@ -5089,21 +5245,24 @@
         <v>239.4</v>
       </c>
       <c r="T52">
+        <v>238.6333333333333</v>
+      </c>
+      <c r="U52">
         <v>-0.5437500000000171</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-0.0004023084179569647</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.0005010020040079333</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>238.9</v>
@@ -5160,21 +5319,24 @@
         <v>239.3</v>
       </c>
       <c r="T53">
+        <v>238.7666666666667</v>
+      </c>
+      <c r="U53">
         <v>-0.5562499999999773</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-0.0004718617722573315</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.0004177109440267612</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.000837871805613899</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>238.9</v>
@@ -5231,21 +5393,24 @@
         <v>239.2333333333333</v>
       </c>
       <c r="T54">
+        <v>238.8333333333333</v>
+      </c>
+      <c r="U54">
         <v>-0.5250000000000057</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-0.0003887754960358869</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-0.0002785903329155515</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>239</v>
@@ -5302,21 +5467,24 @@
         <v>239.1866666666666</v>
       </c>
       <c r="T55">
+        <v>238.9333333333333</v>
+      </c>
+      <c r="U55">
         <v>-0.4937499999999773</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-0.000305585265234054</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-0.0001950675769820664</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0004185851820845965</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>239</v>
@@ -5373,21 +5541,24 @@
         <v>239.14</v>
       </c>
       <c r="T56">
+        <v>238.9666666666667</v>
+      </c>
+      <c r="U56">
         <v>-0.3874999999999602</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-0.0003195731614121788</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-0.0001951056357656356</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>239</v>
@@ -5444,21 +5615,24 @@
         <v>239.08</v>
       </c>
       <c r="T57">
+        <v>239</v>
+      </c>
+      <c r="U57">
         <v>-0.2937500000000171</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-0.0003335742480680137</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.000250899054946907</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>239</v>
@@ -5515,21 +5689,24 @@
         <v>239.0133333333333</v>
       </c>
       <c r="T58">
+        <v>239</v>
+      </c>
+      <c r="U58">
         <v>-0.1750000000000114</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-0.0003892998164730654</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0002788466900898179</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>238.9</v>
@@ -5586,21 +5763,24 @@
         <v>238.94</v>
       </c>
       <c r="T59">
+        <v>238.9666666666667</v>
+      </c>
+      <c r="U59">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-0.0003477244909312338</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-0.0003068169139796018</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.0004184100418409553</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>239.1</v>
@@ -5657,21 +5837,24 @@
         <v>238.8933333333333</v>
       </c>
       <c r="T60">
+        <v>239</v>
+      </c>
+      <c r="U60">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-0.0002643625384368686</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.000195307050584459</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.0008371703641689709</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>238.9</v>
@@ -5728,21 +5911,24 @@
         <v>238.86</v>
       </c>
       <c r="T61">
+        <v>238.9666666666667</v>
+      </c>
+      <c r="U61">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-0.0001530924678506684</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0001395322877714156</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.0008364700961940308</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>238.9</v>
@@ -5799,21 +5985,24 @@
         <v>238.84</v>
       </c>
       <c r="T62">
+        <v>238.9666666666667</v>
+      </c>
+      <c r="U62">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-0.0001948747929455541</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-8.373105584869034E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>238.6</v>
@@ -5870,21 +6059,24 @@
         <v>238.8466666666667</v>
       </c>
       <c r="T63">
+        <v>238.8</v>
+      </c>
+      <c r="U63">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-0.0002506021412560511</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>2.79126891085113E-05</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.001255755546253678</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>238.8</v>
@@ -5941,21 +6133,24 @@
         <v>238.86</v>
       </c>
       <c r="T64">
+        <v>238.7666666666667</v>
+      </c>
+      <c r="U64">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-0.0002088874653592976</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>5.582382002411457E-05</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.0008382229673093988</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>239.1</v>
@@ -6012,21 +6207,24 @@
         <v>238.9</v>
       </c>
       <c r="T65">
+        <v>238.8333333333333</v>
+      </c>
+      <c r="U65">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-0.0002089311084493284</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.0001674621116971586</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.001256281407035154</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>238.9</v>
@@ -6083,21 +6281,24 @@
         <v>238.9133333333334</v>
       </c>
       <c r="T66">
+        <v>238.9333333333333</v>
+      </c>
+      <c r="U66">
         <v>0</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-0.0001950431184607471</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>5.581135761123512E-05</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.0008364700961940308</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>238.8</v>
@@ -6154,21 +6355,24 @@
         <v>238.92</v>
       </c>
       <c r="T67">
+        <v>238.9333333333334</v>
+      </c>
+      <c r="U67">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-0.0002368842750645195</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>2.790412143860443E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>-0.0004185851820844855</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>238.7</v>
@@ -6225,21 +6429,24 @@
         <v>238.9066666666667</v>
       </c>
       <c r="T68">
+        <v>238.8</v>
+      </c>
+      <c r="U68">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-0.0002369404025198696</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-5.580668564075797E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>-0.0004187604690117919</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>238.3</v>
@@ -6296,21 +6503,24 @@
         <v>238.8666666666667</v>
       </c>
       <c r="T69">
+        <v>238.6</v>
+      </c>
+      <c r="U69">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-0.000223055582663001</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-0.0001674294006028809</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>-0.001675743611227354</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>238.7</v>
@@ -6367,21 +6577,24 @@
         <v>238.8466666666667</v>
       </c>
       <c r="T70">
+        <v>238.5666666666666</v>
+      </c>
+      <c r="U70">
         <v>-0.1187500000000341</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-0.0001394408422227267</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-8.372871895057088E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.00167855644146031</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>238.7</v>
@@ -6438,21 +6651,24 @@
         <v>238.8266666666667</v>
       </c>
       <c r="T71">
+        <v>238.5666666666667</v>
+      </c>
+      <c r="U71">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-0.0001394602886829466</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-8.373573003606083E-05</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>238.7</v>
@@ -6509,21 +6725,24 @@
         <v>238.8066666666667</v>
       </c>
       <c r="T72">
+        <v>238.7</v>
+      </c>
+      <c r="U72">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-0.0001673756886811928</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-8.374274229572265E-05</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>238.7</v>
@@ -6580,21 +6799,24 @@
         <v>238.7866666666667</v>
       </c>
       <c r="T73">
+        <v>238.7</v>
+      </c>
+      <c r="U73">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-0.0001813540169913752</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-8.374975572977839E-05</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>238.7</v>
@@ -6651,21 +6873,24 @@
         <v>238.7733333333333</v>
       </c>
       <c r="T74">
+        <v>238.7</v>
+      </c>
+      <c r="U74">
         <v>-0.1187500000000057</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-0.0001813869122365697</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-5.583784689267013E-05</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>238.9</v>
@@ -6722,21 +6947,24 @@
         <v>238.76</v>
       </c>
       <c r="T75">
+        <v>238.7666666666667</v>
+      </c>
+      <c r="U75">
         <v>-0.1062500000000171</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-0.0001255983365198166</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-5.584096493183033E-05</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0.000837871805613899</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>238.9</v>
@@ -6793,21 +7021,24 @@
         <v>238.76</v>
       </c>
       <c r="T76">
+        <v>238.8333333333333</v>
+      </c>
+      <c r="U76">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-6.978561857984289E-05</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>238.9</v>
@@ -6864,21 +7095,24 @@
         <v>238.76</v>
       </c>
       <c r="T77">
+        <v>238.9</v>
+      </c>
+      <c r="U77">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-4.187429337110249E-05</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
       </c>
       <c r="W77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>238.9</v>
@@ -6935,21 +7169,24 @@
         <v>238.78</v>
       </c>
       <c r="T78">
+        <v>238.9</v>
+      </c>
+      <c r="U78">
         <v>0.03125000000002842</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>5.583472920145383E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>8.376612497906777E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>238.9</v>
@@ -7006,21 +7243,24 @@
         <v>238.7866666666667</v>
       </c>
       <c r="T79">
+        <v>238.9</v>
+      </c>
+      <c r="U79">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>4.187370889408015E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>2.791970293425372E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>238.9</v>
@@ -7077,21 +7317,24 @@
         <v>238.7733333333333</v>
       </c>
       <c r="T80">
+        <v>238.9</v>
+      </c>
+      <c r="U80">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>5.582927407976612E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-5.583784689255911E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>238.9</v>
@@ -7148,21 +7391,24 @@
         <v>238.7733333333333</v>
       </c>
       <c r="T81">
+        <v>238.9</v>
+      </c>
+      <c r="U81">
         <v>0.09375</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>2.791307867289206E-05</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>239.1</v>
@@ -7219,21 +7465,24 @@
         <v>238.7933333333334</v>
       </c>
       <c r="T82">
+        <v>238.9666666666667</v>
+      </c>
+      <c r="U82">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>5.582459910957738E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>8.376144739785651E-05</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.0008371703641689709</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>239.1</v>
@@ -7290,21 +7539,24 @@
         <v>238.82</v>
       </c>
       <c r="T83">
+        <v>239.0333333333333</v>
+      </c>
+      <c r="U83">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>2.791074144892214E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0.0001116725760070825</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>239.2</v>
@@ -7361,21 +7613,24 @@
         <v>238.88</v>
       </c>
       <c r="T84">
+        <v>239.1333333333333</v>
+      </c>
+      <c r="U84">
         <v>0.1437499999999829</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>4.186494369151639E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>0.000251235239929759</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.0004182350480970154</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>239.4</v>
@@ -7432,21 +7687,24 @@
         <v>238.9266666666666</v>
       </c>
       <c r="T85">
+        <v>239.2333333333333</v>
+      </c>
+      <c r="U85">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>5.58175881220091E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>0.0001953561062735254</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0008361204013378476</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>239.6</v>
@@ -7503,21 +7761,24 @@
         <v>238.9866666666667</v>
       </c>
       <c r="T86">
+        <v>239.4</v>
+      </c>
+      <c r="U86">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>8.37217090392528E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>0.0002511230782109575</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.0008354218880535225</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>239.4</v>
@@ -7574,21 +7835,24 @@
         <v>239.0333333333333</v>
       </c>
       <c r="T87">
+        <v>239.4666666666667</v>
+      </c>
+      <c r="U87">
         <v>0.1875</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>5.580980020081228E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>0.0001952689131889951</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.0008347245409014992</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>239.4</v>
@@ -7645,21 +7909,24 @@
         <v>239.08</v>
       </c>
       <c r="T88">
+        <v>239.4666666666667</v>
+      </c>
+      <c r="U88">
         <v>0.2062499999999829</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>5.580668564109104E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>0.0001952307906847306</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>239.5</v>
@@ -7716,21 +7983,24 @@
         <v>239.1333333333333</v>
       </c>
       <c r="T89">
+        <v>239.4333333333333</v>
+      </c>
+      <c r="U89">
         <v>0.2312499999999886</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>8.370535714297134E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>0.0002230773520719431</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0004177109440266502</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>239.6</v>
@@ -7787,21 +8057,24 @@
         <v>239.18</v>
       </c>
       <c r="T90">
+        <v>239.5</v>
+      </c>
+      <c r="U90">
         <v>0.2375000000000114</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>6.974862595199305E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.0001951491497071967</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.0004175365344467608</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>239.7</v>
@@ -7858,21 +8131,24 @@
         <v>239.2333333333333</v>
       </c>
       <c r="T91">
+        <v>239.6</v>
+      </c>
+      <c r="U91">
         <v>0.2624999999999886</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>0.000111590018272878</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>0.0002229840845109354</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.0004173622704506386</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>239.9</v>
@@ -7929,21 +8205,24 @@
         <v>239.3</v>
       </c>
       <c r="T92">
+        <v>239.7333333333333</v>
+      </c>
+      <c r="U92">
         <v>0.2874999999999943</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>0.0001394719591627513</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.0002786679671171743</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.0008343763037130802</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>240.1</v>
@@ -8000,21 +8279,24 @@
         <v>239.38</v>
       </c>
       <c r="T93">
+        <v>239.9</v>
+      </c>
+      <c r="U93">
         <v>0.3000000000000114</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0.0002091787641715914</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.0003343083994986618</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.0008336807002917723</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>240.3</v>
@@ -8071,21 +8353,24 @@
         <v>239.4733333333333</v>
       </c>
       <c r="T94">
+        <v>240.1</v>
+      </c>
+      <c r="U94">
         <v>0.3000000000000114</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>0.0002091350175674744</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.0003898961205335283</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.0008329862557268086</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>240.3</v>
@@ -8142,21 +8427,24 @@
         <v>239.5666666666667</v>
       </c>
       <c r="T95">
+        <v>240.2333333333333</v>
+      </c>
+      <c r="U95">
         <v>0.3249999999999886</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>0.0001672730314055126</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.0003897441607974006</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>240.6</v>
@@ -8213,21 +8501,24 @@
         <v>239.68</v>
       </c>
       <c r="T96">
+        <v>240.4</v>
+      </c>
+      <c r="U96">
         <v>0.3687500000000057</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>0.0002369304957421381</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.0004730763879225997</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.001248439450686645</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>240.5</v>
@@ -8284,21 +8575,24 @@
         <v>239.7733333333333</v>
       </c>
       <c r="T97">
+        <v>240.4666666666667</v>
+      </c>
+      <c r="U97">
         <v>0.3937500000000114</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>0.0002368743729797007</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.0003894080996886817</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.0004156275976724411</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>240.3</v>
@@ -8355,21 +8649,24 @@
         <v>239.8533333333334</v>
       </c>
       <c r="T98">
+        <v>240.4666666666667</v>
+      </c>
+      <c r="U98">
         <v>0.40625</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>0.0002228877899281834</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>0.000333648445754342</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0008316008316008316</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>240.4</v>
@@ -8426,21 +8723,24 @@
         <v>239.9333333333333</v>
       </c>
       <c r="T99">
+        <v>240.4</v>
+      </c>
+      <c r="U99">
         <v>0.4124999999999659</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>0.0002924750351667171</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0003335371615986737</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0.0004161464835621409</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>240.3</v>
@@ -8497,21 +8797,24 @@
         <v>239.9933333333333</v>
       </c>
       <c r="T100">
+        <v>240.3333333333333</v>
+      </c>
+      <c r="U100">
         <v>0.3937500000000398</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>0.0002227729665005285</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0002500694637399548</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>-0.0004159733777038266</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>240.2</v>
@@ -8568,21 +8871,24 @@
         <v>240.0333333333333</v>
       </c>
       <c r="T101">
+        <v>240.3</v>
+      </c>
+      <c r="U101">
         <v>0.3562499999999602</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>0.0002088031403992829</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>0.0001666712964247807</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0004161464835623629</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>240</v>
@@ -8639,21 +8945,24 @@
         <v>240.0733333333334</v>
       </c>
       <c r="T102">
+        <v>240.1666666666667</v>
+      </c>
+      <c r="U102">
         <v>0.2937499999999886</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>0.0001809249439828076</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>0.000166643521733123</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>-0.0008326394671106518</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>240.2</v>
@@ -8710,21 +9019,24 @@
         <v>240.1266666666667</v>
       </c>
       <c r="T103">
+        <v>240.1333333333333</v>
+      </c>
+      <c r="U103">
         <v>0.2312499999999886</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>0.0002087217877717595</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>0.0002221543417288974</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0008333333333332416</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>240.8</v>
@@ -8781,21 +9093,24 @@
         <v>240.2133333333333</v>
       </c>
       <c r="T104">
+        <v>240.3333333333333</v>
+      </c>
+      <c r="U104">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>0.00029214952490908</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0.0003609206252255248</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.002497918401332289</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>240.9</v>
@@ -8852,21 +9167,24 @@
         <v>240.3</v>
       </c>
       <c r="T105">
+        <v>240.6333333333334</v>
+      </c>
+      <c r="U105">
         <v>0.1312499999999659</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>0.0002781563795164477</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>0.0003607904085258795</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0004152823920264836</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>240.8</v>
@@ -8923,21 +9241,24 @@
         <v>240.3733333333333</v>
       </c>
       <c r="T106">
+        <v>240.8333333333333</v>
+      </c>
+      <c r="U106">
         <v>0.1187499999999773</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>0.0002641750785574715</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>0.0003051740879456144</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>-0.0004151100041510647</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>241</v>
@@ -8994,21 +9315,24 @@
         <v>240.4466666666667</v>
       </c>
       <c r="T107">
+        <v>240.9</v>
+      </c>
+      <c r="U107">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>0.0002919058673078734</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>0.000305080985134154</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0008305647840531893</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>241.2</v>
@@ -9065,21 +9389,24 @@
         <v>240.52</v>
       </c>
       <c r="T108">
+        <v>241</v>
+      </c>
+      <c r="U108">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>0.0003196131291514082</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>0.000304987939113488</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>0.0008298755186721962</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>240.9</v>
@@ -9136,21 +9463,24 @@
         <v>240.56</v>
       </c>
       <c r="T109">
+        <v>241.0333333333333</v>
+      </c>
+      <c r="U109">
         <v>0.1812500000000341</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>0.0002778356602071153</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>0.0001663063362713491</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.001243781094527274</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>240.7</v>
@@ -9207,21 +9537,24 @@
         <v>240.5866666666667</v>
       </c>
       <c r="T110">
+        <v>240.9333333333333</v>
+      </c>
+      <c r="U110">
         <v>0.2437499999999773</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>0.0002499826400943483</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>0.0001108524553818935</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>-0.0008302200083022404</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>240.8</v>
@@ -9278,21 +9611,24 @@
         <v>240.6</v>
       </c>
       <c r="T111">
+        <v>240.8</v>
+      </c>
+      <c r="U111">
         <v>0.2875000000000227</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>0.0002638046179692655</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>5.542008423842226E-05</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0.0004154549231409899</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>240.6</v>
@@ -9349,21 +9685,24 @@
         <v>240.6066666666667</v>
       </c>
       <c r="T112">
+        <v>240.7</v>
+      </c>
+      <c r="U112">
         <v>0.2624999999999886</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>0.0002082118764052954</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>2.770850651168111E-05</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>-0.0008305647840531893</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>240.9</v>
@@ -9420,21 +9759,24 @@
         <v>240.6466666666666</v>
       </c>
       <c r="T113">
+        <v>240.7666666666667</v>
+      </c>
+      <c r="U113">
         <v>0.2375000000000114</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>0.0002498022398933486</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>0.0001662464326284141</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0.001246882793017434</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>240.7</v>
@@ -9491,21 +9833,24 @@
         <v>240.6666666666667</v>
       </c>
       <c r="T114">
+        <v>240.7333333333333</v>
+      </c>
+      <c r="U114">
         <v>0.1999999999999886</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>0.0002081165452654243</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>8.310939967315356E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0008302200083022404</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>240.8</v>
@@ -9562,21 +9907,24 @@
         <v>240.7</v>
       </c>
       <c r="T115">
+        <v>240.8</v>
+      </c>
+      <c r="U115">
         <v>0.1500000000000341</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>0.0001942016923290879</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>0.0001385041551247301</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0.0004154549231409899</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>240.4</v>
@@ -9633,21 +9981,24 @@
         <v>240.7133333333333</v>
       </c>
       <c r="T116">
+        <v>240.6333333333334</v>
+      </c>
+      <c r="U116">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>0.0001109508487739941</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>5.539398975207277E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.001661129568106379</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>240.4</v>
@@ -9704,21 +10055,24 @@
         <v>240.74</v>
       </c>
       <c r="T117">
+        <v>240.5333333333333</v>
+      </c>
+      <c r="U117">
         <v>-0.03125</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>0.0001386731750609993</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>0.000110781842856067</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>240.9</v>
@@ -9775,21 +10129,24 @@
         <v>240.7866666666667</v>
       </c>
       <c r="T118">
+        <v>240.5666666666667</v>
+      </c>
+      <c r="U118">
         <v>-0.0625</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>0.000207980921216766</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>0.0001938467502977659</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0.002079866888519133</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>240.8</v>
@@ -9846,21 +10203,24 @@
         <v>240.7866666666667</v>
       </c>
       <c r="T119">
+        <v>240.7</v>
+      </c>
+      <c r="U119">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>0.0001802126509282687</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>-0.0004151100041510647</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>240.6</v>
@@ -9917,21 +10277,24 @@
         <v>240.7666666666667</v>
       </c>
       <c r="T120">
+        <v>240.7666666666667</v>
+      </c>
+      <c r="U120">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>0.0001386001386001201</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-8.306107757893866E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.0008305647840531893</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>240.6</v>
@@ -9988,21 +10351,24 @@
         <v>240.7533333333334</v>
       </c>
       <c r="T121">
+        <v>240.6666666666667</v>
+      </c>
+      <c r="U121">
         <v>-0.1062500000000171</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>0.0001247228381375809</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-5.537865152982491E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>240.4</v>
@@ -10059,21 +10425,24 @@
         <v>240.7133333333333</v>
       </c>
       <c r="T122">
+        <v>240.5333333333333</v>
+      </c>
+      <c r="U122">
         <v>-0.1187500000000057</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>6.928182460597121E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-0.0001661451554842985</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>-0.0008312551953448821</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>240.4</v>
@@ -10130,21 +10499,24 @@
         <v>240.66</v>
       </c>
       <c r="T123">
+        <v>240.4666666666667</v>
+      </c>
+      <c r="U123">
         <v>-0.1312499999999943</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>4.156621498063728E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-0.0002215636857120229</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>240.6</v>
@@ -10201,21 +10573,24 @@
         <v>240.64</v>
       </c>
       <c r="T124">
+        <v>240.4666666666667</v>
+      </c>
+      <c r="U124">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>4.156448730197049E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-8.310479514650471E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0.0008319467554076532</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>240.6</v>
@@ -10272,21 +10647,24 @@
         <v>240.6333333333333</v>
       </c>
       <c r="T125">
+        <v>240.5333333333333</v>
+      </c>
+      <c r="U125">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>4.156275976741064E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-2.770390070927498E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>240.7</v>
@@ -10343,21 +10721,24 @@
         <v>240.6266666666667</v>
       </c>
       <c r="T126">
+        <v>240.6333333333333</v>
+      </c>
+      <c r="U126">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>1.385367745854182E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-2.770466823653894E-05</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0004156275976725521</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>240.8</v>
@@ -10414,21 +10795,24 @@
         <v>240.64</v>
       </c>
       <c r="T127">
+        <v>240.7</v>
+      </c>
+      <c r="U127">
         <v>-0.05000000000003979</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>4.156045661085628E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>5.541087161309299E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>0.0004154549231409899</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>240.8</v>
@@ -10485,21 +10869,24 @@
         <v>240.6333333333333</v>
       </c>
       <c r="T128">
+        <v>240.7666666666667</v>
+      </c>
+      <c r="U128">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>6.926454901856616E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-2.770390070927498E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>240.7</v>
@@ -10556,21 +10943,24 @@
         <v>240.6333333333333</v>
       </c>
       <c r="T129">
+        <v>240.7666666666667</v>
+      </c>
+      <c r="U129">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>4.155585106380144E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>0</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>-0.0004152823920267057</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>240.6</v>
@@ -10627,21 +11017,24 @@
         <v>240.62</v>
       </c>
       <c r="T130">
+        <v>240.7</v>
+      </c>
+      <c r="U130">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>4.155412424666771E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-5.540933647318891E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0004154549231407678</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>240.4</v>
@@ -10698,21 +11091,24 @@
         <v>240.62</v>
       </c>
       <c r="T131">
+        <v>240.5666666666667</v>
+      </c>
+      <c r="U131">
         <v>0.04374999999996021</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>2.770159838227926E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>0</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>-0.0008312551953448821</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>240.4</v>
@@ -10769,21 +11165,24 @@
         <v>240.62</v>
       </c>
       <c r="T132">
+        <v>240.4666666666667</v>
+      </c>
+      <c r="U132">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>5.540166204975883E-05</v>
-      </c>
-      <c r="V132">
-        <v>0</v>
       </c>
       <c r="W132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="X132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>240.2</v>
@@ -10840,21 +11239,24 @@
         <v>240.5733333333333</v>
       </c>
       <c r="T133">
+        <v>240.3333333333333</v>
+      </c>
+      <c r="U133">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>0</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.000193943423932641</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0008319467554077642</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>240.4</v>
@@ -10911,21 +11313,24 @@
         <v>240.5466666666667</v>
       </c>
       <c r="T134">
+        <v>240.3333333333333</v>
+      </c>
+      <c r="U134">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-5.539859287573279E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0001108463115888636</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0008326394671107629</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>240.3</v>
@@ -10982,21 +11387,24 @@
         <v>240.5266666666666</v>
       </c>
       <c r="T135">
+        <v>240.3</v>
+      </c>
+      <c r="U135">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-8.310249307474926E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-8.314394989206164E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0004159733777038266</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>240</v>
@@ -11053,21 +11461,24 @@
         <v>240.4866666666667</v>
       </c>
       <c r="T136">
+        <v>240.2333333333333</v>
+      </c>
+      <c r="U136">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-0.0001108125328974641</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>-0.0001663017267662381</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>-0.001248439450686645</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>240.3</v>
@@ -11124,21 +11535,24 @@
         <v>240.48</v>
       </c>
       <c r="T137">
+        <v>240.2</v>
+      </c>
+      <c r="U137">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-9.697171196632048E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>-2.772156460506547E-05</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0.001249999999999973</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>239.8</v>
@@ -11195,21 +11609,24 @@
         <v>240.44</v>
       </c>
       <c r="T138">
+        <v>240.0333333333333</v>
+      </c>
+      <c r="U138">
         <v>-0.2125000000000057</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-0.0001939622327823409</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-0.0001663339986691659</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.002080732417811038</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>240</v>
@@ -11266,21 +11683,24 @@
         <v>240.4</v>
       </c>
       <c r="T139">
+        <v>240.0333333333333</v>
+      </c>
+      <c r="U139">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-0.0001247141966328469</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-0.0001663616702712867</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0.0008340283569641116</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>240</v>
@@ -11337,21 +11757,24 @@
         <v>240.36</v>
       </c>
       <c r="T140">
+        <v>239.9333333333333</v>
+      </c>
+      <c r="U140">
         <v>-0.25</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-9.701202949163878E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-0.0001663893510814862</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>240</v>
@@ -11408,21 +11831,24 @@
         <v>240.3133333333334</v>
       </c>
       <c r="T141">
+        <v>240</v>
+      </c>
+      <c r="U141">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-0.0001108816477013441</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-0.0001941532146224612</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>240</v>
@@ -11479,21 +11905,24 @@
         <v>240.26</v>
       </c>
       <c r="T142">
+        <v>240</v>
+      </c>
+      <c r="U142">
         <v>-0.2437500000000057</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-8.31704578533321E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-0.0002219324770439401</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>240</v>
@@ -11550,21 +11979,24 @@
         <v>240.2066666666667</v>
       </c>
       <c r="T143">
+        <v>240</v>
+      </c>
+      <c r="U143">
         <v>-0.2312500000000171</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-0.0001247660636306547</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0002219817420017201</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>240</v>
@@ -11621,21 +12053,24 @@
         <v>240.16</v>
       </c>
       <c r="T144">
+        <v>240</v>
+      </c>
+      <c r="U144">
         <v>-0.1812500000000341</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-9.705238055623955E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-0.0001942771502317919</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>240</v>
@@ -11692,21 +12127,24 @@
         <v>240.12</v>
       </c>
       <c r="T145">
+        <v>240</v>
+      </c>
+      <c r="U145">
         <v>-0.1750000000000114</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-0.0001109277721543789</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.000166555629580234</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>239.9</v>
@@ -11763,21 +12201,24 @@
         <v>240.0866666666666</v>
       </c>
       <c r="T146">
+        <v>239.9666666666667</v>
+      </c>
+      <c r="U146">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-6.933754905613654E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0001388194791493991</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>-0.0004166666666666208</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>239.7</v>
@@ -11834,21 +12275,24 @@
         <v>240.04</v>
       </c>
       <c r="T147">
+        <v>239.8666666666667</v>
+      </c>
+      <c r="U147">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-9.707929991964459E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-0.0001943742537416915</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>-0.0008336807002918833</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>239.5</v>
@@ -11905,21 +12349,24 @@
         <v>239.9933333333333</v>
       </c>
       <c r="T148">
+        <v>239.7</v>
+      </c>
+      <c r="U148">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-0.0001941774504501392</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-0.0001944120424373086</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.0008343763037129692</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>239.5</v>
@@ -11976,21 +12423,24 @@
         <v>239.9333333333333</v>
       </c>
       <c r="T149">
+        <v>239.5666666666667</v>
+      </c>
+      <c r="U149">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-0.0001803426510370576</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-0.0002500069446373931</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>239.7</v>
@@ -12047,21 +12497,24 @@
         <v>239.8933333333333</v>
       </c>
       <c r="T150">
+        <v>239.5666666666666</v>
+      </c>
+      <c r="U150">
         <v>-0.1312499999999943</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-0.0001248751248750235</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-0.0001667129758265995</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0.0008350730688935215</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>240</v>
@@ -12118,21 +12571,24 @@
         <v>239.8933333333333</v>
       </c>
       <c r="T151">
+        <v>239.7333333333333</v>
+      </c>
+      <c r="U151">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-8.326048041296108E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>0</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.001251564455569509</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>240</v>
@@ -12189,21 +12645,24 @@
         <v>239.8733333333333</v>
       </c>
       <c r="T152">
+        <v>239.9</v>
+      </c>
+      <c r="U152">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-5.551160886518858E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-8.337038683858822E-05</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>240.1</v>
@@ -12260,21 +12719,24 @@
         <v>239.8933333333333</v>
       </c>
       <c r="T153">
+        <v>240.0333333333333</v>
+      </c>
+      <c r="U153">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-4.163601793127913E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>8.33773380395364E-05</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.0004166666666667318</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>240.2</v>
@@ -12331,21 +12793,24 @@
         <v>239.9066666666667</v>
       </c>
       <c r="T154">
+        <v>240.1</v>
+      </c>
+      <c r="U154">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-5.551700208183963E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>5.558025789254017E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0.0004164931278634043</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>240.2</v>
@@ -12402,21 +12867,24 @@
         <v>239.92</v>
       </c>
       <c r="T155">
+        <v>240.1666666666667</v>
+      </c>
+      <c r="U155">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-5.55200843905812E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>5.557716889903475E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>240.2</v>
@@ -12473,21 +12941,24 @@
         <v>239.9333333333333</v>
       </c>
       <c r="T156">
+        <v>240.2</v>
+      </c>
+      <c r="U156">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-6.940395880172812E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>5.557408024903232E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>240.1</v>
@@ -12544,21 +13015,24 @@
         <v>239.94</v>
       </c>
       <c r="T157">
+        <v>240.1666666666667</v>
+      </c>
+      <c r="U157">
         <v>0.1187499999999773</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-9.717228646388687E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>2.778549597115543E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.0004163197335553814</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>240.1</v>
@@ -12615,21 +13089,24 @@
         <v>239.9466666666667</v>
       </c>
       <c r="T158">
+        <v>240.1333333333333</v>
+      </c>
+      <c r="U158">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-9.718172983486095E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>2.778472395870146E-05</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>240</v>
@@ -12686,21 +13163,24 @@
         <v>239.9466666666667</v>
       </c>
       <c r="T159">
+        <v>240.0666666666667</v>
+      </c>
+      <c r="U159">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-9.719117504136676E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.0004164931278634043</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>240</v>
@@ -12757,21 +13237,24 @@
         <v>239.9466666666667</v>
       </c>
       <c r="T160">
+        <v>240.0333333333333</v>
+      </c>
+      <c r="U160">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-8.33148189290922E-05</v>
-      </c>
-      <c r="V160">
-        <v>0</v>
       </c>
       <c r="W160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>239.8</v>
@@ -12828,21 +13311,24 @@
         <v>239.94</v>
       </c>
       <c r="T161">
+        <v>239.9333333333333</v>
+      </c>
+      <c r="U161">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-8.332176086656151E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-2.778395198921313E-05</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0008333333333332416</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>240</v>
@@ -12899,21 +13385,24 @@
         <v>239.96</v>
       </c>
       <c r="T162">
+        <v>239.9333333333333</v>
+      </c>
+      <c r="U162">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-5.555246930721847E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>8.335417187610439E-05</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0.0008340283569641116</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>239.9</v>
@@ -12970,21 +13459,24 @@
         <v>239.9866666666667</v>
       </c>
       <c r="T163">
+        <v>239.9</v>
+      </c>
+      <c r="U163">
         <v>0.05625000000003411</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-4.166666666649554E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>0.0001111296327165334</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0004166666666666208</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>239.8</v>
@@ -13041,21 +13533,24 @@
         <v>240.0066666666667</v>
       </c>
       <c r="T164">
+        <v>239.9</v>
+      </c>
+      <c r="U164">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-8.333680570049573E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>8.333796322013143E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>-0.0004168403501458862</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>239.9</v>
@@ -13112,21 +13607,24 @@
         <v>240.02</v>
       </c>
       <c r="T165">
+        <v>239.8666666666667</v>
+      </c>
+      <c r="U165">
         <v>-0.0625</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-5.556250086813375E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>5.555401238854785E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0.0004170141784820558</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>240.3</v>
@@ -13183,21 +13681,24 @@
         <v>240.04</v>
       </c>
       <c r="T166">
+        <v>240</v>
+      </c>
+      <c r="U166">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>4.167419117351301E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>8.332638946750848E-05</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0.001667361400583545</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>240.2</v>
@@ -13254,21 +13755,24 @@
         <v>240.0533333333333</v>
       </c>
       <c r="T167">
+        <v>240.1333333333333</v>
+      </c>
+      <c r="U167">
         <v>-0.0625</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-1.389081816915994E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>5.554629783932619E-05</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>-0.0004161464835623629</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>240.4</v>
@@ -13325,21 +13829,24 @@
         <v>240.0733333333334</v>
       </c>
       <c r="T168">
+        <v>240.3</v>
+      </c>
+      <c r="U168">
         <v>-0.03750000000002274</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>8.334606676019263E-05</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>8.331481892920323E-05</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.0008326394671107629</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>240.1</v>
@@ -13396,21 +13903,24 @@
         <v>240.0666666666667</v>
       </c>
       <c r="T169">
+        <v>240.2333333333333</v>
+      </c>
+      <c r="U169">
         <v>-2.842170943040401E-14</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>1.388985346206795E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-2.776929271619544E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.00124792013311148</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>240.1</v>
@@ -13467,21 +13977,24 @@
         <v>240.06</v>
       </c>
       <c r="T170">
+        <v>240.2</v>
+      </c>
+      <c r="U170">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>1.388966053661456E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-2.777006387111314E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>240</v>
@@ -13538,21 +14051,24 @@
         <v>240.0466666666667</v>
       </c>
       <c r="T171">
+        <v>240.0666666666667</v>
+      </c>
+      <c r="U171">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>0</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-5.554167013810396E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0004164931278634043</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>239.8</v>
@@ -13609,21 +14125,24 @@
         <v>240.0266666666667</v>
       </c>
       <c r="T172">
+        <v>239.9666666666667</v>
+      </c>
+      <c r="U172">
         <v>0.06874999999999432</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-2.777893523342456E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-8.331713277964781E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>-0.0008333333333332416</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>240.1</v>
@@ -13680,21 +14199,24 @@
         <v>240.0266666666667</v>
       </c>
       <c r="T173">
+        <v>239.9666666666667</v>
+      </c>
+      <c r="U173">
         <v>0.09375</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>1.388985346206795E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>0</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>0.001251042535446167</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>240</v>
@@ -13751,21 +14273,24 @@
         <v>240.0266666666667</v>
       </c>
       <c r="T174">
+        <v>239.9666666666667</v>
+      </c>
+      <c r="U174">
         <v>0.06249999999997158</v>
-      </c>
-      <c r="U174">
-        <v>0</v>
       </c>
       <c r="V174">
         <v>0</v>
       </c>
       <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
         <v>-0.0004164931278634043</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>239.8</v>
@@ -13822,21 +14347,24 @@
         <v>240.0133333333333</v>
       </c>
       <c r="T175">
+        <v>239.9666666666667</v>
+      </c>
+      <c r="U175">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-2.777932107334014E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-5.55493834019094E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>-0.0008333333333332416</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>239.7</v>
@@ -13893,21 +14421,24 @@
         <v>240.0066666666667</v>
       </c>
       <c r="T176">
+        <v>239.8333333333333</v>
+      </c>
+      <c r="U176">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-2.778009278558979E-05</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-2.777623465355372E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>-0.0004170141784821668</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>239.5</v>
@@ -13964,21 +14495,24 @@
         <v>239.9733333333334</v>
       </c>
       <c r="T177">
+        <v>239.6666666666667</v>
+      </c>
+      <c r="U177">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-2.778086454047202E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-0.0001388850309712586</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>-0.0008343763037129692</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>239.3</v>
@@ -14035,21 +14569,24 @@
         <v>239.9333333333333</v>
       </c>
       <c r="T178">
+        <v>239.5</v>
+      </c>
+      <c r="U178">
         <v>-0.15625</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-2.778163633831987E-05</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-0.0001666851872431652</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>-0.0008350730688935215</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>239.4</v>
@@ -14106,21 +14643,24 @@
         <v>239.9066666666667</v>
       </c>
       <c r="T179">
+        <v>239.4</v>
+      </c>
+      <c r="U179">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-1.38912040896777E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-0.0001111419838843997</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0.0004178854993730496</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>239.4</v>
@@ -14177,21 +14717,24 @@
         <v>239.8733333333333</v>
       </c>
       <c r="T180">
+        <v>239.3666666666667</v>
+      </c>
+      <c r="U180">
         <v>-0.2249999999999943</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-4.167419117340199E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-0.0001389429222475869</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>239.4</v>
@@ -14248,21 +14791,24 @@
         <v>239.8133333333334</v>
       </c>
       <c r="T181">
+        <v>239.4</v>
+      </c>
+      <c r="U181">
         <v>-0.28125</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-8.335185596797245E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-0.0002501320141184982</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>239.3</v>
@@ -14319,21 +14865,24 @@
         <v>239.7533333333333</v>
       </c>
       <c r="T182">
+        <v>239.3666666666667</v>
+      </c>
+      <c r="U182">
         <v>-0.3062500000000057</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-9.725193809217991E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-0.0002501945957970042</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>-0.0004177109440267612</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>239.3</v>
@@ -14390,21 +14939,24 @@
         <v>239.68</v>
       </c>
       <c r="T183">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="U183">
         <v>-0.3125</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-0.0001111558822303182</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-0.0003058699218640992</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>239.2</v>
@@ -14461,21 +15013,24 @@
         <v>239.62</v>
       </c>
       <c r="T184">
+        <v>239.2666666666667</v>
+      </c>
+      <c r="U184">
         <v>-0.2999999999999829</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-0.0001389602990425898</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.0002503337783711368</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0004178854993732717</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>239.4</v>
@@ -14532,21 +15087,24 @@
         <v>239.5733333333333</v>
       </c>
       <c r="T185">
+        <v>239.3</v>
+      </c>
+      <c r="U185">
         <v>-0.2687499999999545</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-0.0001111836893528118</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-0.0001947528030492585</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0.0008361204013378476</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>239.3</v>
@@ -14603,21 +15161,24 @@
         <v>239.5266666666667</v>
       </c>
       <c r="T186">
+        <v>239.3</v>
+      </c>
+      <c r="U186">
         <v>-0.21875</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-0.0001250955591075575</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-0.000194790739091677</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>-0.0004177109440267612</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>239.3</v>
@@ -14674,21 +15235,24 @@
         <v>239.4933333333333</v>
       </c>
       <c r="T187">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="U187">
         <v>-0.1874999999999716</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-0.0001112099644128284</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-0.0001391633499402412</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>239.3</v>
@@ -14745,21 +15309,24 @@
         <v>239.44</v>
       </c>
       <c r="T188">
+        <v>239.3</v>
+      </c>
+      <c r="U188">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-0.0001112223334444051</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-0.0002226923505176392</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>239.4</v>
@@ -14816,21 +15383,24 @@
         <v>239.4</v>
       </c>
       <c r="T189">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="U189">
         <v>-0.125</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-8.342602892119633E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-0.0001670564650851913</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.0004178854993730496</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>239.2</v>
@@ -14887,21 +15457,24 @@
         <v>239.36</v>
       </c>
       <c r="T190">
+        <v>239.3</v>
+      </c>
+      <c r="U190">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-0.0001112439858720338</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-0.0001670843776107045</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.0008354218880535225</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>239.1</v>
@@ -14958,21 +15531,24 @@
         <v>239.32</v>
       </c>
       <c r="T191">
+        <v>239.2333333333333</v>
+      </c>
+      <c r="U191">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-9.734931716398609E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-0.0001671122994651997</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>-0.0004180602006689238</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>239</v>
@@ -15029,21 +15605,24 @@
         <v>239.2866666666667</v>
       </c>
       <c r="T192">
+        <v>239.1</v>
+      </c>
+      <c r="U192">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-0.0001390839928232523</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-0.0001392835255445979</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.0004182350480970154</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>239</v>
@@ -15100,21 +15679,24 @@
         <v>239.2666666666667</v>
       </c>
       <c r="T193">
+        <v>239.0333333333333</v>
+      </c>
+      <c r="U193">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-0.0001251930058842055</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-8.358175688860658E-05</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>239</v>
@@ -15171,21 +15753,24 @@
         <v>239.24</v>
       </c>
       <c r="T194">
+        <v>239</v>
+      </c>
+      <c r="U194">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-0.0001112966054533926</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-0.00011145165784332</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>238.9</v>
@@ -15242,21 +15827,24 @@
         <v>239.2066666666666</v>
       </c>
       <c r="T195">
+        <v>238.9666666666667</v>
+      </c>
+      <c r="U195">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-0.0001391362422085152</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-0.0001393301008751902</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.0004184100418409553</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>239.2</v>
@@ -15313,21 +15901,24 @@
         <v>239.1933333333333</v>
       </c>
       <c r="T196">
+        <v>239.0333333333333</v>
+      </c>
+      <c r="U196">
         <v>-0.1062500000000171</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-0.0001530711641758442</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-5.573980658279964E-05</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0.001255755546253567</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>238.9</v>
@@ -15384,21 +15975,24 @@
         <v>239.1666666666667</v>
       </c>
       <c r="T197">
+        <v>239</v>
+      </c>
+      <c r="U197">
         <v>-0.1375000000000171</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-0.000180929980097555</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-0.0001114858273641994</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>-0.00125418060200666</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>238.8</v>
@@ -15455,21 +16049,24 @@
         <v>239.1333333333333</v>
       </c>
       <c r="T198">
+        <v>238.9666666666667</v>
+      </c>
+      <c r="U198">
         <v>-0.1562500000000284</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-0.0002227233497591463</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-0.0001393728222995883</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>-0.0004185851820844855</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>238.9</v>
@@ -15526,21 +16123,24 @@
         <v>239.1133333333333</v>
       </c>
       <c r="T199">
+        <v>238.8666666666667</v>
+      </c>
+      <c r="U199">
         <v>-0.15625</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-0.0001670797248755074</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-8.363534987443355E-05</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0.0004187604690117919</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>238.9</v>
@@ -15597,21 +16197,24 @@
         <v>239.08</v>
       </c>
       <c r="T200">
+        <v>238.8666666666667</v>
+      </c>
+      <c r="U200">
         <v>-0.1500000000000341</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-0.0001671076451746911</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-0.0001394039088855603</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>239</v>
@@ -15668,21 +16271,24 @@
         <v>239.06</v>
       </c>
       <c r="T201">
+        <v>238.9333333333333</v>
+      </c>
+      <c r="U201">
         <v>-0.1250000000000284</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-0.0001392796456726186</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-8.365400702703418E-05</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>0.0004185851820845965</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>239.3</v>
@@ -15739,21 +16345,24 @@
         <v>239.06</v>
       </c>
       <c r="T202">
+        <v>239.0666666666667</v>
+      </c>
+      <c r="U202">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-6.964952359733712E-05</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>0</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0.001255230125523088</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>239.1</v>
@@ -15810,21 +16419,24 @@
         <v>239.0466666666667</v>
       </c>
       <c r="T203">
+        <v>239.1333333333333</v>
+      </c>
+      <c r="U203">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-0.0001393087499825807</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-5.577400373679708E-05</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>-0.0008357709987464323</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>239.2</v>
@@ -15881,21 +16493,24 @@
         <v>239.0333333333333</v>
       </c>
       <c r="T204">
+        <v>239.2</v>
+      </c>
+      <c r="U204">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-0.0001114625276914527</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-5.577711464987978E-05</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0004182350480970154</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>239.3</v>
@@ -15952,21 +16567,24 @@
         <v>239.04</v>
       </c>
       <c r="T205">
+        <v>239.2</v>
+      </c>
+      <c r="U205">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-6.967184560724426E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>2.789011295512012E-05</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0.0004180602006689238</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>239.3</v>
@@ -16023,21 +16641,24 @@
         <v>239.0533333333333</v>
       </c>
       <c r="T206">
+        <v>239.2666666666667</v>
+      </c>
+      <c r="U206">
         <v>0.06874999999999432</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-5.574136008912323E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>5.577867023642824E-05</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>239.4</v>
@@ -16094,21 +16715,24 @@
         <v>239.08</v>
       </c>
       <c r="T207">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="U207">
         <v>0.1124999999999829</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>-1.39361168404184E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>0.0001115511183000795</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.0004178854993730496</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>239.2</v>
@@ -16165,21 +16789,24 @@
         <v>239.0933333333333</v>
       </c>
       <c r="T208">
+        <v>239.3</v>
+      </c>
+      <c r="U208">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-1.393631105861548E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>5.576933801787476E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.0008354218880535225</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>239.1</v>
@@ -16236,21 +16863,24 @@
         <v>239.1</v>
       </c>
       <c r="T209">
+        <v>239.2333333333333</v>
+      </c>
+      <c r="U209">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-4.180951584564774E-05</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>2.788311398616017E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0004180602006689238</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>239</v>
@@ -16307,21 +16937,24 @@
         <v>239.1066666666667</v>
       </c>
       <c r="T210">
+        <v>239.1</v>
+      </c>
+      <c r="U210">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-5.574835193933314E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>2.788233653983063E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>-0.0004182350480970154</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>238.9</v>
@@ -16378,21 +17011,24 @@
         <v>239.0866666666666</v>
       </c>
       <c r="T211">
+        <v>239</v>
+      </c>
+      <c r="U211">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-6.968932498940816E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-8.36446774105104E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>-0.0004184100418409553</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>238.9</v>
@@ -16449,21 +17085,24 @@
         <v>239.0866666666666</v>
       </c>
       <c r="T212">
+        <v>238.9333333333333</v>
+      </c>
+      <c r="U212">
         <v>0.0625</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-5.575534554369543E-05</v>
-      </c>
-      <c r="V212">
-        <v>0</v>
       </c>
       <c r="W212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="X212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>239.1</v>
@@ -16520,21 +17159,24 @@
         <v>239.1066666666667</v>
       </c>
       <c r="T213">
+        <v>238.9666666666667</v>
+      </c>
+      <c r="U213">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-2.787922718794356E-05</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>8.36516744278093E-05</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.0008371703641689709</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>238.8</v>
@@ -16591,21 +17233,24 @@
         <v>239.1</v>
       </c>
       <c r="T214">
+        <v>238.9333333333333</v>
+      </c>
+      <c r="U214">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-5.576000892160149E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>-2.788155913679979E-05</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>-0.001254705144291046</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>238.9</v>
@@ -16662,21 +17307,24 @@
         <v>239.1</v>
       </c>
       <c r="T215">
+        <v>238.9333333333334</v>
+      </c>
+      <c r="U215">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-6.970389784188846E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>0</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.0004187604690117919</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>238.8</v>
@@ -16733,21 +17381,24 @@
         <v>239.0866666666666</v>
       </c>
       <c r="T216">
+        <v>238.8333333333333</v>
+      </c>
+      <c r="U216">
         <v>-0.1437499999999829</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-6.970875681411304E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-5.576467307966126E-05</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.0004185851820844855</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>238.8</v>
@@ -16804,21 +17455,24 @@
         <v>239.0533333333333</v>
       </c>
       <c r="T217">
+        <v>238.8333333333333</v>
+      </c>
+      <c r="U217">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-6.971361646346264E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>-0.0001394194573793861</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>238.9</v>
@@ -16875,21 +17529,24 @@
         <v>239.04</v>
       </c>
       <c r="T218">
+        <v>238.8333333333333</v>
+      </c>
+      <c r="U218">
         <v>-0.15625</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-5.577478143259373E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-5.577555915003973E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0.0004187604690117919</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>238.7</v>
@@ -16946,21 +17603,24 @@
         <v>239.0066666666667</v>
       </c>
       <c r="T219">
+        <v>238.8</v>
+      </c>
+      <c r="U219">
         <v>-0.1562499999999716</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-9.761131175645144E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-0.0001394466755912926</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>-0.000837170364169193</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>239.2</v>
@@ -17017,21 +17677,24 @@
         <v>239</v>
       </c>
       <c r="T220">
+        <v>238.9333333333333</v>
+      </c>
+      <c r="U220">
         <v>-0.1187500000000057</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>0</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-2.789322473573108E-05</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0.002094679514034414</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>239.2</v>
@@ -17088,21 +17751,24 @@
         <v>238.9933333333333</v>
       </c>
       <c r="T221">
+        <v>239.0333333333333</v>
+      </c>
+      <c r="U221">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>1.394583437930308E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>-2.789400278935261E-05</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>239.4</v>
@@ -17159,21 +17825,24 @@
         <v>238.9933333333333</v>
       </c>
       <c r="T222">
+        <v>239.2666666666667</v>
+      </c>
+      <c r="U222">
         <v>-0.03125</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>5.578255958260669E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>0</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0.0008361204013378476</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>239.3</v>
@@ -17230,21 +17899,24 @@
         <v>239</v>
       </c>
       <c r="T223">
+        <v>239.3</v>
+      </c>
+      <c r="U223">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>4.1834586046674E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>2.789478088649489E-05</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.0004177109440267612</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>239.3</v>
@@ -17301,21 +17973,24 @@
         <v>239.0133333333333</v>
       </c>
       <c r="T224">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="U224">
         <v>0.08124999999998295</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>4.183283598746534E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>5.578800557870522E-05</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>239.4</v>
@@ -17372,21 +18047,24 @@
         <v>239.04</v>
       </c>
       <c r="T225">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="U225">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>6.971847679060339E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>0.000111569786901633</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.0004178854993730496</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>239.3</v>
@@ -17443,21 +18121,24 @@
         <v>239.0666666666667</v>
       </c>
       <c r="T226">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="U226">
         <v>0.1687500000000171</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>1.394272329280355E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>0.0001115573404730785</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>-0.0004177109440267612</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>239.4</v>
@@ -17514,21 +18195,24 @@
         <v>239.1</v>
       </c>
       <c r="T227">
+        <v>239.3666666666667</v>
+      </c>
+      <c r="U227">
         <v>0.2249999999999943</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>6.971264447930281E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>0.0001394311210261012</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0.0004178854993730496</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>239.3</v>
@@ -17585,21 +18269,24 @@
         <v>239.1133333333333</v>
       </c>
       <c r="T228">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="U228">
         <v>0.2125000000000057</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>6.970778496540042E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>5.576467307966126E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>-0.0004177109440267612</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>239.3</v>
@@ -17656,21 +18343,24 @@
         <v>239.1466666666667</v>
       </c>
       <c r="T229">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="U229">
         <v>0.2124999999999773</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>5.576234090320931E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>0.0001394039088855603</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>239.2</v>
@@ -17727,21 +18417,24 @@
         <v>239.1666666666667</v>
       </c>
       <c r="T230">
+        <v>239.2666666666667</v>
+      </c>
+      <c r="U230">
         <v>0.1624999999999943</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>4.181942372838421E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>8.363068688654884E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.0004178854993732717</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>239.2</v>
@@ -17798,21 +18491,24 @@
         <v>239.1933333333333</v>
       </c>
       <c r="T231">
+        <v>239.2333333333333</v>
+      </c>
+      <c r="U231">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>2.787844995832955E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>0.0001114982578398482</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>239.1</v>
@@ -17869,21 +18565,24 @@
         <v>239.2133333333333</v>
       </c>
       <c r="T232">
+        <v>239.1666666666667</v>
+      </c>
+      <c r="U232">
         <v>0.08750000000000568</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>-2.787767277201425E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>8.361437052317733E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>-0.0004180602006689238</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>239</v>
@@ -17940,21 +18639,24 @@
         <v>239.22</v>
       </c>
       <c r="T233">
+        <v>239.1</v>
+      </c>
+      <c r="U233">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>-1.393922497905375E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>2.786912658159224E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>-0.0004182350480970154</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>239</v>
@@ -18011,21 +18713,24 @@
         <v>239.24</v>
       </c>
       <c r="T234">
+        <v>239.0333333333333</v>
+      </c>
+      <c r="U234">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-2.787883856758544E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>8.360504974525007E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>239</v>
@@ -18082,21 +18787,24 @@
         <v>239.2266666666666</v>
       </c>
       <c r="T235">
+        <v>239</v>
+      </c>
+      <c r="U235">
         <v>-0.08750000000003411</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-4.181942372838421E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-5.57320403502537E-05</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>238.9</v>
@@ -18153,21 +18861,24 @@
         <v>239.2066666666666</v>
       </c>
       <c r="T236">
+        <v>238.9666666666667</v>
+      </c>
+      <c r="U236">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-5.576156355424633E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-8.36027198750644E-05</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>-0.0004184100418409553</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>238.9</v>
@@ -18224,21 +18935,24 @@
         <v>239.1733333333333</v>
       </c>
       <c r="T237">
+        <v>238.9333333333333</v>
+      </c>
+      <c r="U237">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-6.970584134946556E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-0.0001393495164572212</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>238.7</v>
@@ -18295,21 +19009,24 @@
         <v>239.1333333333333</v>
       </c>
       <c r="T238">
+        <v>238.8333333333333</v>
+      </c>
+      <c r="U238">
         <v>-0.1687500000000171</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-6.971070059258455E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-0.0001672427249413966</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>-0.000837170364169193</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>238.7</v>
@@ -18366,21 +19083,24 @@
         <v>239.0933333333333</v>
       </c>
       <c r="T239">
+        <v>238.7666666666667</v>
+      </c>
+      <c r="U239">
         <v>-0.1937500000000227</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>-5.577244841059592E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-0.0001672706997490891</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>238.7</v>
@@ -18437,21 +19157,24 @@
         <v>239.0466666666667</v>
       </c>
       <c r="T240">
+        <v>238.7</v>
+      </c>
+      <c r="U240">
         <v>-0.2062499999999829</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>-4.183166936233551E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-0.0001951817979032322</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>238.6</v>
@@ -18508,21 +19231,24 @@
         <v>239</v>
       </c>
       <c r="T241">
+        <v>238.6666666666667</v>
+      </c>
+      <c r="U241">
         <v>-0.2062499999999829</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>-4.183341932428863E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-0.0001952199012745792</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>-0.0004189359028068385</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>238.6</v>
@@ -18579,21 +19305,24 @@
         <v>238.9466666666667</v>
       </c>
       <c r="T242">
+        <v>238.6333333333333</v>
+      </c>
+      <c r="U242">
         <v>-0.2125000000000341</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>-4.183516943234711E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-0.0002231520223150429</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>238.5</v>
@@ -18650,21 +19379,24 @@
         <v>238.8933333333333</v>
       </c>
       <c r="T243">
+        <v>238.5666666666667</v>
+      </c>
+      <c r="U243">
         <v>-0.2187500000000284</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-8.367383937402106E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-0.0002232018302550376</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.0004191114836545884</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>238.2</v>
@@ -18721,21 +19453,24 @@
         <v>238.82</v>
       </c>
       <c r="T244">
+        <v>238.4333333333333</v>
+      </c>
+      <c r="U244">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-8.368084127152731E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-0.0003069710330971809</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>-0.001257861635220126</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>238.3</v>
@@ -18792,21 +19527,24 @@
         <v>238.76</v>
       </c>
       <c r="T245">
+        <v>238.3333333333333</v>
+      </c>
+      <c r="U245">
         <v>-0.25</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>-8.368784434054088E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>-0.000251235239929537</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0.0004198152812764366</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>238.2</v>
@@ -18863,21 +19601,24 @@
         <v>238.6933333333333</v>
       </c>
       <c r="T246">
+        <v>238.2333333333333</v>
+      </c>
+      <c r="U246">
         <v>-0.25</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>-8.3694848582061E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>-0.0002792204165970036</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>-0.0004196391103651331</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>238.5</v>
@@ -18934,21 +19675,24 @@
         <v>238.6533333333333</v>
       </c>
       <c r="T247">
+        <v>238.3333333333333</v>
+      </c>
+      <c r="U247">
         <v>-0.2312500000000171</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>-4.185092699804382E-05</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>-0.0001675790414478184</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>0.001259445843828866</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>238.5</v>
@@ -19005,21 +19749,24 @@
         <v>238.62</v>
       </c>
       <c r="T248">
+        <v>238.4</v>
+      </c>
+      <c r="U248">
         <v>-0.21875</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>-5.580357142853654E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>-0.0001396726074082144</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>238.7</v>
@@ -19076,21 +19823,24 @@
         <v>238.6</v>
       </c>
       <c r="T249">
+        <v>238.5666666666667</v>
+      </c>
+      <c r="U249">
         <v>-0.1875</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>-8.381527114242893E-05</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>0.0008385744234800097</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>238.7</v>
@@ -19147,21 +19897,24 @@
         <v>238.58</v>
       </c>
       <c r="T250">
+        <v>238.6333333333333</v>
+      </c>
+      <c r="U250">
         <v>-0.1562500000000284</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-6.975835705125277E-05</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-8.382229673087327E-05</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>238.7</v>
@@ -19218,21 +19971,24 @@
         <v>238.5666666666667</v>
       </c>
       <c r="T251">
+        <v>238.7</v>
+      </c>
+      <c r="U251">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-6.976322361884613E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>-5.588621566499086E-05</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>238.7</v>
@@ -19289,21 +20045,24 @@
         <v>238.5533333333333</v>
       </c>
       <c r="T252">
+        <v>238.7</v>
+      </c>
+      <c r="U252">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>-9.767532721238759E-05</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>-5.58893391084947E-05</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>238.8</v>
@@ -19360,21 +20119,24 @@
         <v>238.56</v>
       </c>
       <c r="T253">
+        <v>238.7333333333333</v>
+      </c>
+      <c r="U253">
         <v>0.03125</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>-6.977490615267534E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>2.794623145074837E-05</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>0.0004189359028070605</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>238.8</v>
@@ -19431,21 +20193,24 @@
         <v>238.5666666666667</v>
       </c>
       <c r="T254">
+        <v>238.7666666666667</v>
+      </c>
+      <c r="U254">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-6.977977503019872E-05</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>2.794545048057095E-05</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>238.5</v>
@@ -19502,21 +20267,24 @@
         <v>238.5533333333333</v>
       </c>
       <c r="T255">
+        <v>238.7</v>
+      </c>
+      <c r="U255">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-0.0001256123602560999</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>-5.58893391084947E-05</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>-0.001256281407035265</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>238.6</v>
@@ -19573,21 +20341,24 @@
         <v>238.5533333333333</v>
       </c>
       <c r="T256">
+        <v>238.6333333333333</v>
+      </c>
+      <c r="U256">
         <v>0.1312499999999943</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-9.771077610276624E-05</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>0</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>0.0004192872117401159</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>238.4</v>
@@ -19644,21 +20415,24 @@
         <v>238.54</v>
       </c>
       <c r="T257">
+        <v>238.5</v>
+      </c>
+      <c r="U257">
         <v>0.1062499999999602</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-0.0001396004634736103</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>-5.589246290149674E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>-0.0008382229673092878</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>238.4</v>
@@ -19715,21 +20489,24 @@
         <v>238.5333333333333</v>
       </c>
       <c r="T258">
+        <v>238.4666666666667</v>
+      </c>
+      <c r="U258">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>-0.0001256579590354079</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-2.794779352166543E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>238.1</v>
@@ -19786,21 +20563,24 @@
         <v>238.5266666666667</v>
       </c>
       <c r="T259">
+        <v>238.3</v>
+      </c>
+      <c r="U259">
         <v>0.03125000000002842</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>-0.0001675650012568086</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>-2.794857462262712E-05</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>-0.001258389261745041</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>238.1</v>
@@ -19857,21 +20637,24 @@
         <v>238.5133333333333</v>
       </c>
       <c r="T260">
+        <v>238.2</v>
+      </c>
+      <c r="U260">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>-0.0001536269936592838</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>-5.589871153477421E-05</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>238.1</v>
@@ -19928,21 +20711,24 @@
         <v>238.5066666666667</v>
       </c>
       <c r="T261">
+        <v>238.1</v>
+      </c>
+      <c r="U261">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>-0.0001536505985390013</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>-2.795091818763584E-05</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>238</v>
@@ -19999,21 +20785,24 @@
         <v>238.4733333333333</v>
       </c>
       <c r="T262">
+        <v>238.0666666666667</v>
+      </c>
+      <c r="U262">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>-0.0001536742106732492</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>-0.0001397584973166222</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>-0.0004199916001679238</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>238</v>
@@ -20070,21 +20859,24 @@
         <v>238.44</v>
       </c>
       <c r="T263">
+        <v>238.0333333333333</v>
+      </c>
+      <c r="U263">
         <v>-0.2312500000000171</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>-0.0001397253000601228</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>-0.0001397780324844389</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>238</v>
@@ -20141,21 +20933,24 @@
         <v>238.3933333333333</v>
       </c>
       <c r="T264">
+        <v>238</v>
+      </c>
+      <c r="U264">
         <v>-0.2750000000000057</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>-0.0001397448259478073</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>-0.0001957166023597301</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>238</v>
@@ -20212,21 +21007,24 @@
         <v>238.3466666666667</v>
       </c>
       <c r="T265">
+        <v>238</v>
+      </c>
+      <c r="U265">
         <v>-0.2812500000000284</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>-0.0001397643572936813</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>-0.0001957549148466908</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>237.9</v>
@@ -20283,21 +21081,24 @@
         <v>238.2933333333334</v>
       </c>
       <c r="T266">
+        <v>237.9666666666667</v>
+      </c>
+      <c r="U266">
         <v>-0.2937499999999886</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>-0.0001397838940998541</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>-0.0002237637055269026</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>-0.0004201680672268893</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>237.9</v>
@@ -20354,21 +21155,24 @@
         <v>238.24</v>
       </c>
       <c r="T267">
+        <v>237.9333333333333</v>
+      </c>
+      <c r="U267">
         <v>-0.2687500000000114</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>-0.0001398034363684353</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>-0.0002238137869294832</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>237.6</v>
@@ -20425,21 +21229,24 @@
         <v>238.16</v>
       </c>
       <c r="T268">
+        <v>237.8</v>
+      </c>
+      <c r="U268">
         <v>-0.2625000000000171</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>-0.0001538052825121872</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>-0.000335795836131525</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>-0.001261034047919329</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>237.6</v>
@@ -20496,21 +21303,24 @@
         <v>238.08</v>
       </c>
       <c r="T269">
+        <v>237.7</v>
+      </c>
+      <c r="U269">
         <v>-0.25</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>-0.000153828942216272</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>-0.0003359086328519334</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>237.4</v>
@@ -20567,21 +21377,24 @@
         <v>238.0066666666667</v>
       </c>
       <c r="T270">
+        <v>237.5333333333333</v>
+      </c>
+      <c r="U270">
         <v>-0.2374999999999829</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>-0.0001818258108732262</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>-0.0003080197132615536</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>-0.0008417508417507547</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>237.3</v>
@@ -20638,21 +21451,24 @@
         <v>237.92</v>
       </c>
       <c r="T271">
+        <v>237.4333333333333</v>
+      </c>
+      <c r="U271">
         <v>-0.25</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>-0.0001818588775109875</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>-0.0003641354583904244</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>-0.0004212299915753448</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>237.6</v>
@@ -20709,21 +21525,24 @@
         <v>237.8666666666667</v>
       </c>
       <c r="T272">
+        <v>237.4333333333333</v>
+      </c>
+      <c r="U272">
         <v>-0.2374999999999829</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>-0.0001399168893678748</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>-0.0002241649854293204</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0.001264222503160495</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>237.7</v>
@@ -20780,21 +21599,24 @@
         <v>237.82</v>
       </c>
       <c r="T273">
+        <v>237.5333333333333</v>
+      </c>
+      <c r="U273">
         <v>-0.2312499999999886</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>-0.0001119491750743995</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>-0.0001961883408072573</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>0.0004208754208754328</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>237.7</v>
@@ -20851,21 +21673,24 @@
         <v>237.7933333333333</v>
       </c>
       <c r="T274">
+        <v>237.6666666666667</v>
+      </c>
+      <c r="U274">
         <v>-0.2125000000000057</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>-6.997606818470725E-05</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>-0.0001121296218428158</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>237.8</v>
@@ -20922,21 +21747,24 @@
         <v>237.7733333333333</v>
       </c>
       <c r="T275">
+        <v>237.7333333333333</v>
+      </c>
+      <c r="U275">
         <v>-0.2062499999999829</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>-6.998096517740748E-05</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>-8.410664722857675E-05</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0.0004206983592764946</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>237.9</v>
@@ -20993,21 +21821,24 @@
         <v>237.76</v>
       </c>
       <c r="T276">
+        <v>237.8</v>
+      </c>
+      <c r="U276">
         <v>-0.15625</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>-4.199151771355769E-05</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>-5.607581450117749E-05</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>0.000420521446593769</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>238</v>
@@ -21064,21 +21895,24 @@
         <v>237.76</v>
       </c>
       <c r="T277">
+        <v>237.9</v>
+      </c>
+      <c r="U277">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>-6.99888017916539E-05</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>0</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>0.0004203446826398505</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>238</v>
@@ -21135,21 +21969,24 @@
         <v>237.76</v>
       </c>
       <c r="T278">
+        <v>237.9666666666667</v>
+      </c>
+      <c r="U278">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>-6.999370056703924E-05</v>
-      </c>
-      <c r="V278">
-        <v>0</v>
       </c>
       <c r="W278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:23">
+      <c r="X278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>237.7</v>
@@ -21206,21 +22043,24 @@
         <v>237.74</v>
       </c>
       <c r="T279">
+        <v>237.9</v>
+      </c>
+      <c r="U279">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>-0.0001399972000559746</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>-8.41184387619931E-05</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>-0.001260504201680668</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>237.7</v>
@@ -21277,21 +22117,24 @@
         <v>237.72</v>
       </c>
       <c r="T280">
+        <v>237.8</v>
+      </c>
+      <c r="U280">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>-0.0001400168020162518</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>-8.412551526870704E-05</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>237.5</v>
@@ -21348,21 +22191,24 @@
         <v>237.6933333333333</v>
       </c>
       <c r="T281">
+        <v>237.6333333333333</v>
+      </c>
+      <c r="U281">
         <v>0.08124999999998295</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>-0.0001680436913598093</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>-0.0001121767906220317</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>-0.0008413967185527671</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>237.3</v>
@@ -21419,21 +22265,24 @@
         <v>237.6533333333333</v>
       </c>
       <c r="T282">
+        <v>237.5</v>
+      </c>
+      <c r="U282">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>-0.0001960839239193435</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>-0.0001682840634992244</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>-0.0008421052631578663</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>236.8</v>
@@ -21490,21 +22339,24 @@
         <v>237.6</v>
       </c>
       <c r="T283">
+        <v>237.2</v>
+      </c>
+      <c r="U283">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>-0.0002801748290933714</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>-0.0002244165170556256</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>-0.002107037505267639</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>236.7</v>
@@ -21561,21 +22413,24 @@
         <v>237.54</v>
       </c>
       <c r="T284">
+        <v>236.9333333333334</v>
+      </c>
+      <c r="U284">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>-0.0002942660164788613</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>-0.0002525252525252819</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>-0.0004222972972973693</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>236.8</v>
@@ -21632,21 +22487,24 @@
         <v>237.5</v>
       </c>
       <c r="T285">
+        <v>236.7666666666667</v>
+      </c>
+      <c r="U285">
         <v>-0.1812500000000057</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>-0.0002382854659881417</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>-0.0001683926917571688</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>0.0004224757076469743</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>236.3</v>
@@ -21703,21 +22561,24 @@
         <v>237.4333333333333</v>
       </c>
       <c r="T286">
+        <v>236.6</v>
+      </c>
+      <c r="U286">
         <v>-0.3250000000000171</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>-0.0003224630569498288</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>-0.0002807017543859924</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>-0.002111486486486513</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>236.2</v>
@@ -21774,21 +22635,24 @@
         <v>237.34</v>
       </c>
       <c r="T287">
+        <v>236.4333333333333</v>
+      </c>
+      <c r="U287">
         <v>-0.4437499999999943</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>-0.0003085424175700568</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>-0.0003930927979783894</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>-0.0004231908590774935</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>236.4</v>
@@ -21845,21 +22709,24 @@
         <v>237.2533333333334</v>
       </c>
       <c r="T288">
+        <v>236.3</v>
+      </c>
+      <c r="U288">
         <v>-0.53125</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>-0.000280579677614079</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>-0.0003651582820706212</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>0.0008467400508045397</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>236.5</v>
@@ -21916,21 +22783,24 @@
         <v>237.1733333333333</v>
       </c>
       <c r="T289">
+        <v>236.3666666666666</v>
+      </c>
+      <c r="U289">
         <v>-0.5812500000000114</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>-0.0002245267397313899</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>-0.0003371923120153442</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>0.0004230118443315778</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>236.4</v>
@@ -21987,21 +22857,24 @@
         <v>237.08</v>
       </c>
       <c r="T290">
+        <v>236.4333333333334</v>
+      </c>
+      <c r="U290">
         <v>-0.6125000000000398</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>-0.0002386132360164828</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>-0.000393523723858813</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>-0.000422832980972454</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>237</v>
@@ -22058,21 +22931,24 @@
         <v>237.02</v>
       </c>
       <c r="T291">
+        <v>236.6333333333333</v>
+      </c>
+      <c r="U291">
         <v>-0.5375000000000227</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>-0.0001544336496884791</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>-0.0002530791294077517</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>0.002538071065989911</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>237.2</v>
@@ -22129,21 +23005,24 @@
         <v>236.9666666666667</v>
       </c>
       <c r="T292">
+        <v>236.8666666666667</v>
+      </c>
+      <c r="U292">
         <v>-0.4312500000000057</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>-0.0001123327295449172</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>-0.0002250161730374955</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>0.0008438818565399409</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>237.3</v>
@@ -22200,21 +23079,24 @@
         <v>236.92</v>
       </c>
       <c r="T293">
+        <v>237.1666666666667</v>
+      </c>
+      <c r="U293">
         <v>-0.3250000000000171</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>-9.830218090400855E-05</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>-0.0001969334646222398</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>0.00042158516020252</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>237.2</v>
@@ -22271,21 +23153,24 @@
         <v>236.8866666666667</v>
       </c>
       <c r="T294">
+        <v>237.2333333333333</v>
+      </c>
+      <c r="U294">
         <v>-0.1624999999999943</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>-0.0001123563944833705</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>-0.000140694467893554</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>-0.0004214075010535723</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>237.1</v>
@@ -22342,21 +23227,24 @@
         <v>236.8466666666667</v>
       </c>
       <c r="T295">
+        <v>237.2</v>
+      </c>
+      <c r="U295">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>-0.0001264151473439057</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>-0.000168857118734822</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>-0.000421585160202298</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>237.1</v>
@@ -22413,21 +23301,24 @@
         <v>236.82</v>
       </c>
       <c r="T296">
+        <v>237.1333333333333</v>
+      </c>
+      <c r="U296">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>-0.0001123832268034031</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>-0.0001125904241844333</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>237.2</v>
@@ -22484,21 +23375,24 @@
         <v>236.8133333333334</v>
       </c>
       <c r="T297">
+        <v>237.1333333333333</v>
+      </c>
+      <c r="U297">
         <v>0.21875</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>-9.834637593608697E-05</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>-2.815077555373691E-05</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>0.00042176296921137</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>236.9</v>
@@ -22555,21 +23449,24 @@
         <v>236.82</v>
       </c>
       <c r="T298">
+        <v>237.0666666666667</v>
+      </c>
+      <c r="U298">
         <v>0.3062499999999773</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <v>-9.83560488969637E-05</v>
       </c>
-      <c r="V298">
+      <c r="W298">
         <v>2.815156804225616E-05</v>
       </c>
-      <c r="W298">
+      <c r="X298">
         <v>-0.001264755480607005</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>236.8</v>
@@ -22626,21 +23523,24 @@
         <v>236.8266666666667</v>
       </c>
       <c r="T299">
+        <v>236.9666666666667</v>
+      </c>
+      <c r="U299">
         <v>0.28125</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>-0.0001124179700124905</v>
       </c>
-      <c r="V299">
+      <c r="W299">
         <v>2.815077555373691E-05</v>
       </c>
-      <c r="W299">
+      <c r="X299">
         <v>-0.0004221190375686135</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>237</v>
@@ -22697,21 +23597,24 @@
         <v>236.84</v>
       </c>
       <c r="T300">
+        <v>236.9</v>
+      </c>
+      <c r="U300">
         <v>0.2374999999999829</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>-5.621530461663582E-05</v>
       </c>
-      <c r="V300">
+      <c r="W300">
         <v>5.629996621991928E-05</v>
       </c>
-      <c r="W300">
+      <c r="X300">
         <v>0.0008445945945945166</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301">
         <v>237.2</v>
@@ -22768,21 +23671,24 @@
         <v>236.9</v>
       </c>
       <c r="T301">
+        <v>237</v>
+      </c>
+      <c r="U301">
         <v>0.1999999999999886</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <v>-1.405461623882331E-05</v>
       </c>
-      <c r="V301">
+      <c r="W301">
         <v>0.0002533355852052388</v>
       </c>
-      <c r="W301">
+      <c r="X301">
         <v>0.0008438818565399409</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302">
         <v>237.4</v>
@@ -22839,21 +23745,24 @@
         <v>236.98</v>
       </c>
       <c r="T302">
+        <v>237.2</v>
+      </c>
+      <c r="U302">
         <v>0.1562500000000284</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <v>-2.810962754740132E-05</v>
       </c>
-      <c r="V302">
+      <c r="W302">
         <v>0.0003376952300548908</v>
       </c>
-      <c r="W302">
+      <c r="X302">
         <v>0.000843170320404818</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303">
         <v>237.4</v>
@@ -22910,21 +23819,24 @@
         <v>237.0466666666667</v>
       </c>
       <c r="T303">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="U303">
         <v>0.1187500000000057</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <v>-4.216562658121425E-05</v>
       </c>
-      <c r="V303">
+      <c r="W303">
         <v>0.000281317692069738</v>
       </c>
-      <c r="W303">
+      <c r="X303">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304">
         <v>237.6</v>
@@ -22981,21 +23893,24 @@
         <v>237.12</v>
       </c>
       <c r="T304">
+        <v>237.4666666666667</v>
+      </c>
+      <c r="U304">
         <v>0.1062500000000171</v>
       </c>
-      <c r="U304">
+      <c r="V304">
         <v>-1.405580153224228E-05</v>
       </c>
-      <c r="V304">
+      <c r="W304">
         <v>0.0003093624321510724</v>
       </c>
-      <c r="W304">
+      <c r="X304">
         <v>0.0008424599831506896</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305">
         <v>237.7</v>
@@ -23052,21 +23967,24 @@
         <v>237.2066666666666</v>
       </c>
       <c r="T305">
+        <v>237.5666666666667</v>
+      </c>
+      <c r="U305">
         <v>0.09375</v>
       </c>
-      <c r="U305">
+      <c r="V305">
         <v>-1.405599910042632E-05</v>
       </c>
-      <c r="V305">
+      <c r="W305">
         <v>0.0003654970760234022</v>
       </c>
-      <c r="W305">
+      <c r="X305">
         <v>0.0004208754208754328</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>237.7</v>
@@ -23123,21 +24041,24 @@
         <v>237.2533333333333</v>
       </c>
       <c r="T306">
+        <v>237.6666666666667</v>
+      </c>
+      <c r="U306">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <v>-2.811239334843396E-05</v>
       </c>
-      <c r="V306">
+      <c r="W306">
         <v>0.0001967342120794413</v>
       </c>
-      <c r="W306">
+      <c r="X306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307">
         <v>237.3</v>
@@ -23194,21 +24115,24 @@
         <v>237.26</v>
       </c>
       <c r="T307">
+        <v>237.5666666666666</v>
+      </c>
+      <c r="U307">
         <v>0.15625</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <v>-9.839614287132648E-05</v>
       </c>
-      <c r="V307">
+      <c r="W307">
         <v>2.809935933489882E-05</v>
       </c>
-      <c r="W307">
+      <c r="X307">
         <v>-0.001682793437105534</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308">
         <v>237.4</v>
@@ -23265,21 +24189,24 @@
         <v>237.2666666666667</v>
       </c>
       <c r="T308">
+        <v>237.4666666666667</v>
+      </c>
+      <c r="U308">
         <v>0.1937499999999943</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <v>-8.434785053557103E-05</v>
       </c>
-      <c r="V308">
+      <c r="W308">
         <v>2.809856978269742E-05</v>
       </c>
-      <c r="W308">
+      <c r="X308">
         <v>0.0004214075010535723</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309">
         <v>237.3</v>
@@ -23336,21 +24263,24 @@
         <v>237.2733333333333</v>
       </c>
       <c r="T309">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="U309">
         <v>0.2062500000000114</v>
       </c>
-      <c r="U309">
+      <c r="V309">
         <v>-5.623664379705851E-05</v>
       </c>
-      <c r="V309">
+      <c r="W309">
         <v>2.809778027534904E-05</v>
       </c>
-      <c r="W309">
+      <c r="X309">
         <v>-0.0004212299915753448</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310">
         <v>237.3</v>
@@ -23407,21 +24337,24 @@
         <v>237.2866666666667</v>
       </c>
       <c r="T310">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="U310">
         <v>0.1874999999999716</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <v>-5.623980653512994E-05</v>
       </c>
-      <c r="V310">
+      <c r="W310">
         <v>5.61939816245971E-05</v>
       </c>
-      <c r="W310">
+      <c r="X310">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B311">
         <v>237.4</v>
@@ -23478,21 +24411,24 @@
         <v>237.3066666666667</v>
       </c>
       <c r="T311">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="U311">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U311">
+      <c r="V311">
         <v>-1.406074240706268E-05</v>
       </c>
-      <c r="V311">
+      <c r="W311">
         <v>8.42862360577179E-05</v>
       </c>
-      <c r="W311">
+      <c r="X311">
         <v>0.0004214075010535723</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>237.3</v>
@@ -23549,21 +24485,24 @@
         <v>237.3133333333333</v>
       </c>
       <c r="T312">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="U312">
         <v>0.1187499999999773</v>
       </c>
-      <c r="U312">
+      <c r="V312">
         <v>0</v>
       </c>
-      <c r="V312">
+      <c r="W312">
         <v>2.80930441620697E-05</v>
       </c>
-      <c r="W312">
+      <c r="X312">
         <v>-0.0004212299915753448</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B313">
         <v>237.6</v>
@@ -23620,21 +24559,24 @@
         <v>237.36</v>
       </c>
       <c r="T313">
+        <v>237.4333333333333</v>
+      </c>
+      <c r="U313">
         <v>0.08125000000003979</v>
       </c>
-      <c r="U313">
+      <c r="V313">
         <v>0.0001124875209155274</v>
       </c>
-      <c r="V313">
+      <c r="W313">
         <v>0.00019664578475731</v>
       </c>
-      <c r="W313">
+      <c r="X313">
         <v>0.001264222503160495</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B314">
         <v>237.6</v>
@@ -23691,21 +24633,24 @@
         <v>237.4133333333334</v>
       </c>
       <c r="T314">
+        <v>237.5</v>
+      </c>
+      <c r="U314">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U314">
+      <c r="V314">
         <v>0.0001265342275085235</v>
       </c>
-      <c r="V314">
+      <c r="W314">
         <v>0.0002246938546230925</v>
       </c>
-      <c r="W314">
+      <c r="X314">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B315">
         <v>237.8</v>
@@ -23762,21 +24707,24 @@
         <v>237.4666666666667</v>
       </c>
       <c r="T315">
+        <v>237.6666666666667</v>
+      </c>
+      <c r="U315">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U315">
+      <c r="V315">
         <v>0.0001405757984704881</v>
       </c>
-      <c r="V315">
+      <c r="W315">
         <v>0.0002246433786363689</v>
       </c>
-      <c r="W315">
+      <c r="X315">
         <v>0.0008417508417508657</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B316">
         <v>237.9</v>
@@ -23833,21 +24781,24 @@
         <v>237.5133333333333</v>
       </c>
       <c r="T316">
+        <v>237.7666666666667</v>
+      </c>
+      <c r="U316">
         <v>0.03125</v>
       </c>
-      <c r="U316">
+      <c r="V316">
         <v>0.0002248896635088649</v>
       </c>
-      <c r="V316">
+      <c r="W316">
         <v>0.0001965188096575421</v>
       </c>
-      <c r="W316">
+      <c r="X316">
         <v>0.000420521446593769</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B317">
         <v>237.6</v>
@@ -23904,21 +24855,24 @@
         <v>237.5266666666667</v>
       </c>
       <c r="T317">
+        <v>237.7666666666667</v>
+      </c>
+      <c r="U317">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U317">
+      <c r="V317">
         <v>0.0001967342120796634</v>
       </c>
-      <c r="V317">
+      <c r="W317">
         <v>5.61371993150761E-05</v>
       </c>
-      <c r="W317">
+      <c r="X317">
         <v>-0.001261034047919329</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B318">
         <v>237.5</v>
@@ -23975,21 +24929,24 @@
         <v>237.5333333333333</v>
       </c>
       <c r="T318">
+        <v>237.6666666666667</v>
+      </c>
+      <c r="U318">
         <v>0.06249999999997158</v>
       </c>
-      <c r="U318">
+      <c r="V318">
         <v>0.0001545464763403892</v>
       </c>
-      <c r="V318">
+      <c r="W318">
         <v>2.806702405333539E-05</v>
       </c>
-      <c r="W318">
+      <c r="X318">
         <v>-0.0004208754208754328</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B319">
         <v>237.4</v>
@@ -24046,21 +25003,24 @@
         <v>237.52</v>
       </c>
       <c r="T319">
+        <v>237.5</v>
+      </c>
+      <c r="U319">
         <v>0.0625</v>
       </c>
-      <c r="U319">
+      <c r="V319">
         <v>0.0001264275780690216</v>
       </c>
-      <c r="V319">
+      <c r="W319">
         <v>-5.613247263536181E-05</v>
       </c>
-      <c r="W319">
+      <c r="X319">
         <v>-0.0004210526315788776</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:24">
       <c r="A320" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B320">
         <v>237.4</v>
@@ -24117,21 +25077,24 @@
         <v>237.5</v>
       </c>
       <c r="T320">
+        <v>237.4333333333333</v>
+      </c>
+      <c r="U320">
         <v>0.08750000000000568</v>
       </c>
-      <c r="U320">
+      <c r="V320">
         <v>0.0001404573290633149</v>
       </c>
-      <c r="V320">
+      <c r="W320">
         <v>-8.420343550019638E-05</v>
       </c>
-      <c r="W320">
+      <c r="X320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:24">
       <c r="A321" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B321">
         <v>237.2</v>
@@ -24188,21 +25151,24 @@
         <v>237.4666666666667</v>
       </c>
       <c r="T321">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="U321">
         <v>0.06874999999999432</v>
       </c>
-      <c r="U321">
+      <c r="V321">
         <v>2.808752071459253E-05</v>
       </c>
-      <c r="V321">
+      <c r="W321">
         <v>-0.0001403508771929962</v>
       </c>
-      <c r="W321">
+      <c r="X321">
         <v>-0.0008424599831509116</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:24">
       <c r="A322" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B322">
         <v>237</v>
@@ -24259,15 +25225,18 @@
         <v>237.4466666666667</v>
       </c>
       <c r="T322">
+        <v>237.2</v>
+      </c>
+      <c r="U322">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U322">
+      <c r="V322">
         <v>-2.808673182785881E-05</v>
       </c>
-      <c r="V322">
+      <c r="W322">
         <v>-8.422234699612119E-05</v>
       </c>
-      <c r="W322">
+      <c r="X322">
         <v>-0.000843170320404707</v>
       </c>
     </row>
